--- a/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
+++ b/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Measured" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_FilterDatabase_0_0" vbProcedure="false">FoodDB!$A$1:$I$17</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">FoodDB!$A$1:$I$17</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">FoodDB!$A$1:$I$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">FoodDB!$A$1:$I$17</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="__xlnm._FilterDatabase" vbProcedure="false">FoodDB!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1790,7 +1791,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.71"/>
@@ -2511,7 +2512,7 @@
   </sheetPr>
   <dimension ref="A1:AG105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Y15" activeCellId="0" sqref="Y15"/>
     </sheetView>
   </sheetViews>
@@ -3467,7 +3468,7 @@
       </c>
       <c r="Z9" s="72" t="n">
         <f aca="false">FoodLog!J58</f>
-        <v>-60.9321426033021</v>
+        <v>-60.9321426033019</v>
       </c>
       <c r="AA9" s="71" t="n">
         <f aca="false">($H9-Z9)/3500</f>
@@ -4095,39 +4096,39 @@
       </c>
       <c r="S15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,12,0)</f>
-        <v>455.85</v>
+        <v>469.35</v>
       </c>
       <c r="T15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,13,0)</f>
-        <v>48.5714285714286</v>
+        <v>60.5714285714286</v>
       </c>
       <c r="U15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,14,0)</f>
-        <v>418.285714285714</v>
+        <v>518.285714285714</v>
       </c>
       <c r="V15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,15,0)</f>
-        <v>922.707142857143</v>
+        <v>1048.20714285714</v>
       </c>
       <c r="W15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>-14.8446799856893</v>
+        <v>-28.3446799856893</v>
       </c>
       <c r="X15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,17,0)</f>
-        <v>31.4285714285714</v>
+        <v>19.4285714285714</v>
       </c>
       <c r="Y15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,18,0)</f>
-        <v>64.188938425708</v>
+        <v>-35.8110615742922</v>
       </c>
       <c r="Z15" s="72" t="n">
         <f aca="false">VLOOKUP($A15,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>80.7728298685897</v>
+        <v>-44.7271701314101</v>
       </c>
       <c r="AA15" s="71" t="n">
         <f aca="false">($H15-Z15)/3500</f>
-        <v>0.393405431027418</v>
+        <v>0.42926257388456</v>
       </c>
       <c r="AB15" s="76" t="n">
         <v>198.8</v>
@@ -4158,7 +4159,7 @@
       </c>
       <c r="C16" s="69" t="n">
         <f aca="false">C15-AA15</f>
-        <v>197.402240911117</v>
+        <v>197.36638376826</v>
       </c>
       <c r="D16" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4166,28 +4167,28 @@
       </c>
       <c r="E16" s="70" t="n">
         <f aca="false">C16-D16</f>
-        <v>46.6289119387968</v>
+        <v>46.5930547959397</v>
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="71" t="n">
         <f aca="false">C16*TDEE!$B$5</f>
-        <v>2456.27666625095</v>
+        <v>2455.83049571655</v>
       </c>
       <c r="H16" s="69" t="n">
         <f aca="false">$E16*31</f>
-        <v>1445.4962701027</v>
+        <v>1444.38469867413</v>
       </c>
       <c r="I16" s="69" t="n">
         <f aca="false">$G16-$H16</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
       <c r="J16" s="60" t="n">
         <f aca="false">H16/3500</f>
-        <v>0.412998934315058</v>
+        <v>0.412681342478323</v>
       </c>
       <c r="K16" s="69" t="n">
         <f aca="false">N16/9</f>
-        <v>49.8117492707586</v>
+        <v>49.8856827034447</v>
       </c>
       <c r="L16" s="69" t="n">
         <v>20</v>
@@ -4198,7 +4199,7 @@
       </c>
       <c r="N16" s="69" t="n">
         <f aca="false">MAX(0,I16-(O16+P16))</f>
-        <v>448.305743436828</v>
+        <v>448.971144331002</v>
       </c>
       <c r="O16" s="69" t="n">
         <f aca="false">4*L16</f>
@@ -4210,7 +4211,7 @@
       </c>
       <c r="Q16" s="70" t="n">
         <f aca="false">SUM(N16:P16)</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
       <c r="S16" s="72" t="n">
         <f aca="false">VLOOKUP($A16,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4230,7 +4231,7 @@
       </c>
       <c r="W16" s="72" t="n">
         <f aca="false">VLOOKUP($A16,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>448.305743436828</v>
+        <v>448.971144331002</v>
       </c>
       <c r="X16" s="72" t="n">
         <f aca="false">VLOOKUP($A16,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4242,11 +4243,11 @@
       </c>
       <c r="Z16" s="72" t="n">
         <f aca="false">VLOOKUP($A16,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
       <c r="AA16" s="71" t="n">
         <f aca="false">($H16-Z16)/3500</f>
-        <v>0.124204535415558</v>
+        <v>0.12369682903763</v>
       </c>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
@@ -4265,7 +4266,7 @@
       </c>
       <c r="C17" s="69" t="n">
         <f aca="false">C16-AA16</f>
-        <v>197.278036375701</v>
+        <v>197.242686939222</v>
       </c>
       <c r="D17" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4273,28 +4274,28 @@
       </c>
       <c r="E17" s="70" t="n">
         <f aca="false">C17-D17</f>
-        <v>46.5047074033813</v>
+        <v>46.469357966902</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="71" t="n">
         <f aca="false">C17*TDEE!$B$5</f>
-        <v>2454.73118885021</v>
+        <v>2454.29133570777</v>
       </c>
       <c r="H17" s="69" t="n">
         <f aca="false">$E17*31</f>
-        <v>1441.64592950482</v>
+        <v>1440.55009697396</v>
       </c>
       <c r="I17" s="69" t="n">
         <f aca="false">$G17-$H17</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
       <c r="J17" s="60" t="n">
         <f aca="false">H17/3500</f>
-        <v>0.411898837001377</v>
+        <v>0.411585741992561</v>
       </c>
       <c r="K17" s="69" t="n">
         <f aca="false">N17/9</f>
-        <v>50.0678451815521</v>
+        <v>50.1407317802652</v>
       </c>
       <c r="L17" s="69" t="n">
         <v>20</v>
@@ -4305,7 +4306,7 @@
       </c>
       <c r="N17" s="69" t="n">
         <f aca="false">MAX(0,I17-(O17+P17))</f>
-        <v>450.610606633969</v>
+        <v>451.266586022387</v>
       </c>
       <c r="O17" s="69" t="n">
         <f aca="false">4*L17</f>
@@ -4317,7 +4318,7 @@
       </c>
       <c r="Q17" s="70" t="n">
         <f aca="false">SUM(N17:P17)</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
       <c r="S17" s="72" t="n">
         <f aca="false">VLOOKUP($A17,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4337,7 +4338,7 @@
       </c>
       <c r="W17" s="72" t="n">
         <f aca="false">VLOOKUP($A17,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>450.610606633969</v>
+        <v>451.266586022387</v>
       </c>
       <c r="X17" s="72" t="n">
         <f aca="false">VLOOKUP($A17,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4349,11 +4350,11 @@
       </c>
       <c r="Z17" s="72" t="n">
         <f aca="false">VLOOKUP($A17,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
       <c r="AA17" s="71" t="n">
         <f aca="false">($H17-Z17)/3500</f>
-        <v>0.122445905759837</v>
+        <v>0.121945388068615</v>
       </c>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
@@ -4372,7 +4373,7 @@
       </c>
       <c r="C18" s="69" t="n">
         <f aca="false">C17-AA17</f>
-        <v>197.155590469941</v>
+        <v>197.120741551153</v>
       </c>
       <c r="D18" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4380,28 +4381,28 @@
       </c>
       <c r="E18" s="70" t="n">
         <f aca="false">C18-D18</f>
-        <v>46.3822614976214</v>
+        <v>46.3474125788334</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="71" t="n">
         <f aca="false">C18*TDEE!$B$5</f>
-        <v>2453.20759408347</v>
+        <v>2452.77396888414</v>
       </c>
       <c r="H18" s="69" t="n">
         <f aca="false">$E18*31</f>
-        <v>1437.85010642626</v>
+        <v>1436.76978994384</v>
       </c>
       <c r="I18" s="69" t="n">
         <f aca="false">$G18-$H18</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
       <c r="J18" s="60" t="n">
         <f aca="false">H18/3500</f>
-        <v>0.41081431612179</v>
+        <v>0.410505654269667</v>
       </c>
       <c r="K18" s="69" t="n">
         <f aca="false">N18/9</f>
-        <v>50.3203149939754</v>
+        <v>50.3921695809865</v>
       </c>
       <c r="L18" s="69" t="n">
         <v>20</v>
@@ -4412,7 +4413,7 @@
       </c>
       <c r="N18" s="69" t="n">
         <f aca="false">MAX(0,I18-(O18+P18))</f>
-        <v>452.882834945779</v>
+        <v>453.529526228878</v>
       </c>
       <c r="O18" s="69" t="n">
         <f aca="false">4*L18</f>
@@ -4424,7 +4425,7 @@
       </c>
       <c r="Q18" s="70" t="n">
         <f aca="false">SUM(N18:P18)</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
       <c r="S18" s="72" t="n">
         <f aca="false">VLOOKUP($A18,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4444,7 +4445,7 @@
       </c>
       <c r="W18" s="72" t="n">
         <f aca="false">VLOOKUP($A18,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>452.882834945779</v>
+        <v>453.529526228878</v>
       </c>
       <c r="X18" s="72" t="n">
         <f aca="false">VLOOKUP($A18,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4456,11 +4457,11 @@
       </c>
       <c r="Z18" s="72" t="n">
         <f aca="false">VLOOKUP($A18,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
       <c r="AA18" s="71" t="n">
         <f aca="false">($H18-Z18)/3500</f>
-        <v>0.120712176791161</v>
+        <v>0.12021874600101</v>
       </c>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
@@ -4479,7 +4480,7 @@
       </c>
       <c r="C19" s="69" t="n">
         <f aca="false">C18-AA18</f>
-        <v>197.03487829315</v>
+        <v>197.000522805152</v>
       </c>
       <c r="D19" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4487,28 +4488,28 @@
       </c>
       <c r="E19" s="70" t="n">
         <f aca="false">C19-D19</f>
-        <v>46.2615493208303</v>
+        <v>46.2271938328324</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="71" t="n">
         <f aca="false">C19*TDEE!$B$5</f>
-        <v>2451.70557211139</v>
+        <v>2451.27808667284</v>
       </c>
       <c r="H19" s="69" t="n">
         <f aca="false">$E19*31</f>
-        <v>1434.10802894574</v>
+        <v>1433.04300881781</v>
       </c>
       <c r="I19" s="69" t="n">
         <f aca="false">$G19-$H19</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
       <c r="J19" s="60" t="n">
         <f aca="false">H19/3500</f>
-        <v>0.409745151127354</v>
+        <v>0.40944085966223</v>
       </c>
       <c r="K19" s="69" t="n">
         <f aca="false">N19/9</f>
-        <v>50.5692100504704</v>
+        <v>50.6400472381796</v>
       </c>
       <c r="L19" s="69" t="n">
         <v>20</v>
@@ -4519,7 +4520,7 @@
       </c>
       <c r="N19" s="69" t="n">
         <f aca="false">MAX(0,I19-(O19+P19))</f>
-        <v>455.122890454234</v>
+        <v>455.760425143617</v>
       </c>
       <c r="O19" s="69" t="n">
         <f aca="false">4*L19</f>
@@ -4531,7 +4532,7 @@
       </c>
       <c r="Q19" s="70" t="n">
         <f aca="false">SUM(N19:P19)</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
       <c r="S19" s="72" t="n">
         <f aca="false">VLOOKUP($A19,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4551,7 +4552,7 @@
       </c>
       <c r="W19" s="72" t="n">
         <f aca="false">VLOOKUP($A19,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>455.122890454234</v>
+        <v>455.760425143617</v>
       </c>
       <c r="X19" s="72" t="n">
         <f aca="false">VLOOKUP($A19,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4563,11 +4564,11 @@
       </c>
       <c r="Z19" s="72" t="n">
         <f aca="false">VLOOKUP($A19,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
       <c r="AA19" s="71" t="n">
         <f aca="false">($H19-Z19)/3500</f>
-        <v>0.119002995937167</v>
+        <v>0.118516551703648</v>
       </c>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
@@ -4586,7 +4587,7 @@
       </c>
       <c r="C20" s="69" t="n">
         <f aca="false">C19-AA19</f>
-        <v>196.915875297213</v>
+        <v>196.882006253449</v>
       </c>
       <c r="D20" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4594,28 +4595,28 @@
       </c>
       <c r="E20" s="70" t="n">
         <f aca="false">C20-D20</f>
-        <v>46.1425463248931</v>
+        <v>46.1086772811288</v>
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="71" t="n">
         <f aca="false">C20*TDEE!$B$5</f>
-        <v>2450.22481748173</v>
+        <v>2449.80338487022</v>
       </c>
       <c r="H20" s="69" t="n">
         <f aca="false">$E20*31</f>
-        <v>1430.41893607169</v>
+        <v>1429.36899571499</v>
       </c>
       <c r="I20" s="69" t="n">
         <f aca="false">$G20-$H20</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
       <c r="J20" s="60" t="n">
         <f aca="false">H20/3500</f>
-        <v>0.40869112459191</v>
+        <v>0.408391141632855</v>
       </c>
       <c r="K20" s="69" t="n">
         <f aca="false">N20/9</f>
-        <v>50.814580966514</v>
+        <v>50.8844151604226</v>
       </c>
       <c r="L20" s="69" t="n">
         <v>20</v>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="N20" s="69" t="n">
         <f aca="false">MAX(0,I20-(O20+P20))</f>
-        <v>457.331228698626</v>
+        <v>457.959736443803</v>
       </c>
       <c r="O20" s="69" t="n">
         <f aca="false">4*L20</f>
@@ -4638,7 +4639,7 @@
       </c>
       <c r="Q20" s="70" t="n">
         <f aca="false">SUM(N20:P20)</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
       <c r="S20" s="72" t="n">
         <f aca="false">VLOOKUP($A20,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4658,7 +4659,7 @@
       </c>
       <c r="W20" s="72" t="n">
         <f aca="false">VLOOKUP($A20,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>457.331228698626</v>
+        <v>457.959736443803</v>
       </c>
       <c r="X20" s="72" t="n">
         <f aca="false">VLOOKUP($A20,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4670,11 +4671,11 @@
       </c>
       <c r="Z20" s="72" t="n">
         <f aca="false">VLOOKUP($A20,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
       <c r="AA20" s="71" t="n">
         <f aca="false">($H20-Z20)/3500</f>
-        <v>0.117318015617611</v>
+        <v>0.116838459017076</v>
       </c>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
@@ -4693,7 +4694,7 @@
       </c>
       <c r="C21" s="69" t="n">
         <f aca="false">C20-AA20</f>
-        <v>196.798557281596</v>
+        <v>196.765167794432</v>
       </c>
       <c r="D21" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4701,28 +4702,28 @@
       </c>
       <c r="E21" s="70" t="n">
         <f aca="false">C21-D21</f>
-        <v>46.0252283092755</v>
+        <v>45.9918388221117</v>
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="71" t="n">
         <f aca="false">C21*TDEE!$B$5</f>
-        <v>2448.76502906716</v>
+        <v>2448.34956357984</v>
       </c>
       <c r="H21" s="69" t="n">
         <f aca="false">$E21*31</f>
-        <v>1426.78207758754</v>
+        <v>1425.74700348546</v>
       </c>
       <c r="I21" s="69" t="n">
         <f aca="false">$G21-$H21</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
       <c r="J21" s="60" t="n">
         <f aca="false">H21/3500</f>
-        <v>0.407652022167869</v>
+        <v>0.407356286710132</v>
       </c>
       <c r="K21" s="69" t="n">
         <f aca="false">N21/9</f>
-        <v>51.0564776409112</v>
+        <v>51.1253230425508</v>
       </c>
       <c r="L21" s="69" t="n">
         <v>20</v>
@@ -4733,7 +4734,7 @@
       </c>
       <c r="N21" s="69" t="n">
         <f aca="false">MAX(0,I21-(O21+P21))</f>
-        <v>459.508298768201</v>
+        <v>460.127907382957</v>
       </c>
       <c r="O21" s="69" t="n">
         <f aca="false">4*L21</f>
@@ -4745,7 +4746,7 @@
       </c>
       <c r="Q21" s="70" t="n">
         <f aca="false">SUM(N21:P21)</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
       <c r="S21" s="72" t="n">
         <f aca="false">VLOOKUP($A21,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4765,7 +4766,7 @@
       </c>
       <c r="W21" s="72" t="n">
         <f aca="false">VLOOKUP($A21,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>459.508298768201</v>
+        <v>460.127907382957</v>
       </c>
       <c r="X21" s="72" t="n">
         <f aca="false">VLOOKUP($A21,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4777,11 +4778,11 @@
       </c>
       <c r="Z21" s="72" t="n">
         <f aca="false">VLOOKUP($A21,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
       <c r="AA21" s="71" t="n">
         <f aca="false">($H21-Z21)/3500</f>
-        <v>0.115656893173691</v>
+        <v>0.115184126683167</v>
       </c>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
@@ -4800,7 +4801,7 @@
       </c>
       <c r="C22" s="69" t="n">
         <f aca="false">C21-AA21</f>
-        <v>196.682900388422</v>
+        <v>196.649983667749</v>
       </c>
       <c r="D22" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4808,28 +4809,28 @@
       </c>
       <c r="E22" s="70" t="n">
         <f aca="false">C22-D22</f>
-        <v>45.9095714161018</v>
+        <v>45.8766546954285</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="71" t="n">
         <f aca="false">C22*TDEE!$B$5</f>
-        <v>2447.32591000407</v>
+        <v>2446.91632715158</v>
       </c>
       <c r="H22" s="69" t="n">
         <f aca="false">$E22*31</f>
-        <v>1423.19671389916</v>
+        <v>1422.17629555828</v>
       </c>
       <c r="I22" s="69" t="n">
         <f aca="false">$G22-$H22</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
       <c r="J22" s="60" t="n">
         <f aca="false">H22/3500</f>
-        <v>0.406627632542616</v>
+        <v>0.406336084445224</v>
       </c>
       <c r="K22" s="69" t="n">
         <f aca="false">N22/9</f>
-        <v>51.294949265943</v>
+        <v>51.3628198757637</v>
       </c>
       <c r="L22" s="69" t="n">
         <v>20</v>
@@ -4840,7 +4841,7 @@
       </c>
       <c r="N22" s="69" t="n">
         <f aca="false">MAX(0,I22-(O22+P22))</f>
-        <v>461.654543393487</v>
+        <v>462.265378881874</v>
       </c>
       <c r="O22" s="69" t="n">
         <f aca="false">4*L22</f>
@@ -4852,7 +4853,7 @@
       </c>
       <c r="Q22" s="70" t="n">
         <f aca="false">SUM(N22:P22)</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
       <c r="S22" s="72" t="n">
         <f aca="false">VLOOKUP($A22,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4872,7 +4873,7 @@
       </c>
       <c r="W22" s="72" t="n">
         <f aca="false">VLOOKUP($A22,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>461.654543393487</v>
+        <v>462.265378881874</v>
       </c>
       <c r="X22" s="72" t="n">
         <f aca="false">VLOOKUP($A22,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4884,11 +4885,11 @@
       </c>
       <c r="Z22" s="72" t="n">
         <f aca="false">VLOOKUP($A22,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
       <c r="AA22" s="71" t="n">
         <f aca="false">($H22-Z22)/3500</f>
-        <v>0.114019290798357</v>
+        <v>0.113553218275711</v>
       </c>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
@@ -4907,7 +4908,7 @@
       </c>
       <c r="C23" s="69" t="n">
         <f aca="false">C22-AA22</f>
-        <v>196.568881097624</v>
+        <v>196.536430449473</v>
       </c>
       <c r="D23" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -4915,28 +4916,28 @@
       </c>
       <c r="E23" s="70" t="n">
         <f aca="false">C23-D23</f>
-        <v>45.7955521253035</v>
+        <v>45.7631014771528</v>
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="71" t="n">
         <f aca="false">C23*TDEE!$B$5</f>
-        <v>2445.90716763216</v>
+        <v>2445.50338412145</v>
       </c>
       <c r="H23" s="69" t="n">
         <f aca="false">$E23*31</f>
-        <v>1419.66211588441</v>
+        <v>1418.65614579174</v>
       </c>
       <c r="I23" s="69" t="n">
         <f aca="false">$G23-$H23</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
       <c r="J23" s="60" t="n">
         <f aca="false">H23/3500</f>
-        <v>0.405617747395545</v>
+        <v>0.405330327369068</v>
       </c>
       <c r="K23" s="69" t="n">
         <f aca="false">N23/9</f>
-        <v>51.5300443373695</v>
+        <v>51.5969539575873</v>
       </c>
       <c r="L23" s="69" t="n">
         <v>20</v>
@@ -4947,7 +4948,7 @@
       </c>
       <c r="N23" s="69" t="n">
         <f aca="false">MAX(0,I23-(O23+P23))</f>
-        <v>463.770399036326</v>
+        <v>464.372585618286</v>
       </c>
       <c r="O23" s="69" t="n">
         <f aca="false">4*L23</f>
@@ -4959,7 +4960,7 @@
       </c>
       <c r="Q23" s="70" t="n">
         <f aca="false">SUM(N23:P23)</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
       <c r="S23" s="72" t="n">
         <f aca="false">VLOOKUP($A23,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -4979,7 +4980,7 @@
       </c>
       <c r="W23" s="72" t="n">
         <f aca="false">VLOOKUP($A23,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>463.770399036326</v>
+        <v>464.372585618286</v>
       </c>
       <c r="X23" s="72" t="n">
         <f aca="false">VLOOKUP($A23,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -4991,11 +4992,11 @@
       </c>
       <c r="Z23" s="72" t="n">
         <f aca="false">VLOOKUP($A23,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
       <c r="AA23" s="71" t="n">
         <f aca="false">($H23-Z23)/3500</f>
-        <v>0.112404875467617</v>
+        <v>0.111945402132008</v>
       </c>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
@@ -5014,7 +5015,7 @@
       </c>
       <c r="C24" s="69" t="n">
         <f aca="false">C23-AA23</f>
-        <v>196.456476222156</v>
+        <v>196.424485047341</v>
       </c>
       <c r="D24" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5022,28 +5023,28 @@
       </c>
       <c r="E24" s="70" t="n">
         <f aca="false">C24-D24</f>
-        <v>45.6831472498359</v>
+        <v>45.6511560750208</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="71" t="n">
         <f aca="false">C24*TDEE!$B$5</f>
-        <v>2444.50851343497</v>
+        <v>2444.11044715233</v>
       </c>
       <c r="H24" s="69" t="n">
         <f aca="false">$E24*31</f>
-        <v>1416.17756474491</v>
+        <v>1415.18583832564</v>
       </c>
       <c r="I24" s="69" t="n">
         <f aca="false">$G24-$H24</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
       <c r="J24" s="60" t="n">
         <f aca="false">H24/3500</f>
-        <v>0.404622161355689</v>
+        <v>0.404338810950184</v>
       </c>
       <c r="K24" s="69" t="n">
         <f aca="false">N24/9</f>
-        <v>51.761810664293</v>
+        <v>51.8277729016961</v>
       </c>
       <c r="L24" s="69" t="n">
         <v>20</v>
@@ -5054,7 +5055,7 @@
       </c>
       <c r="N24" s="69" t="n">
         <f aca="false">MAX(0,I24-(O24+P24))</f>
-        <v>465.856295978637</v>
+        <v>466.449956115265</v>
       </c>
       <c r="O24" s="69" t="n">
         <f aca="false">4*L24</f>
@@ -5066,7 +5067,7 @@
       </c>
       <c r="Q24" s="70" t="n">
         <f aca="false">SUM(N24:P24)</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
       <c r="S24" s="72" t="n">
         <f aca="false">VLOOKUP($A24,FoodLog!$A$1:$Z$431,12,0)</f>
@@ -5086,7 +5087,7 @@
       </c>
       <c r="W24" s="72" t="n">
         <f aca="false">VLOOKUP($A24,FoodLog!$A$1:$Z$431,16,0)</f>
-        <v>465.856295978637</v>
+        <v>466.449956115265</v>
       </c>
       <c r="X24" s="72" t="n">
         <f aca="false">VLOOKUP($A24,FoodLog!$A$1:$Z$431,17,0)</f>
@@ -5098,11 +5099,11 @@
       </c>
       <c r="Z24" s="72" t="n">
         <f aca="false">VLOOKUP($A24,FoodLog!$A$1:$Z$431,19,0)</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
       <c r="AA24" s="71" t="n">
         <f aca="false">($H24-Z24)/3500</f>
-        <v>0.110813318872815</v>
+        <v>0.110360351285416</v>
       </c>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
@@ -5121,7 +5122,7 @@
       </c>
       <c r="C25" s="69" t="n">
         <f aca="false">C24-AA24</f>
-        <v>196.345662903283</v>
+        <v>196.314124696055</v>
       </c>
       <c r="D25" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5129,28 +5130,28 @@
       </c>
       <c r="E25" s="70" t="n">
         <f aca="false">C25-D25</f>
-        <v>45.5723339309631</v>
+        <v>45.5407957237354</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="71" t="n">
         <f aca="false">C25*TDEE!$B$5</f>
-        <v>2443.12966298119</v>
+        <v>2442.73723297558</v>
       </c>
       <c r="H25" s="69" t="n">
         <f aca="false">$E25*31</f>
-        <v>1412.74235185985</v>
+        <v>1411.7646674358</v>
       </c>
       <c r="I25" s="69" t="n">
         <f aca="false">$G25-$H25</f>
-        <v>1030.38731112134</v>
+        <v>1030.97256553978</v>
       </c>
       <c r="J25" s="60" t="n">
         <f aca="false">H25/3500</f>
-        <v>0.403640671959959</v>
+        <v>0.403361333553085</v>
       </c>
       <c r="K25" s="69" t="n">
         <f aca="false">N25/9</f>
-        <v>51.9902953788796</v>
+        <v>52.0553236475957</v>
       </c>
       <c r="L25" s="69" t="n">
         <v>20</v>
@@ -5161,7 +5162,7 @@
       </c>
       <c r="N25" s="69" t="n">
         <f aca="false">MAX(0,I25-(O25+P25))</f>
-        <v>467.912658409916</v>
+        <v>468.497912828361</v>
       </c>
       <c r="O25" s="69" t="n">
         <f aca="false">4*L25</f>
@@ -5173,7 +5174,7 @@
       </c>
       <c r="Q25" s="70" t="n">
         <f aca="false">SUM(N25:P25)</f>
-        <v>1030.38731112134</v>
+        <v>1030.97256553978</v>
       </c>
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
@@ -5185,7 +5186,7 @@
       <c r="Z25" s="72"/>
       <c r="AA25" s="71" t="n">
         <f aca="false">($H25-Z25)/3500</f>
-        <v>0.403640671959959</v>
+        <v>0.403361333553085</v>
       </c>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
@@ -5204,7 +5205,7 @@
       </c>
       <c r="C26" s="69" t="n">
         <f aca="false">C25-AA25</f>
-        <v>195.942022231323</v>
+        <v>195.910763362502</v>
       </c>
       <c r="D26" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5212,28 +5213,28 @@
       </c>
       <c r="E26" s="70" t="n">
         <f aca="false">C26-D26</f>
-        <v>45.1686932590031</v>
+        <v>45.1374343901823</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="71" t="n">
         <f aca="false">C26*TDEE!$B$5</f>
-        <v>2438.10716090873</v>
+        <v>2437.71820671174</v>
       </c>
       <c r="H26" s="69" t="n">
         <f aca="false">$E26*31</f>
-        <v>1400.2294910291</v>
+        <v>1399.26046609565</v>
       </c>
       <c r="I26" s="69" t="n">
         <f aca="false">$G26-$H26</f>
-        <v>1037.87766987963</v>
+        <v>1038.45774061609</v>
       </c>
       <c r="J26" s="60" t="n">
         <f aca="false">H26/3500</f>
-        <v>0.400065568865456</v>
+        <v>0.399788704598758</v>
       </c>
       <c r="K26" s="69" t="n">
         <f aca="false">N26/9</f>
-        <v>52.8225574631346</v>
+        <v>52.8870097671849</v>
       </c>
       <c r="L26" s="69" t="n">
         <v>20</v>
@@ -5244,7 +5245,7 @@
       </c>
       <c r="N26" s="69" t="n">
         <f aca="false">MAX(0,I26-(O26+P26))</f>
-        <v>475.403017168211</v>
+        <v>475.983087904664</v>
       </c>
       <c r="O26" s="69" t="n">
         <f aca="false">4*L26</f>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="Q26" s="70" t="n">
         <f aca="false">SUM(N26:P26)</f>
-        <v>1037.87766987963</v>
+        <v>1038.45774061609</v>
       </c>
       <c r="S26" s="72"/>
       <c r="T26" s="72"/>
@@ -5268,7 +5269,7 @@
       <c r="Z26" s="72"/>
       <c r="AA26" s="71" t="n">
         <f aca="false">($H26-Z26)/3500</f>
-        <v>0.400065568865456</v>
+        <v>0.399788704598758</v>
       </c>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
@@ -5287,7 +5288,7 @@
       </c>
       <c r="C27" s="69" t="n">
         <f aca="false">C26-AA26</f>
-        <v>195.541956662458</v>
+        <v>195.510974657904</v>
       </c>
       <c r="D27" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5295,28 +5296,28 @@
       </c>
       <c r="E27" s="70" t="n">
         <f aca="false">C27-D27</f>
-        <v>44.7686276901377</v>
+        <v>44.7376456855835</v>
       </c>
       <c r="F27" s="58"/>
       <c r="G27" s="71" t="n">
         <f aca="false">C27*TDEE!$B$5</f>
-        <v>2433.12914385462</v>
+        <v>2432.74363468052</v>
       </c>
       <c r="H27" s="69" t="n">
         <f aca="false">$E27*31</f>
-        <v>1387.82745839427</v>
+        <v>1386.86701625309</v>
       </c>
       <c r="I27" s="69" t="n">
         <f aca="false">$G27-$H27</f>
-        <v>1045.30168546035</v>
+        <v>1045.87661842743</v>
       </c>
       <c r="J27" s="60" t="n">
         <f aca="false">H27/3500</f>
-        <v>0.396522130969791</v>
+        <v>0.396247718929454</v>
       </c>
       <c r="K27" s="69" t="n">
         <f aca="false">N27/9</f>
-        <v>53.6474480832147</v>
+        <v>53.7113295240006</v>
       </c>
       <c r="L27" s="69" t="n">
         <v>20</v>
@@ -5327,7 +5328,7 @@
       </c>
       <c r="N27" s="69" t="n">
         <f aca="false">MAX(0,I27-(O27+P27))</f>
-        <v>482.827032748932</v>
+        <v>483.401965716006</v>
       </c>
       <c r="O27" s="69" t="n">
         <f aca="false">4*L27</f>
@@ -5339,7 +5340,7 @@
       </c>
       <c r="Q27" s="70" t="n">
         <f aca="false">SUM(N27:P27)</f>
-        <v>1045.30168546035</v>
+        <v>1045.87661842743</v>
       </c>
       <c r="S27" s="72"/>
       <c r="T27" s="72"/>
@@ -5351,7 +5352,7 @@
       <c r="Z27" s="72"/>
       <c r="AA27" s="71" t="n">
         <f aca="false">($H27-Z27)/3500</f>
-        <v>0.396522130969791</v>
+        <v>0.396247718929454</v>
       </c>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
@@ -5370,7 +5371,7 @@
       </c>
       <c r="C28" s="69" t="n">
         <f aca="false">C27-AA27</f>
-        <v>195.145434531488</v>
+        <v>195.114726938974</v>
       </c>
       <c r="D28" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5378,28 +5379,28 @@
       </c>
       <c r="E28" s="70" t="n">
         <f aca="false">C28-D28</f>
-        <v>44.3721055591679</v>
+        <v>44.3413979666541</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="71" t="n">
         <f aca="false">C28*TDEE!$B$5</f>
-        <v>2428.19521780871</v>
+        <v>2427.81312314443</v>
       </c>
       <c r="H28" s="69" t="n">
         <f aca="false">$E28*31</f>
-        <v>1375.5352723342</v>
+        <v>1374.58333696628</v>
       </c>
       <c r="I28" s="69" t="n">
         <f aca="false">$G28-$H28</f>
-        <v>1052.6599454745</v>
+        <v>1053.22978617815</v>
       </c>
       <c r="J28" s="60" t="n">
         <f aca="false">H28/3500</f>
-        <v>0.393010077809772</v>
+        <v>0.392738096276079</v>
       </c>
       <c r="K28" s="69" t="n">
         <f aca="false">N28/9</f>
-        <v>54.4650325292313</v>
+        <v>54.5283481629703</v>
       </c>
       <c r="L28" s="69" t="n">
         <v>20</v>
@@ -5410,7 +5411,7 @@
       </c>
       <c r="N28" s="69" t="n">
         <f aca="false">MAX(0,I28-(O28+P28))</f>
-        <v>490.185292763082</v>
+        <v>490.755133466732</v>
       </c>
       <c r="O28" s="69" t="n">
         <f aca="false">4*L28</f>
@@ -5422,7 +5423,7 @@
       </c>
       <c r="Q28" s="70" t="n">
         <f aca="false">SUM(N28:P28)</f>
-        <v>1052.6599454745</v>
+        <v>1053.22978617815</v>
       </c>
       <c r="S28" s="79"/>
       <c r="T28" s="76"/>
@@ -5434,7 +5435,7 @@
       <c r="Z28" s="80"/>
       <c r="AA28" s="71" t="n">
         <f aca="false">($H28-Z28)/3500</f>
-        <v>0.393010077809772</v>
+        <v>0.392738096276079</v>
       </c>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
@@ -5453,7 +5454,7 @@
       </c>
       <c r="C29" s="69" t="n">
         <f aca="false">C28-AA28</f>
-        <v>194.752424453678</v>
+        <v>194.721988842698</v>
       </c>
       <c r="D29" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5461,28 +5462,28 @@
       </c>
       <c r="E29" s="70" t="n">
         <f aca="false">C29-D29</f>
-        <v>43.9790954813581</v>
+        <v>43.948659870378</v>
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="71" t="n">
         <f aca="false">C29*TDEE!$B$5</f>
-        <v>2423.30499225063</v>
+        <v>2422.92628185338</v>
       </c>
       <c r="H29" s="69" t="n">
         <f aca="false">$E29*31</f>
-        <v>1363.3519599221</v>
+        <v>1362.40845598172</v>
       </c>
       <c r="I29" s="69" t="n">
         <f aca="false">$G29-$H29</f>
-        <v>1059.95303232853</v>
+        <v>1060.51782587166</v>
       </c>
       <c r="J29" s="60" t="n">
         <f aca="false">H29/3500</f>
-        <v>0.389529131406314</v>
+        <v>0.389259558851919</v>
       </c>
       <c r="K29" s="69" t="n">
         <f aca="false">N29/9</f>
-        <v>55.2753755130118</v>
+        <v>55.3381303511376</v>
       </c>
       <c r="L29" s="69" t="n">
         <v>20</v>
@@ -5493,7 +5494,7 @@
       </c>
       <c r="N29" s="69" t="n">
         <f aca="false">MAX(0,I29-(O29+P29))</f>
-        <v>497.478379617106</v>
+        <v>498.043173160238</v>
       </c>
       <c r="O29" s="69" t="n">
         <f aca="false">4*L29</f>
@@ -5505,7 +5506,7 @@
       </c>
       <c r="Q29" s="70" t="n">
         <f aca="false">SUM(N29:P29)</f>
-        <v>1059.95303232853</v>
+        <v>1060.51782587166</v>
       </c>
       <c r="S29" s="79"/>
       <c r="T29" s="76"/>
@@ -5517,7 +5518,7 @@
       <c r="Z29" s="80"/>
       <c r="AA29" s="71" t="n">
         <f aca="false">($H29-Z29)/3500</f>
-        <v>0.389529131406314</v>
+        <v>0.389259558851919</v>
       </c>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
@@ -5536,7 +5537,7 @@
       </c>
       <c r="C30" s="69" t="n">
         <f aca="false">C29-AA29</f>
-        <v>194.362895322272</v>
+        <v>194.332729283846</v>
       </c>
       <c r="D30" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5544,28 +5545,28 @@
       </c>
       <c r="E30" s="70" t="n">
         <f aca="false">C30-D30</f>
-        <v>43.5895663499518</v>
+        <v>43.5594003115261</v>
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="71" t="n">
         <f aca="false">C30*TDEE!$B$5</f>
-        <v>2418.45808011892</v>
+        <v>2418.08272401376</v>
       </c>
       <c r="H30" s="69" t="n">
         <f aca="false">$E30*31</f>
-        <v>1351.27655684851</v>
+        <v>1350.34140965731</v>
       </c>
       <c r="I30" s="69" t="n">
         <f aca="false">$G30-$H30</f>
-        <v>1067.18152327042</v>
+        <v>1067.74131435645</v>
       </c>
       <c r="J30" s="60" t="n">
         <f aca="false">H30/3500</f>
-        <v>0.38607901624243</v>
+        <v>0.385811831330659</v>
       </c>
       <c r="K30" s="69" t="n">
         <f aca="false">N30/9</f>
-        <v>56.0785411732215</v>
+        <v>56.1407401827812</v>
       </c>
       <c r="L30" s="69" t="n">
         <v>20</v>
@@ -5576,7 +5577,7 @@
       </c>
       <c r="N30" s="69" t="n">
         <f aca="false">MAX(0,I30-(O30+P30))</f>
-        <v>504.706870558994</v>
+        <v>505.266661645031</v>
       </c>
       <c r="O30" s="69" t="n">
         <f aca="false">4*L30</f>
@@ -5588,7 +5589,7 @@
       </c>
       <c r="Q30" s="70" t="n">
         <f aca="false">SUM(N30:P30)</f>
-        <v>1067.18152327042</v>
+        <v>1067.74131435645</v>
       </c>
       <c r="S30" s="79"/>
       <c r="T30" s="76"/>
@@ -5600,7 +5601,7 @@
       <c r="Z30" s="80"/>
       <c r="AA30" s="71" t="n">
         <f aca="false">($H30-Z30)/3500</f>
-        <v>0.38607901624243</v>
+        <v>0.385811831330659</v>
       </c>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="C31" s="69" t="n">
         <f aca="false">C30-AA30</f>
-        <v>193.976816306029</v>
+        <v>193.946917452515</v>
       </c>
       <c r="D31" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5627,28 +5628,28 @@
       </c>
       <c r="E31" s="70" t="n">
         <f aca="false">C31-D31</f>
-        <v>43.2034873337094</v>
+        <v>43.1735884801954</v>
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="71" t="n">
         <f aca="false">C31*TDEE!$B$5</f>
-        <v>2413.65409778038</v>
+        <v>2413.28206625787</v>
       </c>
       <c r="H31" s="69" t="n">
         <f aca="false">$E31*31</f>
-        <v>1339.30810734499</v>
+        <v>1338.38124288606</v>
       </c>
       <c r="I31" s="69" t="n">
         <f aca="false">$G31-$H31</f>
-        <v>1074.34599043539</v>
+        <v>1074.90082337181</v>
       </c>
       <c r="J31" s="60" t="n">
         <f aca="false">H31/3500</f>
-        <v>0.382659459241426</v>
+        <v>0.382394640824588</v>
       </c>
       <c r="K31" s="69" t="n">
         <f aca="false">N31/9</f>
-        <v>56.8745930804409</v>
+        <v>56.9362411844873</v>
       </c>
       <c r="L31" s="69" t="n">
         <v>20</v>
@@ -5659,7 +5660,7 @@
       </c>
       <c r="N31" s="69" t="n">
         <f aca="false">MAX(0,I31-(O31+P31))</f>
-        <v>511.871337723968</v>
+        <v>512.426170660386</v>
       </c>
       <c r="O31" s="69" t="n">
         <f aca="false">4*L31</f>
@@ -5671,7 +5672,7 @@
       </c>
       <c r="Q31" s="70" t="n">
         <f aca="false">SUM(N31:P31)</f>
-        <v>1074.34599043539</v>
+        <v>1074.90082337181</v>
       </c>
       <c r="S31" s="79"/>
       <c r="T31" s="76"/>
@@ -5683,7 +5684,7 @@
       <c r="Z31" s="80"/>
       <c r="AA31" s="71" t="n">
         <f aca="false">($H31-Z31)/3500</f>
-        <v>0.382659459241426</v>
+        <v>0.382394640824588</v>
       </c>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
@@ -5702,7 +5703,7 @@
       </c>
       <c r="C32" s="69" t="n">
         <f aca="false">C31-AA31</f>
-        <v>193.594156846788</v>
+        <v>193.564522811691</v>
       </c>
       <c r="D32" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5710,28 +5711,28 @@
       </c>
       <c r="E32" s="70" t="n">
         <f aca="false">C32-D32</f>
-        <v>42.8208278744679</v>
+        <v>42.7911938393708</v>
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="71" t="n">
         <f aca="false">C32*TDEE!$B$5</f>
-        <v>2408.89266499969</v>
+        <v>2408.52392861352</v>
       </c>
       <c r="H32" s="69" t="n">
         <f aca="false">$E32*31</f>
-        <v>1327.44566410851</v>
+        <v>1326.52700902049</v>
       </c>
       <c r="I32" s="69" t="n">
         <f aca="false">$G32-$H32</f>
-        <v>1081.44700089119</v>
+        <v>1081.99691959303</v>
       </c>
       <c r="J32" s="60" t="n">
         <f aca="false">H32/3500</f>
-        <v>0.379270189745287</v>
+        <v>0.379007716862999</v>
       </c>
       <c r="K32" s="69" t="n">
         <f aca="false">N32/9</f>
-        <v>57.6635942421964</v>
+        <v>57.7246963201784</v>
       </c>
       <c r="L32" s="69" t="n">
         <v>20</v>
@@ -5742,7 +5743,7 @@
       </c>
       <c r="N32" s="69" t="n">
         <f aca="false">MAX(0,I32-(O32+P32))</f>
-        <v>518.972348179767</v>
+        <v>519.522266881606</v>
       </c>
       <c r="O32" s="69" t="n">
         <f aca="false">4*L32</f>
@@ -5754,7 +5755,7 @@
       </c>
       <c r="Q32" s="70" t="n">
         <f aca="false">SUM(N32:P32)</f>
-        <v>1081.44700089119</v>
+        <v>1081.99691959303</v>
       </c>
       <c r="S32" s="79"/>
       <c r="T32" s="76"/>
@@ -5766,7 +5767,7 @@
       <c r="Z32" s="80"/>
       <c r="AA32" s="71" t="n">
         <f aca="false">($H32-Z32)/3500</f>
-        <v>0.379270189745287</v>
+        <v>0.379007716862999</v>
       </c>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
@@ -5785,7 +5786,7 @@
       </c>
       <c r="C33" s="69" t="n">
         <f aca="false">C32-AA32</f>
-        <v>193.214886657043</v>
+        <v>193.185515094828</v>
       </c>
       <c r="D33" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5793,28 +5794,28 @@
       </c>
       <c r="E33" s="70" t="n">
         <f aca="false">C33-D33</f>
-        <v>42.4415576847226</v>
+        <v>42.4121861225078</v>
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="71" t="n">
         <f aca="false">C33*TDEE!$B$5</f>
-        <v>2404.17340490935</v>
+        <v>2403.80793447403</v>
       </c>
       <c r="H33" s="69" t="n">
         <f aca="false">$E33*31</f>
-        <v>1315.6882882264</v>
+        <v>1314.77776979774</v>
       </c>
       <c r="I33" s="69" t="n">
         <f aca="false">$G33-$H33</f>
-        <v>1088.48511668295</v>
+        <v>1089.03016467629</v>
       </c>
       <c r="J33" s="60" t="n">
         <f aca="false">H33/3500</f>
-        <v>0.375910939493257</v>
+        <v>0.375650791370784</v>
       </c>
       <c r="K33" s="69" t="n">
         <f aca="false">N33/9</f>
-        <v>58.4456071079477</v>
+        <v>58.5061679960961</v>
       </c>
       <c r="L33" s="69" t="n">
         <v>20</v>
@@ -5825,7 +5826,7 @@
       </c>
       <c r="N33" s="69" t="n">
         <f aca="false">MAX(0,I33-(O33+P33))</f>
-        <v>526.010463971529</v>
+        <v>526.555511964865</v>
       </c>
       <c r="O33" s="69" t="n">
         <f aca="false">4*L33</f>
@@ -5837,7 +5838,7 @@
       </c>
       <c r="Q33" s="70" t="n">
         <f aca="false">SUM(N33:P33)</f>
-        <v>1088.48511668295</v>
+        <v>1089.03016467629</v>
       </c>
       <c r="S33" s="79"/>
       <c r="T33" s="76"/>
@@ -5849,7 +5850,7 @@
       <c r="Z33" s="80"/>
       <c r="AA33" s="71" t="n">
         <f aca="false">($H33-Z33)/3500</f>
-        <v>0.375910939493257</v>
+        <v>0.375650791370784</v>
       </c>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
@@ -5868,7 +5869,7 @@
       </c>
       <c r="C34" s="69" t="n">
         <f aca="false">C33-AA33</f>
-        <v>192.838975717549</v>
+        <v>192.809864303457</v>
       </c>
       <c r="D34" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5876,28 +5877,28 @@
       </c>
       <c r="E34" s="70" t="n">
         <f aca="false">C34-D34</f>
-        <v>42.0656467452294</v>
+        <v>42.036535331137</v>
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="71" t="n">
         <f aca="false">C34*TDEE!$B$5</f>
-        <v>2399.49594397981</v>
+        <v>2399.13371056834</v>
       </c>
       <c r="H34" s="69" t="n">
         <f aca="false">$E34*31</f>
-        <v>1304.03504910211</v>
+        <v>1303.13259526525</v>
       </c>
       <c r="I34" s="69" t="n">
         <f aca="false">$G34-$H34</f>
-        <v>1095.4608948777</v>
+        <v>1096.0011153031</v>
       </c>
       <c r="J34" s="60" t="n">
         <f aca="false">H34/3500</f>
-        <v>0.372581442600603</v>
+        <v>0.372323598647214</v>
       </c>
       <c r="K34" s="69" t="n">
         <f aca="false">N34/9</f>
-        <v>59.2206935740309</v>
+        <v>59.2807180657415</v>
       </c>
       <c r="L34" s="69" t="n">
         <v>20</v>
@@ -5908,7 +5909,7 @@
       </c>
       <c r="N34" s="69" t="n">
         <f aca="false">MAX(0,I34-(O34+P34))</f>
-        <v>532.986242166278</v>
+        <v>533.526462591673</v>
       </c>
       <c r="O34" s="69" t="n">
         <f aca="false">4*L34</f>
@@ -5920,7 +5921,7 @@
       </c>
       <c r="Q34" s="70" t="n">
         <f aca="false">SUM(N34:P34)</f>
-        <v>1095.4608948777</v>
+        <v>1096.0011153031</v>
       </c>
       <c r="S34" s="79"/>
       <c r="T34" s="76"/>
@@ -5932,7 +5933,7 @@
       <c r="Z34" s="80"/>
       <c r="AA34" s="71" t="n">
         <f aca="false">($H34-Z34)/3500</f>
-        <v>0.372581442600603</v>
+        <v>0.372323598647214</v>
       </c>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
@@ -5951,7 +5952,7 @@
       </c>
       <c r="C35" s="69" t="n">
         <f aca="false">C34-AA34</f>
-        <v>192.466394274949</v>
+        <v>192.43754070481</v>
       </c>
       <c r="D35" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -5959,28 +5960,28 @@
       </c>
       <c r="E35" s="70" t="n">
         <f aca="false">C35-D35</f>
-        <v>41.6930653026288</v>
+        <v>41.6642117324898</v>
       </c>
       <c r="F35" s="58"/>
       <c r="G35" s="71" t="n">
         <f aca="false">C35*TDEE!$B$5</f>
-        <v>2394.85991198993</v>
+        <v>2394.50088693154</v>
       </c>
       <c r="H35" s="69" t="n">
         <f aca="false">$E35*31</f>
-        <v>1292.48502438149</v>
+        <v>1291.59056370718</v>
       </c>
       <c r="I35" s="69" t="n">
         <f aca="false">$G35-$H35</f>
-        <v>1102.37488760844</v>
+        <v>1102.91032322435</v>
       </c>
       <c r="J35" s="60" t="n">
         <f aca="false">H35/3500</f>
-        <v>0.369281435537569</v>
+        <v>0.36902587534491</v>
       </c>
       <c r="K35" s="69" t="n">
         <f aca="false">N35/9</f>
-        <v>59.9889149885574</v>
+        <v>60.04840783477</v>
       </c>
       <c r="L35" s="69" t="n">
         <v>20</v>
@@ -5991,7 +5992,7 @@
       </c>
       <c r="N35" s="69" t="n">
         <f aca="false">MAX(0,I35-(O35+P35))</f>
-        <v>539.900234897017</v>
+        <v>540.43567051293</v>
       </c>
       <c r="O35" s="69" t="n">
         <f aca="false">4*L35</f>
@@ -6003,7 +6004,7 @@
       </c>
       <c r="Q35" s="70" t="n">
         <f aca="false">SUM(N35:P35)</f>
-        <v>1102.37488760844</v>
+        <v>1102.91032322435</v>
       </c>
       <c r="S35" s="79"/>
       <c r="T35" s="76"/>
@@ -6015,7 +6016,7 @@
       <c r="Z35" s="80"/>
       <c r="AA35" s="71" t="n">
         <f aca="false">($H35-Z35)/3500</f>
-        <v>0.369281435537569</v>
+        <v>0.36902587534491</v>
       </c>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
@@ -6034,7 +6035,7 @@
       </c>
       <c r="C36" s="69" t="n">
         <f aca="false">C35-AA35</f>
-        <v>192.097112839411</v>
+        <v>192.068514829465</v>
       </c>
       <c r="D36" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6042,28 +6043,28 @@
       </c>
       <c r="E36" s="70" t="n">
         <f aca="false">C36-D36</f>
-        <v>41.3237838670912</v>
+        <v>41.2951858571449</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="71" t="n">
         <f aca="false">C36*TDEE!$B$5</f>
-        <v>2390.26494199768</v>
+        <v>2389.90909687551</v>
       </c>
       <c r="H36" s="69" t="n">
         <f aca="false">$E36*31</f>
-        <v>1281.03729987983</v>
+        <v>1280.15076157149</v>
       </c>
       <c r="I36" s="69" t="n">
         <f aca="false">$G36-$H36</f>
-        <v>1109.22764211785</v>
+        <v>1109.75833530402</v>
       </c>
       <c r="J36" s="60" t="n">
         <f aca="false">H36/3500</f>
-        <v>0.366010657108522</v>
+        <v>0.365757360448998</v>
       </c>
       <c r="K36" s="69" t="n">
         <f aca="false">N36/9</f>
-        <v>60.7503321562695</v>
+        <v>60.8092980658442</v>
       </c>
       <c r="L36" s="69" t="n">
         <v>20</v>
@@ -6074,7 +6075,7 @@
       </c>
       <c r="N36" s="69" t="n">
         <f aca="false">MAX(0,I36-(O36+P36))</f>
-        <v>546.752989406426</v>
+        <v>547.283682592598</v>
       </c>
       <c r="O36" s="69" t="n">
         <f aca="false">4*L36</f>
@@ -6086,7 +6087,7 @@
       </c>
       <c r="Q36" s="70" t="n">
         <f aca="false">SUM(N36:P36)</f>
-        <v>1109.22764211785</v>
+        <v>1109.75833530402</v>
       </c>
       <c r="S36" s="79"/>
       <c r="T36" s="76"/>
@@ -6098,7 +6099,7 @@
       <c r="Z36" s="80"/>
       <c r="AA36" s="71" t="n">
         <f aca="false">($H36-Z36)/3500</f>
-        <v>0.366010657108522</v>
+        <v>0.365757360448998</v>
       </c>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
@@ -6117,7 +6118,7 @@
       </c>
       <c r="C37" s="69" t="n">
         <f aca="false">C36-AA36</f>
-        <v>191.731102182303</v>
+        <v>191.702757469016</v>
       </c>
       <c r="D37" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6125,28 +6126,28 @@
       </c>
       <c r="E37" s="70" t="n">
         <f aca="false">C37-D37</f>
-        <v>40.9577732099827</v>
+        <v>40.9294284966959</v>
       </c>
       <c r="F37" s="58"/>
       <c r="G37" s="71" t="n">
         <f aca="false">C37*TDEE!$B$5</f>
-        <v>2385.71067031107</v>
+        <v>2385.35797695998</v>
       </c>
       <c r="H37" s="69" t="n">
         <f aca="false">$E37*31</f>
-        <v>1269.69096950946</v>
+        <v>1268.81228339757</v>
       </c>
       <c r="I37" s="69" t="n">
         <f aca="false">$G37-$H37</f>
-        <v>1116.0197008016</v>
+        <v>1116.54569356241</v>
       </c>
       <c r="J37" s="60" t="n">
         <f aca="false">H37/3500</f>
-        <v>0.362768848431275</v>
+        <v>0.362517795256449</v>
       </c>
       <c r="K37" s="69" t="n">
         <f aca="false">N37/9</f>
-        <v>61.5050053433533</v>
+        <v>61.5634489834432</v>
       </c>
       <c r="L37" s="69" t="n">
         <v>20</v>
@@ -6157,7 +6158,7 @@
       </c>
       <c r="N37" s="69" t="n">
         <f aca="false">MAX(0,I37-(O37+P37))</f>
-        <v>553.54504809018</v>
+        <v>554.071040850989</v>
       </c>
       <c r="O37" s="69" t="n">
         <f aca="false">4*L37</f>
@@ -6169,7 +6170,7 @@
       </c>
       <c r="Q37" s="70" t="n">
         <f aca="false">SUM(N37:P37)</f>
-        <v>1116.0197008016</v>
+        <v>1116.54569356241</v>
       </c>
       <c r="S37" s="79"/>
       <c r="T37" s="76"/>
@@ -6181,7 +6182,7 @@
       <c r="Z37" s="80"/>
       <c r="AA37" s="71" t="n">
         <f aca="false">($H37-Z37)/3500</f>
-        <v>0.362768848431275</v>
+        <v>0.362517795256449</v>
       </c>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
@@ -6200,7 +6201,7 @@
       </c>
       <c r="C38" s="69" t="n">
         <f aca="false">C37-AA37</f>
-        <v>191.368333333871</v>
+        <v>191.340239673759</v>
       </c>
       <c r="D38" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6208,28 +6209,28 @@
       </c>
       <c r="E38" s="70" t="n">
         <f aca="false">C38-D38</f>
-        <v>40.5950043615514</v>
+        <v>40.5669107014394</v>
       </c>
       <c r="F38" s="58"/>
       <c r="G38" s="71" t="n">
         <f aca="false">C38*TDEE!$B$5</f>
-        <v>2381.19673645939</v>
+        <v>2380.84716696371</v>
       </c>
       <c r="H38" s="69" t="n">
         <f aca="false">$E38*31</f>
-        <v>1258.44513520809</v>
+        <v>1257.57423174462</v>
       </c>
       <c r="I38" s="69" t="n">
         <f aca="false">$G38-$H38</f>
-        <v>1122.7516012513</v>
+        <v>1123.27293521909</v>
       </c>
       <c r="J38" s="60" t="n">
         <f aca="false">H38/3500</f>
-        <v>0.359555752916598</v>
+        <v>0.359306923355606</v>
       </c>
       <c r="K38" s="69" t="n">
         <f aca="false">N38/9</f>
-        <v>62.2529942822087</v>
+        <v>62.3109202786293</v>
       </c>
       <c r="L38" s="69" t="n">
         <v>20</v>
@@ -6240,7 +6241,7 @@
       </c>
       <c r="N38" s="69" t="n">
         <f aca="false">MAX(0,I38-(O38+P38))</f>
-        <v>560.276948539878</v>
+        <v>560.798282507663</v>
       </c>
       <c r="O38" s="69" t="n">
         <f aca="false">4*L38</f>
@@ -6252,7 +6253,7 @@
       </c>
       <c r="Q38" s="70" t="n">
         <f aca="false">SUM(N38:P38)</f>
-        <v>1122.7516012513</v>
+        <v>1123.27293521909</v>
       </c>
       <c r="S38" s="79"/>
       <c r="T38" s="76"/>
@@ -6264,7 +6265,7 @@
       <c r="Z38" s="80"/>
       <c r="AA38" s="71" t="n">
         <f aca="false">($H38-Z38)/3500</f>
-        <v>0.359555752916598</v>
+        <v>0.359306923355606</v>
       </c>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
@@ -6283,7 +6284,7 @@
       </c>
       <c r="C39" s="69" t="n">
         <f aca="false">C38-AA38</f>
-        <v>191.008777580955</v>
+        <v>190.980932750404</v>
       </c>
       <c r="D39" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6291,28 +6292,28 @@
       </c>
       <c r="E39" s="70" t="n">
         <f aca="false">C39-D39</f>
-        <v>40.2354486086348</v>
+        <v>40.2076037780838</v>
       </c>
       <c r="F39" s="58"/>
       <c r="G39" s="71" t="n">
         <f aca="false">C39*TDEE!$B$5</f>
-        <v>2376.72278316469</v>
+        <v>2376.37630985597</v>
       </c>
       <c r="H39" s="69" t="n">
         <f aca="false">$E39*31</f>
-        <v>1247.29890686768</v>
+        <v>1246.4357171206</v>
       </c>
       <c r="I39" s="69" t="n">
         <f aca="false">$G39-$H39</f>
-        <v>1129.42387629702</v>
+        <v>1129.94059273537</v>
       </c>
       <c r="J39" s="60" t="n">
         <f aca="false">H39/3500</f>
-        <v>0.356371116247908</v>
+        <v>0.356124490605885</v>
       </c>
       <c r="K39" s="69" t="n">
         <f aca="false">N39/9</f>
-        <v>62.9943581761771</v>
+        <v>63.0517711137722</v>
       </c>
       <c r="L39" s="69" t="n">
         <v>20</v>
@@ -6323,7 +6324,7 @@
       </c>
       <c r="N39" s="69" t="n">
         <f aca="false">MAX(0,I39-(O39+P39))</f>
-        <v>566.949223585594</v>
+        <v>567.465940023949</v>
       </c>
       <c r="O39" s="69" t="n">
         <f aca="false">4*L39</f>
@@ -6335,7 +6336,7 @@
       </c>
       <c r="Q39" s="70" t="n">
         <f aca="false">SUM(N39:P39)</f>
-        <v>1129.42387629702</v>
+        <v>1129.94059273537</v>
       </c>
       <c r="S39" s="79"/>
       <c r="T39" s="76"/>
@@ -6347,7 +6348,7 @@
       <c r="Z39" s="80"/>
       <c r="AA39" s="71" t="n">
         <f aca="false">($H39-Z39)/3500</f>
-        <v>0.356371116247908</v>
+        <v>0.356124490605885</v>
       </c>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="C40" s="69" t="n">
         <f aca="false">C39-AA39</f>
-        <v>190.652406464707</v>
+        <v>190.624808259798</v>
       </c>
       <c r="D40" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6374,28 +6375,28 @@
       </c>
       <c r="E40" s="70" t="n">
         <f aca="false">C40-D40</f>
-        <v>39.8790774923869</v>
+        <v>39.851479287478</v>
       </c>
       <c r="F40" s="58"/>
       <c r="G40" s="71" t="n">
         <f aca="false">C40*TDEE!$B$5</f>
-        <v>2372.28845631346</v>
+        <v>2371.94505176833</v>
       </c>
       <c r="H40" s="69" t="n">
         <f aca="false">$E40*31</f>
-        <v>1236.25140226399</v>
+        <v>1235.39585791182</v>
       </c>
       <c r="I40" s="69" t="n">
         <f aca="false">$G40-$H40</f>
-        <v>1136.03705404947</v>
+        <v>1136.54919385651</v>
       </c>
       <c r="J40" s="60" t="n">
         <f aca="false">H40/3500</f>
-        <v>0.353214686361141</v>
+        <v>0.352970245117662</v>
       </c>
       <c r="K40" s="69" t="n">
         <f aca="false">N40/9</f>
-        <v>63.7291557042274</v>
+        <v>63.7860601272324</v>
       </c>
       <c r="L40" s="69" t="n">
         <v>20</v>
@@ -6406,7 +6407,7 @@
       </c>
       <c r="N40" s="69" t="n">
         <f aca="false">MAX(0,I40-(O40+P40))</f>
-        <v>573.562401338047</v>
+        <v>574.074541145091</v>
       </c>
       <c r="O40" s="69" t="n">
         <f aca="false">4*L40</f>
@@ -6418,7 +6419,7 @@
       </c>
       <c r="Q40" s="70" t="n">
         <f aca="false">SUM(N40:P40)</f>
-        <v>1136.03705404947</v>
+        <v>1136.54919385651</v>
       </c>
       <c r="S40" s="79"/>
       <c r="T40" s="76"/>
@@ -6430,7 +6431,7 @@
       <c r="Z40" s="80"/>
       <c r="AA40" s="71" t="n">
         <f aca="false">($H40-Z40)/3500</f>
-        <v>0.353214686361141</v>
+        <v>0.352970245117662</v>
       </c>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
@@ -6449,7 +6450,7 @@
       </c>
       <c r="C41" s="69" t="n">
         <f aca="false">C40-AA40</f>
-        <v>190.299191778346</v>
+        <v>190.27183801468</v>
       </c>
       <c r="D41" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6457,28 +6458,28 @@
       </c>
       <c r="E41" s="70" t="n">
         <f aca="false">C41-D41</f>
-        <v>39.5258628060258</v>
+        <v>39.4985090423603</v>
       </c>
       <c r="F41" s="58"/>
       <c r="G41" s="71" t="n">
         <f aca="false">C41*TDEE!$B$5</f>
-        <v>2367.89340492863</v>
+        <v>2367.55304196661</v>
       </c>
       <c r="H41" s="69" t="n">
         <f aca="false">$E41*31</f>
-        <v>1225.3017469868</v>
+        <v>1224.45378031317</v>
       </c>
       <c r="I41" s="69" t="n">
         <f aca="false">$G41-$H41</f>
-        <v>1142.59165794183</v>
+        <v>1143.09926165344</v>
       </c>
       <c r="J41" s="60" t="n">
         <f aca="false">H41/3500</f>
-        <v>0.3500862134248</v>
+        <v>0.349843937232334</v>
       </c>
       <c r="K41" s="69" t="n">
         <f aca="false">N41/9</f>
-        <v>64.4574450256007</v>
+        <v>64.5138454380019</v>
       </c>
       <c r="L41" s="69" t="n">
         <v>20</v>
@@ -6489,7 +6490,7 @@
       </c>
       <c r="N41" s="69" t="n">
         <f aca="false">MAX(0,I41-(O41+P41))</f>
-        <v>580.117005230406</v>
+        <v>580.624608942017</v>
       </c>
       <c r="O41" s="69" t="n">
         <f aca="false">4*L41</f>
@@ -6501,7 +6502,7 @@
       </c>
       <c r="Q41" s="70" t="n">
         <f aca="false">SUM(N41:P41)</f>
-        <v>1142.59165794183</v>
+        <v>1143.09926165344</v>
       </c>
       <c r="S41" s="79"/>
       <c r="T41" s="76"/>
@@ -6513,7 +6514,7 @@
       <c r="Z41" s="80"/>
       <c r="AA41" s="71" t="n">
         <f aca="false">($H41-Z41)/3500</f>
-        <v>0.3500862134248</v>
+        <v>0.349843937232334</v>
       </c>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
@@ -6532,7 +6533,7 @@
       </c>
       <c r="C42" s="69" t="n">
         <f aca="false">C41-AA41</f>
-        <v>189.949105564921</v>
+        <v>189.921994077448</v>
       </c>
       <c r="D42" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6540,28 +6541,28 @@
       </c>
       <c r="E42" s="70" t="n">
         <f aca="false">C42-D42</f>
-        <v>39.175776592601</v>
+        <v>39.148665105128</v>
       </c>
       <c r="F42" s="58"/>
       <c r="G42" s="71" t="n">
         <f aca="false">C42*TDEE!$B$5</f>
-        <v>2363.53728114177</v>
+        <v>2363.19993282313</v>
       </c>
       <c r="H42" s="69" t="n">
         <f aca="false">$E42*31</f>
-        <v>1214.44907437063</v>
+        <v>1213.60861825897</v>
       </c>
       <c r="I42" s="69" t="n">
         <f aca="false">$G42-$H42</f>
-        <v>1149.08820677114</v>
+        <v>1149.59131456416</v>
       </c>
       <c r="J42" s="60" t="n">
         <f aca="false">H42/3500</f>
-        <v>0.34698544982018</v>
+        <v>0.346745319502562</v>
       </c>
       <c r="K42" s="69" t="n">
         <f aca="false">N42/9</f>
-        <v>65.1792837844133</v>
+        <v>65.2351846503046</v>
       </c>
       <c r="L42" s="69" t="n">
         <v>20</v>
@@ -6572,7 +6573,7 @@
       </c>
       <c r="N42" s="69" t="n">
         <f aca="false">MAX(0,I42-(O42+P42))</f>
-        <v>586.613554059719</v>
+        <v>587.116661852742</v>
       </c>
       <c r="O42" s="69" t="n">
         <f aca="false">4*L42</f>
@@ -6584,7 +6585,7 @@
       </c>
       <c r="Q42" s="70" t="n">
         <f aca="false">SUM(N42:P42)</f>
-        <v>1149.08820677114</v>
+        <v>1149.59131456416</v>
       </c>
       <c r="S42" s="79"/>
       <c r="T42" s="76"/>
@@ -6596,7 +6597,7 @@
       <c r="Z42" s="80"/>
       <c r="AA42" s="71" t="n">
         <f aca="false">($H42-Z42)/3500</f>
-        <v>0.34698544982018</v>
+        <v>0.346745319502562</v>
       </c>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
@@ -6615,7 +6616,7 @@
       </c>
       <c r="C43" s="69" t="n">
         <f aca="false">C42-AA42</f>
-        <v>189.602120115101</v>
+        <v>189.575248757945</v>
       </c>
       <c r="D43" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6623,28 +6624,28 @@
       </c>
       <c r="E43" s="70" t="n">
         <f aca="false">C43-D43</f>
-        <v>38.8287911427808</v>
+        <v>38.8019197856254</v>
       </c>
       <c r="F43" s="58"/>
       <c r="G43" s="71" t="n">
         <f aca="false">C43*TDEE!$B$5</f>
-        <v>2359.2197401656</v>
+        <v>2358.88537978921</v>
       </c>
       <c r="H43" s="69" t="n">
         <f aca="false">$E43*31</f>
-        <v>1203.6925254262</v>
+        <v>1202.85951335439</v>
       </c>
       <c r="I43" s="69" t="n">
         <f aca="false">$G43-$H43</f>
-        <v>1155.5272147394</v>
+        <v>1156.02586643482</v>
       </c>
       <c r="J43" s="60" t="n">
         <f aca="false">H43/3500</f>
-        <v>0.343912150121773</v>
+        <v>0.343674146672682</v>
       </c>
       <c r="K43" s="69" t="n">
         <f aca="false">N43/9</f>
-        <v>65.8947291142192</v>
+        <v>65.9501348581555</v>
       </c>
       <c r="L43" s="69" t="n">
         <v>20</v>
@@ -6655,7 +6656,7 @@
       </c>
       <c r="N43" s="69" t="n">
         <f aca="false">MAX(0,I43-(O43+P43))</f>
-        <v>593.052562027973</v>
+        <v>593.5512137234</v>
       </c>
       <c r="O43" s="69" t="n">
         <f aca="false">4*L43</f>
@@ -6667,7 +6668,7 @@
       </c>
       <c r="Q43" s="70" t="n">
         <f aca="false">SUM(N43:P43)</f>
-        <v>1155.5272147394</v>
+        <v>1156.02586643482</v>
       </c>
       <c r="S43" s="79"/>
       <c r="T43" s="76"/>
@@ -6679,7 +6680,7 @@
       <c r="Z43" s="80"/>
       <c r="AA43" s="71" t="n">
         <f aca="false">($H43-Z43)/3500</f>
-        <v>0.343912150121773</v>
+        <v>0.343674146672682</v>
       </c>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
@@ -6698,7 +6699,7 @@
       </c>
       <c r="C44" s="69" t="n">
         <f aca="false">C43-AA43</f>
-        <v>189.258207964979</v>
+        <v>189.231574611273</v>
       </c>
       <c r="D44" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6706,28 +6707,28 @@
       </c>
       <c r="E44" s="70" t="n">
         <f aca="false">C44-D44</f>
-        <v>38.484878992659</v>
+        <v>38.4582456389527</v>
       </c>
       <c r="F44" s="58"/>
       <c r="G44" s="71" t="n">
         <f aca="false">C44*TDEE!$B$5</f>
-        <v>2354.94044026665</v>
+        <v>2354.60904136788</v>
       </c>
       <c r="H44" s="69" t="n">
         <f aca="false">$E44*31</f>
-        <v>1193.03124877243</v>
+        <v>1192.20561480754</v>
       </c>
       <c r="I44" s="69" t="n">
         <f aca="false">$G44-$H44</f>
-        <v>1161.90919149422</v>
+        <v>1162.40342656034</v>
       </c>
       <c r="J44" s="60" t="n">
         <f aca="false">H44/3500</f>
-        <v>0.340866071077837</v>
+        <v>0.340630175659296</v>
       </c>
       <c r="K44" s="69" t="n">
         <f aca="false">N44/9</f>
-        <v>66.6038376425327</v>
+        <v>66.6587526498798</v>
       </c>
       <c r="L44" s="69" t="n">
         <v>20</v>
@@ -6738,7 +6739,7 @@
       </c>
       <c r="N44" s="69" t="n">
         <f aca="false">MAX(0,I44-(O44+P44))</f>
-        <v>599.434538782794</v>
+        <v>599.928773848918</v>
       </c>
       <c r="O44" s="69" t="n">
         <f aca="false">4*L44</f>
@@ -6750,7 +6751,7 @@
       </c>
       <c r="Q44" s="70" t="n">
         <f aca="false">SUM(N44:P44)</f>
-        <v>1161.90919149422</v>
+        <v>1162.40342656034</v>
       </c>
       <c r="S44" s="79"/>
       <c r="T44" s="76"/>
@@ -6762,7 +6763,7 @@
       <c r="Z44" s="80"/>
       <c r="AA44" s="71" t="n">
         <f aca="false">($H44-Z44)/3500</f>
-        <v>0.340866071077837</v>
+        <v>0.340630175659296</v>
       </c>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
@@ -6781,7 +6782,7 @@
       </c>
       <c r="C45" s="69" t="n">
         <f aca="false">C44-AA44</f>
-        <v>188.917341893901</v>
+        <v>188.890944435613</v>
       </c>
       <c r="D45" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6789,28 +6790,28 @@
       </c>
       <c r="E45" s="70" t="n">
         <f aca="false">C45-D45</f>
-        <v>38.1440129215812</v>
+        <v>38.1176154632934</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="71" t="n">
         <f aca="false">C45*TDEE!$B$5</f>
-        <v>2350.69904273822</v>
+        <v>2350.37057908684</v>
       </c>
       <c r="H45" s="69" t="n">
         <f aca="false">$E45*31</f>
-        <v>1182.46440056902</v>
+        <v>1181.6460793621</v>
       </c>
       <c r="I45" s="69" t="n">
         <f aca="false">$G45-$H45</f>
-        <v>1168.23464216921</v>
+        <v>1168.72449972475</v>
       </c>
       <c r="J45" s="60" t="n">
         <f aca="false">H45/3500</f>
-        <v>0.337846971591148</v>
+        <v>0.337613165532028</v>
       </c>
       <c r="K45" s="69" t="n">
         <f aca="false">N45/9</f>
-        <v>67.3066654953096</v>
+        <v>67.3610941125916</v>
       </c>
       <c r="L45" s="69" t="n">
         <v>20</v>
@@ -6821,7 +6822,7 @@
       </c>
       <c r="N45" s="69" t="n">
         <f aca="false">MAX(0,I45-(O45+P45))</f>
-        <v>605.759989457786</v>
+        <v>606.249847013325</v>
       </c>
       <c r="O45" s="69" t="n">
         <f aca="false">4*L45</f>
@@ -6833,7 +6834,7 @@
       </c>
       <c r="Q45" s="70" t="n">
         <f aca="false">SUM(N45:P45)</f>
-        <v>1168.23464216921</v>
+        <v>1168.72449972475</v>
       </c>
       <c r="S45" s="79"/>
       <c r="T45" s="76"/>
@@ -6845,7 +6846,7 @@
       <c r="Z45" s="80"/>
       <c r="AA45" s="71" t="n">
         <f aca="false">($H45-Z45)/3500</f>
-        <v>0.337846971591148</v>
+        <v>0.337613165532028</v>
       </c>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
@@ -6864,7 +6865,7 @@
       </c>
       <c r="C46" s="69" t="n">
         <f aca="false">C45-AA45</f>
-        <v>188.57949492231</v>
+        <v>188.553331270081</v>
       </c>
       <c r="D46" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6872,28 +6873,28 @@
       </c>
       <c r="E46" s="70" t="n">
         <f aca="false">C46-D46</f>
-        <v>37.80616594999</v>
+        <v>37.7800022977614</v>
       </c>
       <c r="F46" s="58"/>
       <c r="G46" s="71" t="n">
         <f aca="false">C46*TDEE!$B$5</f>
-        <v>2346.49521187363</v>
+        <v>2346.16965747173</v>
       </c>
       <c r="H46" s="69" t="n">
         <f aca="false">$E46*31</f>
-        <v>1171.99114444969</v>
+        <v>1171.1800712306</v>
       </c>
       <c r="I46" s="69" t="n">
         <f aca="false">$G46-$H46</f>
-        <v>1174.50406742394</v>
+        <v>1174.98958624113</v>
       </c>
       <c r="J46" s="60" t="n">
         <f aca="false">H46/3500</f>
-        <v>0.334854612699912</v>
+        <v>0.334622877494458</v>
       </c>
       <c r="K46" s="69" t="n">
         <f aca="false">N46/9</f>
-        <v>68.0032683013904</v>
+        <v>68.0572148366337</v>
       </c>
       <c r="L46" s="69" t="n">
         <v>20</v>
@@ -6904,7 +6905,7 @@
       </c>
       <c r="N46" s="69" t="n">
         <f aca="false">MAX(0,I46-(O46+P46))</f>
-        <v>612.029414712514</v>
+        <v>612.514933529704</v>
       </c>
       <c r="O46" s="69" t="n">
         <f aca="false">4*L46</f>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="Q46" s="70" t="n">
         <f aca="false">SUM(N46:P46)</f>
-        <v>1174.50406742394</v>
+        <v>1174.98958624113</v>
       </c>
       <c r="S46" s="79"/>
       <c r="T46" s="76"/>
@@ -6928,7 +6929,7 @@
       <c r="Z46" s="80"/>
       <c r="AA46" s="71" t="n">
         <f aca="false">($H46-Z46)/3500</f>
-        <v>0.334854612699912</v>
+        <v>0.334622877494458</v>
       </c>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
@@ -6947,7 +6948,7 @@
       </c>
       <c r="C47" s="69" t="n">
         <f aca="false">C46-AA46</f>
-        <v>188.24464030961</v>
+        <v>188.218708392587</v>
       </c>
       <c r="D47" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -6955,28 +6956,28 @@
       </c>
       <c r="E47" s="70" t="n">
         <f aca="false">C47-D47</f>
-        <v>37.4713113372901</v>
+        <v>37.445379420267</v>
       </c>
       <c r="F47" s="58"/>
       <c r="G47" s="71" t="n">
         <f aca="false">C47*TDEE!$B$5</f>
-        <v>2342.32861493954</v>
+        <v>2342.00594401949</v>
       </c>
       <c r="H47" s="69" t="n">
         <f aca="false">$E47*31</f>
-        <v>1161.61065145599</v>
+        <v>1160.80676202828</v>
       </c>
       <c r="I47" s="69" t="n">
         <f aca="false">$G47-$H47</f>
-        <v>1180.71796348355</v>
+        <v>1181.19918199122</v>
       </c>
       <c r="J47" s="60" t="n">
         <f aca="false">H47/3500</f>
-        <v>0.331888757558855</v>
+        <v>0.331659074865222</v>
       </c>
       <c r="K47" s="69" t="n">
         <f aca="false">N47/9</f>
-        <v>68.6937011969032</v>
+        <v>68.7471699199772</v>
       </c>
       <c r="L47" s="69" t="n">
         <v>20</v>
@@ -6987,7 +6988,7 @@
       </c>
       <c r="N47" s="69" t="n">
         <f aca="false">MAX(0,I47-(O47+P47))</f>
-        <v>618.243310772129</v>
+        <v>618.724529279795</v>
       </c>
       <c r="O47" s="69" t="n">
         <f aca="false">4*L47</f>
@@ -6999,7 +7000,7 @@
       </c>
       <c r="Q47" s="70" t="n">
         <f aca="false">SUM(N47:P47)</f>
-        <v>1180.71796348355</v>
+        <v>1181.19918199122</v>
       </c>
       <c r="S47" s="79"/>
       <c r="T47" s="76"/>
@@ -7011,7 +7012,7 @@
       <c r="Z47" s="80"/>
       <c r="AA47" s="71" t="n">
         <f aca="false">($H47-Z47)/3500</f>
-        <v>0.331888757558855</v>
+        <v>0.331659074865222</v>
       </c>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
@@ -7030,7 +7031,7 @@
       </c>
       <c r="C48" s="69" t="n">
         <f aca="false">C47-AA47</f>
-        <v>187.912751552051</v>
+        <v>187.887049317722</v>
       </c>
       <c r="D48" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7038,28 +7039,28 @@
       </c>
       <c r="E48" s="70" t="n">
         <f aca="false">C48-D48</f>
-        <v>37.1394225797313</v>
+        <v>37.1137203454017</v>
       </c>
       <c r="F48" s="58"/>
       <c r="G48" s="71" t="n">
         <f aca="false">C48*TDEE!$B$5</f>
-        <v>2338.19892214973</v>
+        <v>2337.87910917212</v>
       </c>
       <c r="H48" s="69" t="n">
         <f aca="false">$E48*31</f>
-        <v>1151.32209997167</v>
+        <v>1150.52533070745</v>
       </c>
       <c r="I48" s="69" t="n">
         <f aca="false">$G48-$H48</f>
-        <v>1186.87682217807</v>
+        <v>1187.35377846466</v>
       </c>
       <c r="J48" s="60" t="n">
         <f aca="false">H48/3500</f>
-        <v>0.328949171420477</v>
+        <v>0.328721523059272</v>
       </c>
       <c r="K48" s="69" t="n">
         <f aca="false">N48/9</f>
-        <v>69.3780188296271</v>
+        <v>69.4310139725825</v>
       </c>
       <c r="L48" s="69" t="n">
         <v>20</v>
@@ -7070,7 +7071,7 @@
       </c>
       <c r="N48" s="69" t="n">
         <f aca="false">MAX(0,I48-(O48+P48))</f>
-        <v>624.402169466644</v>
+        <v>624.879125753242</v>
       </c>
       <c r="O48" s="69" t="n">
         <f aca="false">4*L48</f>
@@ -7082,7 +7083,7 @@
       </c>
       <c r="Q48" s="70" t="n">
         <f aca="false">SUM(N48:P48)</f>
-        <v>1186.87682217807</v>
+        <v>1187.35377846466</v>
       </c>
       <c r="S48" s="79"/>
       <c r="T48" s="76"/>
@@ -7094,7 +7095,7 @@
       <c r="Z48" s="80"/>
       <c r="AA48" s="71" t="n">
         <f aca="false">($H48-Z48)/3500</f>
-        <v>0.328949171420477</v>
+        <v>0.328721523059272</v>
       </c>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
@@ -7113,7 +7114,7 @@
       </c>
       <c r="C49" s="69" t="n">
         <f aca="false">C48-AA48</f>
-        <v>187.583802380631</v>
+        <v>187.558327794662</v>
       </c>
       <c r="D49" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7121,28 +7122,28 @@
       </c>
       <c r="E49" s="70" t="n">
         <f aca="false">C49-D49</f>
-        <v>36.8104734083108</v>
+        <v>36.7849988223425</v>
       </c>
       <c r="F49" s="58"/>
       <c r="G49" s="71" t="n">
         <f aca="false">C49*TDEE!$B$5</f>
-        <v>2334.10580663892</v>
+        <v>2333.78882629053</v>
       </c>
       <c r="H49" s="69" t="n">
         <f aca="false">$E49*31</f>
-        <v>1141.12467565763</v>
+        <v>1140.33496349262</v>
       </c>
       <c r="I49" s="69" t="n">
         <f aca="false">$G49-$H49</f>
-        <v>1192.98113098129</v>
+        <v>1193.45386279792</v>
       </c>
       <c r="J49" s="60" t="n">
         <f aca="false">H49/3500</f>
-        <v>0.326035621616467</v>
+        <v>0.325809989569319</v>
       </c>
       <c r="K49" s="69" t="n">
         <f aca="false">N49/9</f>
-        <v>70.0562753633183</v>
+        <v>70.1088011207218</v>
       </c>
       <c r="L49" s="69" t="n">
         <v>20</v>
@@ -7153,7 +7154,7 @@
       </c>
       <c r="N49" s="69" t="n">
         <f aca="false">MAX(0,I49-(O49+P49))</f>
-        <v>630.506478269865</v>
+        <v>630.979210086496</v>
       </c>
       <c r="O49" s="69" t="n">
         <f aca="false">4*L49</f>
@@ -7165,7 +7166,7 @@
       </c>
       <c r="Q49" s="70" t="n">
         <f aca="false">SUM(N49:P49)</f>
-        <v>1192.98113098129</v>
+        <v>1193.45386279792</v>
       </c>
       <c r="S49" s="79"/>
       <c r="T49" s="76"/>
@@ -7177,7 +7178,7 @@
       <c r="Z49" s="80"/>
       <c r="AA49" s="71" t="n">
         <f aca="false">($H49-Z49)/3500</f>
-        <v>0.326035621616467</v>
+        <v>0.325809989569319</v>
       </c>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
@@ -7196,7 +7197,7 @@
       </c>
       <c r="C50" s="69" t="n">
         <f aca="false">C49-AA49</f>
-        <v>187.257766759014</v>
+        <v>187.232517805093</v>
       </c>
       <c r="D50" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7204,28 +7205,28 @@
       </c>
       <c r="E50" s="70" t="n">
         <f aca="false">C50-D50</f>
-        <v>36.4844377866943</v>
+        <v>36.4591888327732</v>
       </c>
       <c r="F50" s="58"/>
       <c r="G50" s="71" t="n">
         <f aca="false">C50*TDEE!$B$5</f>
-        <v>2330.04894443692</v>
+        <v>2329.73477162876</v>
       </c>
       <c r="H50" s="69" t="n">
         <f aca="false">$E50*31</f>
-        <v>1131.01757138752</v>
+        <v>1130.23485381597</v>
       </c>
       <c r="I50" s="69" t="n">
         <f aca="false">$G50-$H50</f>
-        <v>1199.03137304939</v>
+        <v>1199.49991781279</v>
       </c>
       <c r="J50" s="60" t="n">
         <f aca="false">H50/3500</f>
-        <v>0.323147877539293</v>
+        <v>0.322924243947419</v>
       </c>
       <c r="K50" s="69" t="n">
         <f aca="false">N50/9</f>
-        <v>70.7285244819968</v>
+        <v>70.7805850112633</v>
       </c>
       <c r="L50" s="69" t="n">
         <v>20</v>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="N50" s="69" t="n">
         <f aca="false">MAX(0,I50-(O50+P50))</f>
-        <v>636.556720337971</v>
+        <v>637.025265101369</v>
       </c>
       <c r="O50" s="69" t="n">
         <f aca="false">4*L50</f>
@@ -7248,7 +7249,7 @@
       </c>
       <c r="Q50" s="70" t="n">
         <f aca="false">SUM(N50:P50)</f>
-        <v>1199.03137304939</v>
+        <v>1199.49991781279</v>
       </c>
       <c r="S50" s="79"/>
       <c r="T50" s="76"/>
@@ -7260,7 +7261,7 @@
       <c r="Z50" s="80"/>
       <c r="AA50" s="71" t="n">
         <f aca="false">($H50-Z50)/3500</f>
-        <v>0.323147877539293</v>
+        <v>0.322924243947419</v>
       </c>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
@@ -7279,7 +7280,7 @@
       </c>
       <c r="C51" s="69" t="n">
         <f aca="false">C50-AA50</f>
-        <v>186.934618881475</v>
+        <v>186.909593561146</v>
       </c>
       <c r="D51" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7287,28 +7288,28 @@
       </c>
       <c r="E51" s="70" t="n">
         <f aca="false">C51-D51</f>
-        <v>36.161289909155</v>
+        <v>36.1362645888257</v>
       </c>
       <c r="F51" s="58"/>
       <c r="G51" s="71" t="n">
         <f aca="false">C51*TDEE!$B$5</f>
-        <v>2326.02801444299</v>
+        <v>2325.71662430827</v>
       </c>
       <c r="H51" s="69" t="n">
         <f aca="false">$E51*31</f>
-        <v>1120.99998718381</v>
+        <v>1120.2242022536</v>
       </c>
       <c r="I51" s="69" t="n">
         <f aca="false">$G51-$H51</f>
-        <v>1205.02802725918</v>
+        <v>1205.49242205468</v>
       </c>
       <c r="J51" s="60" t="n">
         <f aca="false">H51/3500</f>
-        <v>0.320285710623945</v>
+        <v>0.320064057786742</v>
       </c>
       <c r="K51" s="69" t="n">
         <f aca="false">N51/9</f>
-        <v>71.3948193941956</v>
+        <v>71.4464188159172</v>
       </c>
       <c r="L51" s="69" t="n">
         <v>20</v>
@@ -7319,7 +7320,7 @@
       </c>
       <c r="N51" s="69" t="n">
         <f aca="false">MAX(0,I51-(O51+P51))</f>
-        <v>642.553374547761</v>
+        <v>643.017769343254</v>
       </c>
       <c r="O51" s="69" t="n">
         <f aca="false">4*L51</f>
@@ -7331,7 +7332,7 @@
       </c>
       <c r="Q51" s="70" t="n">
         <f aca="false">SUM(N51:P51)</f>
-        <v>1205.02802725918</v>
+        <v>1205.49242205468</v>
       </c>
       <c r="S51" s="79"/>
       <c r="T51" s="76"/>
@@ -7343,7 +7344,7 @@
       <c r="Z51" s="80"/>
       <c r="AA51" s="71" t="n">
         <f aca="false">($H51-Z51)/3500</f>
-        <v>0.320285710623945</v>
+        <v>0.320064057786742</v>
       </c>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
@@ -7362,7 +7363,7 @@
       </c>
       <c r="C52" s="69" t="n">
         <f aca="false">C51-AA51</f>
-        <v>186.614333170851</v>
+        <v>186.589529503359</v>
       </c>
       <c r="D52" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7370,28 +7371,28 @@
       </c>
       <c r="E52" s="70" t="n">
         <f aca="false">C52-D52</f>
-        <v>35.8410041985311</v>
+        <v>35.816200531039</v>
       </c>
       <c r="F52" s="58"/>
       <c r="G52" s="71" t="n">
         <f aca="false">C52*TDEE!$B$5</f>
-        <v>2322.04269840043</v>
+        <v>2321.73406629263</v>
       </c>
       <c r="H52" s="69" t="n">
         <f aca="false">$E52*31</f>
-        <v>1111.07113015446</v>
+        <v>1110.30221646221</v>
       </c>
       <c r="I52" s="69" t="n">
         <f aca="false">$G52-$H52</f>
-        <v>1210.97156824597</v>
+        <v>1211.43184983042</v>
       </c>
       <c r="J52" s="60" t="n">
         <f aca="false">H52/3500</f>
-        <v>0.317448894329847</v>
+        <v>0.317229204703488</v>
       </c>
       <c r="K52" s="69" t="n">
         <f aca="false">N52/9</f>
-        <v>72.0552128371721</v>
+        <v>72.1063552354441</v>
       </c>
       <c r="L52" s="69" t="n">
         <v>20</v>
@@ -7402,7 +7403,7 @@
       </c>
       <c r="N52" s="69" t="n">
         <f aca="false">MAX(0,I52-(O52+P52))</f>
-        <v>648.496915534549</v>
+        <v>648.957197118997</v>
       </c>
       <c r="O52" s="69" t="n">
         <f aca="false">4*L52</f>
@@ -7414,7 +7415,7 @@
       </c>
       <c r="Q52" s="70" t="n">
         <f aca="false">SUM(N52:P52)</f>
-        <v>1210.97156824597</v>
+        <v>1211.43184983042</v>
       </c>
       <c r="S52" s="79"/>
       <c r="T52" s="76"/>
@@ -7426,7 +7427,7 @@
       <c r="Z52" s="80"/>
       <c r="AA52" s="71" t="n">
         <f aca="false">($H52-Z52)/3500</f>
-        <v>0.317448894329847</v>
+        <v>0.317229204703488</v>
       </c>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
@@ -7445,7 +7446,7 @@
       </c>
       <c r="C53" s="69" t="n">
         <f aca="false">C52-AA52</f>
-        <v>186.296884276521</v>
+        <v>186.272300298656</v>
       </c>
       <c r="D53" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7453,28 +7454,28 @@
       </c>
       <c r="E53" s="70" t="n">
         <f aca="false">C53-D53</f>
-        <v>35.5235553042012</v>
+        <v>35.4989713263355</v>
       </c>
       <c r="F53" s="58"/>
       <c r="G53" s="71" t="n">
         <f aca="false">C53*TDEE!$B$5</f>
-        <v>2318.0926808714</v>
+        <v>2317.78678236226</v>
       </c>
       <c r="H53" s="69" t="n">
         <f aca="false">$E53*31</f>
-        <v>1101.23021443024</v>
+        <v>1100.4681111164</v>
       </c>
       <c r="I53" s="69" t="n">
         <f aca="false">$G53-$H53</f>
-        <v>1216.86246644116</v>
+        <v>1217.31867124586</v>
       </c>
       <c r="J53" s="60" t="n">
         <f aca="false">H53/3500</f>
-        <v>0.314637204122925</v>
+        <v>0.314419460318971</v>
       </c>
       <c r="K53" s="69" t="n">
         <f aca="false">N53/9</f>
-        <v>72.7097570810822</v>
+        <v>72.7604465038267</v>
       </c>
       <c r="L53" s="69" t="n">
         <v>20</v>
@@ -7485,7 +7486,7 @@
       </c>
       <c r="N53" s="69" t="n">
         <f aca="false">MAX(0,I53-(O53+P53))</f>
-        <v>654.38781372974</v>
+        <v>654.84401853444</v>
       </c>
       <c r="O53" s="69" t="n">
         <f aca="false">4*L53</f>
@@ -7497,7 +7498,7 @@
       </c>
       <c r="Q53" s="70" t="n">
         <f aca="false">SUM(N53:P53)</f>
-        <v>1216.86246644116</v>
+        <v>1217.31867124586</v>
       </c>
       <c r="S53" s="79"/>
       <c r="T53" s="76"/>
@@ -7509,7 +7510,7 @@
       <c r="Z53" s="80"/>
       <c r="AA53" s="71" t="n">
         <f aca="false">($H53-Z53)/3500</f>
-        <v>0.314637204122925</v>
+        <v>0.314419460318971</v>
       </c>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
@@ -7528,7 +7529,7 @@
       </c>
       <c r="C54" s="69" t="n">
         <f aca="false">C53-AA53</f>
-        <v>185.982247072398</v>
+        <v>185.957880838337</v>
       </c>
       <c r="D54" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7536,28 +7537,28 @@
       </c>
       <c r="E54" s="70" t="n">
         <f aca="false">C54-D54</f>
-        <v>35.2089181000783</v>
+        <v>35.1845518660165</v>
       </c>
       <c r="F54" s="58"/>
       <c r="G54" s="71" t="n">
         <f aca="false">C54*TDEE!$B$5</f>
-        <v>2314.17764921191</v>
+        <v>2313.87446008957</v>
       </c>
       <c r="H54" s="69" t="n">
         <f aca="false">$E54*31</f>
-        <v>1091.47646110243</v>
+        <v>1090.72110784651</v>
       </c>
       <c r="I54" s="69" t="n">
         <f aca="false">$G54-$H54</f>
-        <v>1222.70118810948</v>
+        <v>1223.15335224305</v>
       </c>
       <c r="J54" s="60" t="n">
         <f aca="false">H54/3500</f>
-        <v>0.311850417457836</v>
+        <v>0.311634602241861</v>
       </c>
       <c r="K54" s="69" t="n">
         <f aca="false">N54/9</f>
-        <v>73.3585039331177</v>
+        <v>73.4087443924035</v>
       </c>
       <c r="L54" s="69" t="n">
         <v>20</v>
@@ -7568,7 +7569,7 @@
       </c>
       <c r="N54" s="69" t="n">
         <f aca="false">MAX(0,I54-(O54+P54))</f>
-        <v>660.226535398059</v>
+        <v>660.678699531632</v>
       </c>
       <c r="O54" s="69" t="n">
         <f aca="false">4*L54</f>
@@ -7580,7 +7581,7 @@
       </c>
       <c r="Q54" s="70" t="n">
         <f aca="false">SUM(N54:P54)</f>
-        <v>1222.70118810948</v>
+        <v>1223.15335224305</v>
       </c>
       <c r="S54" s="79"/>
       <c r="T54" s="76"/>
@@ -7592,7 +7593,7 @@
       <c r="Z54" s="80"/>
       <c r="AA54" s="71" t="n">
         <f aca="false">($H54-Z54)/3500</f>
-        <v>0.311850417457836</v>
+        <v>0.311634602241861</v>
       </c>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
@@ -7611,7 +7612,7 @@
       </c>
       <c r="C55" s="69" t="n">
         <f aca="false">C54-AA54</f>
-        <v>185.67039665494</v>
+        <v>185.646246236095</v>
       </c>
       <c r="D55" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7619,28 +7620,28 @@
       </c>
       <c r="E55" s="70" t="n">
         <f aca="false">C55-D55</f>
-        <v>34.8970676826205</v>
+        <v>34.8729172637747</v>
       </c>
       <c r="F55" s="58"/>
       <c r="G55" s="71" t="n">
         <f aca="false">C55*TDEE!$B$5</f>
-        <v>2310.29729354712</v>
+        <v>2309.99678981414</v>
       </c>
       <c r="H55" s="69" t="n">
         <f aca="false">$E55*31</f>
-        <v>1081.80909816123</v>
+        <v>1081.06043517701</v>
       </c>
       <c r="I55" s="69" t="n">
         <f aca="false">$G55-$H55</f>
-        <v>1228.48819538588</v>
+        <v>1228.93635463713</v>
       </c>
       <c r="J55" s="60" t="n">
         <f aca="false">H55/3500</f>
-        <v>0.309088313760353</v>
+        <v>0.308874410050576</v>
       </c>
       <c r="K55" s="69" t="n">
         <f aca="false">N55/9</f>
-        <v>74.0015047416066</v>
+        <v>74.0513002139673</v>
       </c>
       <c r="L55" s="69" t="n">
         <v>20</v>
@@ -7651,7 +7652,7 @@
       </c>
       <c r="N55" s="69" t="n">
         <f aca="false">MAX(0,I55-(O55+P55))</f>
-        <v>666.013542674459</v>
+        <v>666.461701925706</v>
       </c>
       <c r="O55" s="69" t="n">
         <f aca="false">4*L55</f>
@@ -7663,7 +7664,7 @@
       </c>
       <c r="Q55" s="70" t="n">
         <f aca="false">SUM(N55:P55)</f>
-        <v>1228.48819538588</v>
+        <v>1228.93635463713</v>
       </c>
       <c r="S55" s="79"/>
       <c r="T55" s="76"/>
@@ -7675,7 +7676,7 @@
       <c r="Z55" s="80"/>
       <c r="AA55" s="71" t="n">
         <f aca="false">($H55-Z55)/3500</f>
-        <v>0.309088313760353</v>
+        <v>0.308874410050576</v>
       </c>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
@@ -7694,7 +7695,7 @@
       </c>
       <c r="C56" s="69" t="n">
         <f aca="false">C55-AA55</f>
-        <v>185.36130834118</v>
+        <v>185.337371826044</v>
       </c>
       <c r="D56" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7702,28 +7703,28 @@
       </c>
       <c r="E56" s="70" t="n">
         <f aca="false">C56-D56</f>
-        <v>34.5879793688601</v>
+        <v>34.5640428537241</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="71" t="n">
         <f aca="false">C56*TDEE!$B$5</f>
-        <v>2306.45130674678</v>
+        <v>2306.1534646183</v>
       </c>
       <c r="H56" s="69" t="n">
         <f aca="false">$E56*31</f>
-        <v>1072.22736043466</v>
+        <v>1071.48532846545</v>
       </c>
       <c r="I56" s="69" t="n">
         <f aca="false">$G56-$H56</f>
-        <v>1234.22394631212</v>
+        <v>1234.66813615285</v>
       </c>
       <c r="J56" s="60" t="n">
         <f aca="false">H56/3500</f>
-        <v>0.306350674409904</v>
+        <v>0.306138665275842</v>
       </c>
       <c r="K56" s="69" t="n">
         <f aca="false">N56/9</f>
-        <v>74.6388104000774</v>
+        <v>74.6881648268258</v>
       </c>
       <c r="L56" s="69" t="n">
         <v>20</v>
@@ -7734,7 +7735,7 @@
       </c>
       <c r="N56" s="69" t="n">
         <f aca="false">MAX(0,I56-(O56+P56))</f>
-        <v>671.749293600697</v>
+        <v>672.193483441432</v>
       </c>
       <c r="O56" s="69" t="n">
         <f aca="false">4*L56</f>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="Q56" s="70" t="n">
         <f aca="false">SUM(N56:P56)</f>
-        <v>1234.22394631212</v>
+        <v>1234.66813615285</v>
       </c>
       <c r="S56" s="79"/>
       <c r="T56" s="76"/>
@@ -7758,7 +7759,7 @@
       <c r="Z56" s="80"/>
       <c r="AA56" s="71" t="n">
         <f aca="false">($H56-Z56)/3500</f>
-        <v>0.306350674409904</v>
+        <v>0.306138665275842</v>
       </c>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
@@ -7777,7 +7778,7 @@
       </c>
       <c r="C57" s="69" t="n">
         <f aca="false">C56-AA56</f>
-        <v>185.05495766677</v>
+        <v>185.031233160768</v>
       </c>
       <c r="D57" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7785,28 +7786,28 @@
       </c>
       <c r="E57" s="70" t="n">
         <f aca="false">C57-D57</f>
-        <v>34.2816286944502</v>
+        <v>34.2579041884482</v>
       </c>
       <c r="F57" s="58"/>
       <c r="G57" s="71" t="n">
         <f aca="false">C57*TDEE!$B$5</f>
-        <v>2302.63938440097</v>
+        <v>2302.34418030277</v>
       </c>
       <c r="H57" s="69" t="n">
         <f aca="false">$E57*31</f>
-        <v>1062.73048952796</v>
+        <v>1061.9950298419</v>
       </c>
       <c r="I57" s="69" t="n">
         <f aca="false">$G57-$H57</f>
-        <v>1239.90889487301</v>
+        <v>1240.34915046087</v>
       </c>
       <c r="J57" s="60" t="n">
         <f aca="false">H57/3500</f>
-        <v>0.303637282722273</v>
+        <v>0.303427151383399</v>
       </c>
       <c r="K57" s="69" t="n">
         <f aca="false">N57/9</f>
-        <v>75.2704713512875</v>
+        <v>75.3193886388276</v>
       </c>
       <c r="L57" s="69" t="n">
         <v>20</v>
@@ -7817,7 +7818,7 @@
       </c>
       <c r="N57" s="69" t="n">
         <f aca="false">MAX(0,I57-(O57+P57))</f>
-        <v>677.434242161588</v>
+        <v>677.874497749448</v>
       </c>
       <c r="O57" s="69" t="n">
         <f aca="false">4*L57</f>
@@ -7829,7 +7830,7 @@
       </c>
       <c r="Q57" s="70" t="n">
         <f aca="false">SUM(N57:P57)</f>
-        <v>1239.90889487301</v>
+        <v>1240.34915046087</v>
       </c>
       <c r="S57" s="79"/>
       <c r="T57" s="76"/>
@@ -7841,7 +7842,7 @@
       <c r="Z57" s="80"/>
       <c r="AA57" s="71" t="n">
         <f aca="false">($H57-Z57)/3500</f>
-        <v>0.303637282722273</v>
+        <v>0.303427151383399</v>
       </c>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
@@ -7860,7 +7861,7 @@
       </c>
       <c r="C58" s="69" t="n">
         <f aca="false">C57-AA57</f>
-        <v>184.751320384048</v>
+        <v>184.727806009385</v>
       </c>
       <c r="D58" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7868,28 +7869,28 @@
       </c>
       <c r="E58" s="70" t="n">
         <f aca="false">C58-D58</f>
-        <v>33.9779914117279</v>
+        <v>33.9544770370648</v>
       </c>
       <c r="F58" s="58"/>
       <c r="G58" s="71" t="n">
         <f aca="false">C58*TDEE!$B$5</f>
-        <v>2298.86122479593</v>
+        <v>2298.5686353626</v>
       </c>
       <c r="H58" s="69" t="n">
         <f aca="false">$E58*31</f>
-        <v>1053.31773376357</v>
+        <v>1052.58878814901</v>
       </c>
       <c r="I58" s="69" t="n">
         <f aca="false">$G58-$H58</f>
-        <v>1245.54349103236</v>
+        <v>1245.97984721359</v>
       </c>
       <c r="J58" s="60" t="n">
         <f aca="false">H58/3500</f>
-        <v>0.300947923932447</v>
+        <v>0.30073965375686</v>
       </c>
       <c r="K58" s="69" t="n">
         <f aca="false">N58/9</f>
-        <v>75.8965375912155</v>
+        <v>75.9450216113516</v>
       </c>
       <c r="L58" s="69" t="n">
         <v>20</v>
@@ -7900,7 +7901,7 @@
       </c>
       <c r="N58" s="69" t="n">
         <f aca="false">MAX(0,I58-(O58+P58))</f>
-        <v>683.068838320939</v>
+        <v>683.505194502164</v>
       </c>
       <c r="O58" s="69" t="n">
         <f aca="false">4*L58</f>
@@ -7912,7 +7913,7 @@
       </c>
       <c r="Q58" s="70" t="n">
         <f aca="false">SUM(N58:P58)</f>
-        <v>1245.54349103236</v>
+        <v>1245.97984721359</v>
       </c>
       <c r="S58" s="79"/>
       <c r="T58" s="76"/>
@@ -7924,7 +7925,7 @@
       <c r="Z58" s="80"/>
       <c r="AA58" s="71" t="n">
         <f aca="false">($H58-Z58)/3500</f>
-        <v>0.300947923932447</v>
+        <v>0.30073965375686</v>
       </c>
       <c r="AB58" s="76"/>
       <c r="AC58" s="76"/>
@@ -7943,7 +7944,7 @@
       </c>
       <c r="C59" s="69" t="n">
         <f aca="false">C58-AA58</f>
-        <v>184.450372460115</v>
+        <v>184.427066355628</v>
       </c>
       <c r="D59" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -7951,28 +7952,28 @@
       </c>
       <c r="E59" s="70" t="n">
         <f aca="false">C59-D59</f>
-        <v>33.6770434877955</v>
+        <v>33.653737383308</v>
       </c>
       <c r="F59" s="58"/>
       <c r="G59" s="71" t="n">
         <f aca="false">C59*TDEE!$B$5</f>
-        <v>2295.11652889025</v>
+        <v>2294.82653096333</v>
       </c>
       <c r="H59" s="69" t="n">
         <f aca="false">$E59*31</f>
-        <v>1043.98834812166</v>
+        <v>1043.26585888255</v>
       </c>
       <c r="I59" s="69" t="n">
         <f aca="false">$G59-$H59</f>
-        <v>1251.12818076859</v>
+        <v>1251.56067208078</v>
       </c>
       <c r="J59" s="60" t="n">
         <f aca="false">H59/3500</f>
-        <v>0.298282385177617</v>
+        <v>0.298075959680728</v>
       </c>
       <c r="K59" s="69" t="n">
         <f aca="false">N59/9</f>
-        <v>76.5170586730183</v>
+        <v>76.5651132632618</v>
       </c>
       <c r="L59" s="69" t="n">
         <v>20</v>
@@ -7983,7 +7984,7 @@
       </c>
       <c r="N59" s="69" t="n">
         <f aca="false">MAX(0,I59-(O59+P59))</f>
-        <v>688.653528057165</v>
+        <v>689.086019369356</v>
       </c>
       <c r="O59" s="69" t="n">
         <f aca="false">4*L59</f>
@@ -7995,7 +7996,7 @@
       </c>
       <c r="Q59" s="70" t="n">
         <f aca="false">SUM(N59:P59)</f>
-        <v>1251.12818076859</v>
+        <v>1251.56067208078</v>
       </c>
       <c r="S59" s="79"/>
       <c r="T59" s="76"/>
@@ -8007,7 +8008,7 @@
       <c r="Z59" s="80"/>
       <c r="AA59" s="71" t="n">
         <f aca="false">($H59-Z59)/3500</f>
-        <v>0.298282385177617</v>
+        <v>0.298075959680728</v>
       </c>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
@@ -8026,7 +8027,7 @@
       </c>
       <c r="C60" s="69" t="n">
         <f aca="false">C59-AA59</f>
-        <v>184.152090074938</v>
+        <v>184.128990395947</v>
       </c>
       <c r="D60" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8034,28 +8035,28 @@
       </c>
       <c r="E60" s="70" t="n">
         <f aca="false">C60-D60</f>
-        <v>33.3787611026179</v>
+        <v>33.3556614236273</v>
       </c>
       <c r="F60" s="58"/>
       <c r="G60" s="71" t="n">
         <f aca="false">C60*TDEE!$B$5</f>
-        <v>2291.40500029116</v>
+        <v>2291.11757091731</v>
       </c>
       <c r="H60" s="69" t="n">
         <f aca="false">$E60*31</f>
-        <v>1034.74159418115</v>
+        <v>1034.02550413244</v>
       </c>
       <c r="I60" s="69" t="n">
         <f aca="false">$G60-$H60</f>
-        <v>1256.66340611001</v>
+        <v>1257.09206678486</v>
       </c>
       <c r="J60" s="60" t="n">
         <f aca="false">H60/3500</f>
-        <v>0.29564045548033</v>
+        <v>0.295435858323556</v>
       </c>
       <c r="K60" s="69" t="n">
         <f aca="false">N60/9</f>
-        <v>77.1320837109538</v>
+        <v>77.1797126748265</v>
       </c>
       <c r="L60" s="69" t="n">
         <v>20</v>
@@ -8066,7 +8067,7 @@
       </c>
       <c r="N60" s="69" t="n">
         <f aca="false">MAX(0,I60-(O60+P60))</f>
-        <v>694.188753398584</v>
+        <v>694.617414073438</v>
       </c>
       <c r="O60" s="69" t="n">
         <f aca="false">4*L60</f>
@@ -8078,7 +8079,7 @@
       </c>
       <c r="Q60" s="70" t="n">
         <f aca="false">SUM(N60:P60)</f>
-        <v>1256.66340611001</v>
+        <v>1257.09206678486</v>
       </c>
       <c r="S60" s="79"/>
       <c r="T60" s="76"/>
@@ -8090,7 +8091,7 @@
       <c r="Z60" s="80"/>
       <c r="AA60" s="71" t="n">
         <f aca="false">($H60-Z60)/3500</f>
-        <v>0.29564045548033</v>
+        <v>0.295435858323556</v>
       </c>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
@@ -8109,7 +8110,7 @@
       </c>
       <c r="C61" s="69" t="n">
         <f aca="false">C60-AA60</f>
-        <v>183.856449619458</v>
+        <v>183.833554537624</v>
       </c>
       <c r="D61" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8117,28 +8118,28 @@
       </c>
       <c r="E61" s="70" t="n">
         <f aca="false">C61-D61</f>
-        <v>33.0831206471375</v>
+        <v>33.0602255653037</v>
       </c>
       <c r="F61" s="58"/>
       <c r="G61" s="71" t="n">
         <f aca="false">C61*TDEE!$B$5</f>
-        <v>2287.72634523109</v>
+        <v>2287.44146166026</v>
       </c>
       <c r="H61" s="69" t="n">
         <f aca="false">$E61*31</f>
-        <v>1025.57674006126</v>
+        <v>1024.86699252442</v>
       </c>
       <c r="I61" s="69" t="n">
         <f aca="false">$G61-$H61</f>
-        <v>1262.14960516983</v>
+        <v>1262.57446913585</v>
       </c>
       <c r="J61" s="60" t="n">
         <f aca="false">H61/3500</f>
-        <v>0.293021925731789</v>
+        <v>0.292819140721261</v>
       </c>
       <c r="K61" s="69" t="n">
         <f aca="false">N61/9</f>
-        <v>77.7416613842676</v>
+        <v>77.7888684916031</v>
       </c>
       <c r="L61" s="69" t="n">
         <v>20</v>
@@ -8149,7 +8150,7 @@
       </c>
       <c r="N61" s="69" t="n">
         <f aca="false">MAX(0,I61-(O61+P61))</f>
-        <v>699.674952458408</v>
+        <v>700.099816424428</v>
       </c>
       <c r="O61" s="69" t="n">
         <f aca="false">4*L61</f>
@@ -8161,7 +8162,7 @@
       </c>
       <c r="Q61" s="70" t="n">
         <f aca="false">SUM(N61:P61)</f>
-        <v>1262.14960516983</v>
+        <v>1262.57446913585</v>
       </c>
       <c r="S61" s="79"/>
       <c r="T61" s="76"/>
@@ -8173,7 +8174,7 @@
       <c r="Z61" s="80"/>
       <c r="AA61" s="71" t="n">
         <f aca="false">($H61-Z61)/3500</f>
-        <v>0.293021925731789</v>
+        <v>0.292819140721261</v>
       </c>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
@@ -8192,7 +8193,7 @@
       </c>
       <c r="C62" s="69" t="n">
         <f aca="false">C61-AA61</f>
-        <v>183.563427693726</v>
+        <v>183.540735396902</v>
       </c>
       <c r="D62" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8200,28 +8201,28 @@
       </c>
       <c r="E62" s="70" t="n">
         <f aca="false">C62-D62</f>
-        <v>32.7900987214057</v>
+        <v>32.7674064245824</v>
       </c>
       <c r="F62" s="58"/>
       <c r="G62" s="71" t="n">
         <f aca="false">C62*TDEE!$B$5</f>
-        <v>2284.08027254442</v>
+        <v>2283.79791222807</v>
       </c>
       <c r="H62" s="69" t="n">
         <f aca="false">$E62*31</f>
-        <v>1016.49306036358</v>
+        <v>1015.78959916206</v>
       </c>
       <c r="I62" s="69" t="n">
         <f aca="false">$G62-$H62</f>
-        <v>1267.58721218084</v>
+        <v>1268.00831306602</v>
       </c>
       <c r="J62" s="60" t="n">
         <f aca="false">H62/3500</f>
-        <v>0.290426588675308</v>
+        <v>0.290225599760587</v>
       </c>
       <c r="K62" s="69" t="n">
         <f aca="false">N62/9</f>
-        <v>78.3458399410462</v>
+        <v>78.3926289282882</v>
       </c>
       <c r="L62" s="69" t="n">
         <v>20</v>
@@ -8232,7 +8233,7 @@
       </c>
       <c r="N62" s="69" t="n">
         <f aca="false">MAX(0,I62-(O62+P62))</f>
-        <v>705.112559469416</v>
+        <v>705.533660354594</v>
       </c>
       <c r="O62" s="69" t="n">
         <f aca="false">4*L62</f>
@@ -8244,7 +8245,7 @@
       </c>
       <c r="Q62" s="70" t="n">
         <f aca="false">SUM(N62:P62)</f>
-        <v>1267.58721218084</v>
+        <v>1268.00831306602</v>
       </c>
       <c r="S62" s="79"/>
       <c r="T62" s="76"/>
@@ -8256,7 +8257,7 @@
       <c r="Z62" s="80"/>
       <c r="AA62" s="71" t="n">
         <f aca="false">($H62-Z62)/3500</f>
-        <v>0.290426588675308</v>
+        <v>0.290225599760587</v>
       </c>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
@@ -8275,7 +8276,7 @@
       </c>
       <c r="C63" s="69" t="n">
         <f aca="false">C62-AA62</f>
-        <v>183.27300110505</v>
+        <v>183.250509797142</v>
       </c>
       <c r="D63" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8283,28 +8284,28 @@
       </c>
       <c r="E63" s="70" t="n">
         <f aca="false">C63-D63</f>
-        <v>32.4996721327304</v>
+        <v>32.4771808248219</v>
       </c>
       <c r="F63" s="58"/>
       <c r="G63" s="71" t="n">
         <f aca="false">C63*TDEE!$B$5</f>
-        <v>2280.46649364439</v>
+        <v>2280.18663423371</v>
       </c>
       <c r="H63" s="69" t="n">
         <f aca="false">$E63*31</f>
-        <v>1007.48983611464</v>
+        <v>1006.79260556948</v>
       </c>
       <c r="I63" s="69" t="n">
         <f aca="false">$G63-$H63</f>
-        <v>1272.97665752975</v>
+        <v>1273.39402866423</v>
       </c>
       <c r="J63" s="60" t="n">
         <f aca="false">H63/3500</f>
-        <v>0.287854238889898</v>
+        <v>0.287655030162708</v>
       </c>
       <c r="K63" s="69" t="n">
         <f aca="false">N63/9</f>
-        <v>78.9446672020363</v>
+        <v>78.9910417725342</v>
       </c>
       <c r="L63" s="69" t="n">
         <v>20</v>
@@ -8315,7 +8316,7 @@
       </c>
       <c r="N63" s="69" t="n">
         <f aca="false">MAX(0,I63-(O63+P63))</f>
-        <v>710.502004818327</v>
+        <v>710.919375952808</v>
       </c>
       <c r="O63" s="69" t="n">
         <f aca="false">4*L63</f>
@@ -8327,7 +8328,7 @@
       </c>
       <c r="Q63" s="70" t="n">
         <f aca="false">SUM(N63:P63)</f>
-        <v>1272.97665752975</v>
+        <v>1273.39402866423</v>
       </c>
       <c r="S63" s="79"/>
       <c r="T63" s="76"/>
@@ -8339,7 +8340,7 @@
       <c r="Z63" s="80"/>
       <c r="AA63" s="71" t="n">
         <f aca="false">($H63-Z63)/3500</f>
-        <v>0.287854238889898</v>
+        <v>0.287655030162708</v>
       </c>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
@@ -8358,7 +8359,7 @@
       </c>
       <c r="C64" s="69" t="n">
         <f aca="false">C63-AA63</f>
-        <v>182.985146866161</v>
+        <v>182.962854766979</v>
       </c>
       <c r="D64" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8366,28 +8367,28 @@
       </c>
       <c r="E64" s="70" t="n">
         <f aca="false">C64-D64</f>
-        <v>32.2118178938405</v>
+        <v>32.1895257946591</v>
       </c>
       <c r="F64" s="58"/>
       <c r="G64" s="71" t="n">
         <f aca="false">C64*TDEE!$B$5</f>
-        <v>2276.88472250034</v>
+        <v>2276.60734184444</v>
       </c>
       <c r="H64" s="69" t="n">
         <f aca="false">$E64*31</f>
-        <v>998.566354709056</v>
+        <v>997.875299634434</v>
       </c>
       <c r="I64" s="69" t="n">
         <f aca="false">$G64-$H64</f>
-        <v>1278.31836779128</v>
+        <v>1278.73204221</v>
       </c>
       <c r="J64" s="60" t="n">
         <f aca="false">H64/3500</f>
-        <v>0.285304672774016</v>
+        <v>0.285107228466981</v>
       </c>
       <c r="K64" s="69" t="n">
         <f aca="false">N64/9</f>
-        <v>79.5381905644291</v>
+        <v>79.5841543887311</v>
       </c>
       <c r="L64" s="69" t="n">
         <v>20</v>
@@ -8398,7 +8399,7 @@
       </c>
       <c r="N64" s="69" t="n">
         <f aca="false">MAX(0,I64-(O64+P64))</f>
-        <v>715.843715079862</v>
+        <v>716.25738949858</v>
       </c>
       <c r="O64" s="69" t="n">
         <f aca="false">4*L64</f>
@@ -8410,7 +8411,7 @@
       </c>
       <c r="Q64" s="70" t="n">
         <f aca="false">SUM(N64:P64)</f>
-        <v>1278.31836779128</v>
+        <v>1278.73204221</v>
       </c>
       <c r="S64" s="79"/>
       <c r="T64" s="76"/>
@@ -8422,7 +8423,7 @@
       <c r="Z64" s="80"/>
       <c r="AA64" s="71" t="n">
         <f aca="false">($H64-Z64)/3500</f>
-        <v>0.285304672774016</v>
+        <v>0.285107228466981</v>
       </c>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
@@ -8441,7 +8442,7 @@
       </c>
       <c r="C65" s="69" t="n">
         <f aca="false">C64-AA64</f>
-        <v>182.699842193387</v>
+        <v>182.677747538512</v>
       </c>
       <c r="D65" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8449,28 +8450,28 @@
       </c>
       <c r="E65" s="70" t="n">
         <f aca="false">C65-D65</f>
-        <v>31.9265132210665</v>
+        <v>31.9044185661922</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="71" t="n">
         <f aca="false">C65*TDEE!$B$5</f>
-        <v>2273.33467561499</v>
+        <v>2273.05975175918</v>
       </c>
       <c r="H65" s="69" t="n">
         <f aca="false">$E65*31</f>
-        <v>989.721909853062</v>
+        <v>989.036975551957</v>
       </c>
       <c r="I65" s="69" t="n">
         <f aca="false">$G65-$H65</f>
-        <v>1283.61276576193</v>
+        <v>1284.02277620723</v>
       </c>
       <c r="J65" s="60" t="n">
         <f aca="false">H65/3500</f>
-        <v>0.282777688529446</v>
+        <v>0.282581993014845</v>
       </c>
       <c r="K65" s="69" t="n">
         <f aca="false">N65/9</f>
-        <v>80.126457005612</v>
+        <v>80.172013721756</v>
       </c>
       <c r="L65" s="69" t="n">
         <v>20</v>
@@ -8481,7 +8482,7 @@
       </c>
       <c r="N65" s="69" t="n">
         <f aca="false">MAX(0,I65-(O65+P65))</f>
-        <v>721.138113050508</v>
+        <v>721.548123495804</v>
       </c>
       <c r="O65" s="69" t="n">
         <f aca="false">4*L65</f>
@@ -8493,7 +8494,7 @@
       </c>
       <c r="Q65" s="70" t="n">
         <f aca="false">SUM(N65:P65)</f>
-        <v>1283.61276576193</v>
+        <v>1284.02277620723</v>
       </c>
       <c r="S65" s="79"/>
       <c r="T65" s="76"/>
@@ -8505,7 +8506,7 @@
       <c r="Z65" s="80"/>
       <c r="AA65" s="71" t="n">
         <f aca="false">($H65-Z65)/3500</f>
-        <v>0.282777688529446</v>
+        <v>0.282581993014845</v>
       </c>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
@@ -8524,7 +8525,7 @@
       </c>
       <c r="C66" s="69" t="n">
         <f aca="false">C65-AA65</f>
-        <v>182.417064504857</v>
+        <v>182.395165545497</v>
       </c>
       <c r="D66" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8532,28 +8533,28 @@
       </c>
       <c r="E66" s="70" t="n">
         <f aca="false">C66-D66</f>
-        <v>31.6437355325371</v>
+        <v>31.6218365731773</v>
       </c>
       <c r="F66" s="58"/>
       <c r="G66" s="71" t="n">
         <f aca="false">C66*TDEE!$B$5</f>
-        <v>2269.81607200206</v>
+        <v>2269.54358318611</v>
       </c>
       <c r="H66" s="69" t="n">
         <f aca="false">$E66*31</f>
-        <v>980.95580150865</v>
+        <v>980.276933768497</v>
       </c>
       <c r="I66" s="69" t="n">
         <f aca="false">$G66-$H66</f>
-        <v>1288.86027049341</v>
+        <v>1289.26664941762</v>
       </c>
       <c r="J66" s="60" t="n">
         <f aca="false">H66/3500</f>
-        <v>0.280273086145328</v>
+        <v>0.280079123933856</v>
       </c>
       <c r="K66" s="69" t="n">
         <f aca="false">N66/9</f>
-        <v>80.7095130868873</v>
+        <v>80.7546663006883</v>
       </c>
       <c r="L66" s="69" t="n">
         <v>20</v>
@@ -8564,7 +8565,7 @@
       </c>
       <c r="N66" s="69" t="n">
         <f aca="false">MAX(0,I66-(O66+P66))</f>
-        <v>726.385617781986</v>
+        <v>726.791996706195</v>
       </c>
       <c r="O66" s="69" t="n">
         <f aca="false">4*L66</f>
@@ -8576,7 +8577,7 @@
       </c>
       <c r="Q66" s="70" t="n">
         <f aca="false">SUM(N66:P66)</f>
-        <v>1288.86027049341</v>
+        <v>1289.26664941762</v>
       </c>
       <c r="S66" s="79"/>
       <c r="T66" s="76"/>
@@ -8588,7 +8589,7 @@
       <c r="Z66" s="80"/>
       <c r="AA66" s="71" t="n">
         <f aca="false">($H66-Z66)/3500</f>
-        <v>0.280273086145328</v>
+        <v>0.280079123933856</v>
       </c>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
@@ -8607,7 +8608,7 @@
       </c>
       <c r="C67" s="69" t="n">
         <f aca="false">C66-AA66</f>
-        <v>182.136791418712</v>
+        <v>182.115086421563</v>
       </c>
       <c r="D67" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8615,28 +8616,28 @@
       </c>
       <c r="E67" s="70" t="n">
         <f aca="false">C67-D67</f>
-        <v>31.3634624463918</v>
+        <v>31.3417574492435</v>
       </c>
       <c r="F67" s="58"/>
       <c r="G67" s="71" t="n">
         <f aca="false">C67*TDEE!$B$5</f>
-        <v>2266.32863316398</v>
+        <v>2266.05855782041</v>
       </c>
       <c r="H67" s="69" t="n">
         <f aca="false">$E67*31</f>
-        <v>972.267335838145</v>
+        <v>971.594480926547</v>
       </c>
       <c r="I67" s="69" t="n">
         <f aca="false">$G67-$H67</f>
-        <v>1294.06129732584</v>
+        <v>1294.46407689386</v>
       </c>
       <c r="J67" s="60" t="n">
         <f aca="false">H67/3500</f>
-        <v>0.277790667382327</v>
+        <v>0.277598423121871</v>
       </c>
       <c r="K67" s="69" t="n">
         <f aca="false">N67/9</f>
-        <v>81.2874049571571</v>
+        <v>81.332158242493</v>
       </c>
       <c r="L67" s="69" t="n">
         <v>20</v>
@@ -8647,7 +8648,7 @@
       </c>
       <c r="N67" s="69" t="n">
         <f aca="false">MAX(0,I67-(O67+P67))</f>
-        <v>731.586644614414</v>
+        <v>731.989424182437</v>
       </c>
       <c r="O67" s="69" t="n">
         <f aca="false">4*L67</f>
@@ -8659,7 +8660,7 @@
       </c>
       <c r="Q67" s="70" t="n">
         <f aca="false">SUM(N67:P67)</f>
-        <v>1294.06129732584</v>
+        <v>1294.46407689386</v>
       </c>
       <c r="S67" s="79"/>
       <c r="T67" s="76"/>
@@ -8671,7 +8672,7 @@
       <c r="Z67" s="80"/>
       <c r="AA67" s="71" t="n">
         <f aca="false">($H67-Z67)/3500</f>
-        <v>0.277790667382327</v>
+        <v>0.277598423121871</v>
       </c>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
@@ -8690,7 +8691,7 @@
       </c>
       <c r="C68" s="69" t="n">
         <f aca="false">C67-AA67</f>
-        <v>181.859000751329</v>
+        <v>181.837487998442</v>
       </c>
       <c r="D68" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8698,28 +8699,28 @@
       </c>
       <c r="E68" s="70" t="n">
         <f aca="false">C68-D68</f>
-        <v>31.0856717790094</v>
+        <v>31.0641590261216</v>
       </c>
       <c r="F68" s="58"/>
       <c r="G68" s="71" t="n">
         <f aca="false">C68*TDEE!$B$5</f>
-        <v>2262.8720830699</v>
+        <v>2262.60439982222</v>
       </c>
       <c r="H68" s="69" t="n">
         <f aca="false">$E68*31</f>
-        <v>963.655825149292</v>
+        <v>962.988929809769</v>
       </c>
       <c r="I68" s="69" t="n">
         <f aca="false">$G68-$H68</f>
-        <v>1299.21625792061</v>
+        <v>1299.61547001245</v>
       </c>
       <c r="J68" s="60" t="n">
         <f aca="false">H68/3500</f>
-        <v>0.275330235756941</v>
+        <v>0.275139694231363</v>
       </c>
       <c r="K68" s="69" t="n">
         <f aca="false">N68/9</f>
-        <v>81.8601783565759</v>
+        <v>81.9045352556703</v>
       </c>
       <c r="L68" s="69" t="n">
         <v>20</v>
@@ -8730,7 +8731,7 @@
       </c>
       <c r="N68" s="69" t="n">
         <f aca="false">MAX(0,I68-(O68+P68))</f>
-        <v>736.741605209183</v>
+        <v>737.140817301032</v>
       </c>
       <c r="O68" s="69" t="n">
         <f aca="false">4*L68</f>
@@ -8742,7 +8743,7 @@
       </c>
       <c r="Q68" s="70" t="n">
         <f aca="false">SUM(N68:P68)</f>
-        <v>1299.21625792061</v>
+        <v>1299.61547001245</v>
       </c>
       <c r="S68" s="79"/>
       <c r="T68" s="76"/>
@@ -8754,7 +8755,7 @@
       <c r="Z68" s="80"/>
       <c r="AA68" s="71" t="n">
         <f aca="false">($H68-Z68)/3500</f>
-        <v>0.275330235756941</v>
+        <v>0.275139694231363</v>
       </c>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
@@ -8773,7 +8774,7 @@
       </c>
       <c r="C69" s="69" t="n">
         <f aca="false">C68-AA68</f>
-        <v>181.583670515573</v>
+        <v>181.56234830421</v>
       </c>
       <c r="D69" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8781,28 +8782,28 @@
       </c>
       <c r="E69" s="70" t="n">
         <f aca="false">C69-D69</f>
-        <v>30.8103415432525</v>
+        <v>30.7890193318902</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="71" t="n">
         <f aca="false">C69*TDEE!$B$5</f>
-        <v>2259.44614813379</v>
+        <v>2259.18083579488</v>
       </c>
       <c r="H69" s="69" t="n">
         <f aca="false">$E69*31</f>
-        <v>955.120587840827</v>
+        <v>954.459599288597</v>
       </c>
       <c r="I69" s="69" t="n">
         <f aca="false">$G69-$H69</f>
-        <v>1304.32556029296</v>
+        <v>1304.72123650629</v>
       </c>
       <c r="J69" s="60" t="n">
         <f aca="false">H69/3500</f>
-        <v>0.272891596525951</v>
+        <v>0.272702742653885</v>
       </c>
       <c r="K69" s="69" t="n">
         <f aca="false">N69/9</f>
-        <v>82.4278786201713</v>
+        <v>82.4718426438737</v>
       </c>
       <c r="L69" s="69" t="n">
         <v>20</v>
@@ -8813,7 +8814,7 @@
       </c>
       <c r="N69" s="69" t="n">
         <f aca="false">MAX(0,I69-(O69+P69))</f>
-        <v>741.850907581541</v>
+        <v>742.246583794863</v>
       </c>
       <c r="O69" s="69" t="n">
         <f aca="false">4*L69</f>
@@ -8825,7 +8826,7 @@
       </c>
       <c r="Q69" s="70" t="n">
         <f aca="false">SUM(N69:P69)</f>
-        <v>1304.32556029296</v>
+        <v>1304.72123650629</v>
       </c>
       <c r="S69" s="79"/>
       <c r="T69" s="76"/>
@@ -8837,7 +8838,7 @@
       <c r="Z69" s="80"/>
       <c r="AA69" s="71" t="n">
         <f aca="false">($H69-Z69)/3500</f>
-        <v>0.272891596525951</v>
+        <v>0.272702742653885</v>
       </c>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="C70" s="69" t="n">
         <f aca="false">C69-AA69</f>
-        <v>181.310778919047</v>
+        <v>181.289645561556</v>
       </c>
       <c r="D70" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8864,28 +8865,28 @@
       </c>
       <c r="E70" s="70" t="n">
         <f aca="false">C70-D70</f>
-        <v>30.5374499467266</v>
+        <v>30.5163165892363</v>
       </c>
       <c r="F70" s="58"/>
       <c r="G70" s="71" t="n">
         <f aca="false">C70*TDEE!$B$5</f>
-        <v>2256.05055719283</v>
+        <v>2255.78759476321</v>
       </c>
       <c r="H70" s="69" t="n">
         <f aca="false">$E70*31</f>
-        <v>946.660948348523</v>
+        <v>946.005814266326</v>
       </c>
       <c r="I70" s="69" t="n">
         <f aca="false">$G70-$H70</f>
-        <v>1309.38960884431</v>
+        <v>1309.78178049688</v>
       </c>
       <c r="J70" s="60" t="n">
         <f aca="false">H70/3500</f>
-        <v>0.270474556671007</v>
+        <v>0.270287375504665</v>
       </c>
       <c r="K70" s="69" t="n">
         <f aca="false">N70/9</f>
-        <v>82.9905506814319</v>
+        <v>83.0341253094958</v>
       </c>
       <c r="L70" s="69" t="n">
         <v>20</v>
@@ -8896,7 +8897,7 @@
       </c>
       <c r="N70" s="69" t="n">
         <f aca="false">MAX(0,I70-(O70+P70))</f>
-        <v>746.914956132887</v>
+        <v>747.307127785463</v>
       </c>
       <c r="O70" s="69" t="n">
         <f aca="false">4*L70</f>
@@ -8908,7 +8909,7 @@
       </c>
       <c r="Q70" s="70" t="n">
         <f aca="false">SUM(N70:P70)</f>
-        <v>1309.38960884431</v>
+        <v>1309.78178049688</v>
       </c>
       <c r="S70" s="79"/>
       <c r="T70" s="76"/>
@@ -8920,7 +8921,7 @@
       <c r="Z70" s="80"/>
       <c r="AA70" s="71" t="n">
         <f aca="false">($H70-Z70)/3500</f>
-        <v>0.270474556671007</v>
+        <v>0.270287375504665</v>
       </c>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
@@ -8939,7 +8940,7 @@
       </c>
       <c r="C71" s="69" t="n">
         <f aca="false">C70-AA70</f>
-        <v>181.040304362376</v>
+        <v>181.019358186052</v>
       </c>
       <c r="D71" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -8947,28 +8948,28 @@
       </c>
       <c r="E71" s="70" t="n">
         <f aca="false">C71-D71</f>
-        <v>30.2669753900555</v>
+        <v>30.2460292137317</v>
       </c>
       <c r="F71" s="58"/>
       <c r="G71" s="71" t="n">
         <f aca="false">C71*TDEE!$B$5</f>
-        <v>2252.68504148592</v>
+        <v>2252.42440815211</v>
       </c>
       <c r="H71" s="69" t="n">
         <f aca="false">$E71*31</f>
-        <v>938.276237091722</v>
+        <v>937.626905625682</v>
       </c>
       <c r="I71" s="69" t="n">
         <f aca="false">$G71-$H71</f>
-        <v>1314.4088043942</v>
+        <v>1314.79750252642</v>
       </c>
       <c r="J71" s="60" t="n">
         <f aca="false">H71/3500</f>
-        <v>0.268078924883349</v>
+        <v>0.267893401607338</v>
       </c>
       <c r="K71" s="69" t="n">
         <f aca="false">N71/9</f>
-        <v>83.5482390758643</v>
+        <v>83.5914277572225</v>
       </c>
       <c r="L71" s="69" t="n">
         <v>20</v>
@@ -8979,7 +8980,7 @@
       </c>
       <c r="N71" s="69" t="n">
         <f aca="false">MAX(0,I71-(O71+P71))</f>
-        <v>751.934151682779</v>
+        <v>752.322849815003</v>
       </c>
       <c r="O71" s="69" t="n">
         <f aca="false">4*L71</f>
@@ -8991,7 +8992,7 @@
       </c>
       <c r="Q71" s="70" t="n">
         <f aca="false">SUM(N71:P71)</f>
-        <v>1314.4088043942</v>
+        <v>1314.79750252642</v>
       </c>
       <c r="S71" s="79"/>
       <c r="T71" s="76"/>
@@ -9003,7 +9004,7 @@
       <c r="Z71" s="80"/>
       <c r="AA71" s="71" t="n">
         <f aca="false">($H71-Z71)/3500</f>
-        <v>0.268078924883349</v>
+        <v>0.267893401607338</v>
       </c>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
@@ -9022,7 +9023,7 @@
       </c>
       <c r="C72" s="69" t="n">
         <f aca="false">C71-AA71</f>
-        <v>180.772225437492</v>
+        <v>180.751464784444</v>
       </c>
       <c r="D72" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9030,28 +9031,28 @@
       </c>
       <c r="E72" s="70" t="n">
         <f aca="false">C72-D72</f>
-        <v>29.9988964651722</v>
+        <v>29.9781358121243</v>
       </c>
       <c r="F72" s="58"/>
       <c r="G72" s="71" t="n">
         <f aca="false">C72*TDEE!$B$5</f>
-        <v>2249.34933463242</v>
+        <v>2249.09100976527</v>
       </c>
       <c r="H72" s="69" t="n">
         <f aca="false">$E72*31</f>
-        <v>929.965790420338</v>
+        <v>929.322210175855</v>
       </c>
       <c r="I72" s="69" t="n">
         <f aca="false">$G72-$H72</f>
-        <v>1319.38354421208</v>
+        <v>1319.76879958942</v>
       </c>
       <c r="J72" s="60" t="n">
         <f aca="false">H72/3500</f>
-        <v>0.265704511548668</v>
+        <v>0.265520631478816</v>
       </c>
       <c r="K72" s="69" t="n">
         <f aca="false">N72/9</f>
-        <v>84.1009879445175</v>
+        <v>84.143794097555</v>
       </c>
       <c r="L72" s="69" t="n">
         <v>20</v>
@@ -9062,7 +9063,7 @@
       </c>
       <c r="N72" s="69" t="n">
         <f aca="false">MAX(0,I72-(O72+P72))</f>
-        <v>756.908891500657</v>
+        <v>757.294146877995</v>
       </c>
       <c r="O72" s="69" t="n">
         <f aca="false">4*L72</f>
@@ -9074,7 +9075,7 @@
       </c>
       <c r="Q72" s="70" t="n">
         <f aca="false">SUM(N72:P72)</f>
-        <v>1319.38354421208</v>
+        <v>1319.76879958942</v>
       </c>
       <c r="S72" s="79"/>
       <c r="T72" s="76"/>
@@ -9086,7 +9087,7 @@
       <c r="Z72" s="80"/>
       <c r="AA72" s="71" t="n">
         <f aca="false">($H72-Z72)/3500</f>
-        <v>0.265704511548668</v>
+        <v>0.265520631478816</v>
       </c>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
@@ -9105,7 +9106,7 @@
       </c>
       <c r="C73" s="69" t="n">
         <f aca="false">C72-AA72</f>
-        <v>180.506520925944</v>
+        <v>180.485944152966</v>
       </c>
       <c r="D73" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9113,28 +9114,28 @@
       </c>
       <c r="E73" s="70" t="n">
         <f aca="false">C73-D73</f>
-        <v>29.7331919536235</v>
+        <v>29.7126151806455</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="71" t="n">
         <f aca="false">C73*TDEE!$B$5</f>
-        <v>2246.04317261104</v>
+        <v>2245.78713576415</v>
       </c>
       <c r="H73" s="69" t="n">
         <f aca="false">$E73*31</f>
-        <v>921.728950562329</v>
+        <v>921.091070600012</v>
       </c>
       <c r="I73" s="69" t="n">
         <f aca="false">$G73-$H73</f>
-        <v>1324.31422204871</v>
+        <v>1324.69606516414</v>
       </c>
       <c r="J73" s="60" t="n">
         <f aca="false">H73/3500</f>
-        <v>0.263351128732094</v>
+        <v>0.263168877314289</v>
       </c>
       <c r="K73" s="69" t="n">
         <f aca="false">N73/9</f>
-        <v>84.6488410374768</v>
+        <v>84.6912680503017</v>
       </c>
       <c r="L73" s="69" t="n">
         <v>20</v>
@@ -9145,7 +9146,7 @@
       </c>
       <c r="N73" s="69" t="n">
         <f aca="false">MAX(0,I73-(O73+P73))</f>
-        <v>761.839569337291</v>
+        <v>762.221412452715</v>
       </c>
       <c r="O73" s="69" t="n">
         <f aca="false">4*L73</f>
@@ -9157,7 +9158,7 @@
       </c>
       <c r="Q73" s="70" t="n">
         <f aca="false">SUM(N73:P73)</f>
-        <v>1324.31422204871</v>
+        <v>1324.69606516414</v>
       </c>
       <c r="S73" s="79"/>
       <c r="T73" s="76"/>
@@ -9169,7 +9170,7 @@
       <c r="Z73" s="80"/>
       <c r="AA73" s="71" t="n">
         <f aca="false">($H73-Z73)/3500</f>
-        <v>0.263351128732094</v>
+        <v>0.263168877314289</v>
       </c>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
@@ -9188,7 +9189,7 @@
       </c>
       <c r="C74" s="69" t="n">
         <f aca="false">C73-AA73</f>
-        <v>180.243169797211</v>
+        <v>180.222775275651</v>
       </c>
       <c r="D74" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9196,28 +9197,28 @@
       </c>
       <c r="E74" s="70" t="n">
         <f aca="false">C74-D74</f>
-        <v>29.4698408248914</v>
+        <v>29.4494463033313</v>
       </c>
       <c r="F74" s="58"/>
       <c r="G74" s="71" t="n">
         <f aca="false">C74*TDEE!$B$5</f>
-        <v>2242.766293739</v>
+        <v>2242.51252464704</v>
       </c>
       <c r="H74" s="69" t="n">
         <f aca="false">$E74*31</f>
-        <v>913.565065571634</v>
+        <v>912.932835403269</v>
       </c>
       <c r="I74" s="69" t="n">
         <f aca="false">$G74-$H74</f>
-        <v>1329.20122816737</v>
+        <v>1329.57968924377</v>
       </c>
       <c r="J74" s="60" t="n">
         <f aca="false">H74/3500</f>
-        <v>0.261018590163324</v>
+        <v>0.260837952972363</v>
       </c>
       <c r="K74" s="69" t="n">
         <f aca="false">N74/9</f>
-        <v>85.1918417173271</v>
+        <v>85.2338929480383</v>
       </c>
       <c r="L74" s="69" t="n">
         <v>20</v>
@@ -9228,7 +9229,7 @@
       </c>
       <c r="N74" s="69" t="n">
         <f aca="false">MAX(0,I74-(O74+P74))</f>
-        <v>766.726575455944</v>
+        <v>767.105036532345</v>
       </c>
       <c r="O74" s="69" t="n">
         <f aca="false">4*L74</f>
@@ -9240,7 +9241,7 @@
       </c>
       <c r="Q74" s="70" t="n">
         <f aca="false">SUM(N74:P74)</f>
-        <v>1329.20122816737</v>
+        <v>1329.57968924377</v>
       </c>
       <c r="S74" s="79"/>
       <c r="T74" s="76"/>
@@ -9252,7 +9253,7 @@
       <c r="Z74" s="80"/>
       <c r="AA74" s="71" t="n">
         <f aca="false">($H74-Z74)/3500</f>
-        <v>0.261018590163324</v>
+        <v>0.260837952972363</v>
       </c>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
@@ -9271,7 +9272,7 @@
       </c>
       <c r="C75" s="69" t="n">
         <f aca="false">C74-AA74</f>
-        <v>179.982151207048</v>
+        <v>179.961937322679</v>
       </c>
       <c r="D75" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9279,28 +9280,28 @@
       </c>
       <c r="E75" s="70" t="n">
         <f aca="false">C75-D75</f>
-        <v>29.2088222347281</v>
+        <v>29.1886083503589</v>
       </c>
       <c r="F75" s="58"/>
       <c r="G75" s="71" t="n">
         <f aca="false">C75*TDEE!$B$5</f>
-        <v>2239.51843865125</v>
+        <v>2239.26691722839</v>
       </c>
       <c r="H75" s="69" t="n">
         <f aca="false">$E75*31</f>
-        <v>905.47348927657</v>
+        <v>904.846858861126</v>
       </c>
       <c r="I75" s="69" t="n">
         <f aca="false">$G75-$H75</f>
-        <v>1334.04494937468</v>
+        <v>1334.42005836726</v>
       </c>
       <c r="J75" s="60" t="n">
         <f aca="false">H75/3500</f>
-        <v>0.258706711221877</v>
+        <v>0.258527673960322</v>
       </c>
       <c r="K75" s="69" t="n">
         <f aca="false">N75/9</f>
-        <v>85.7300329625844</v>
+        <v>85.7717117395379</v>
       </c>
       <c r="L75" s="69" t="n">
         <v>20</v>
@@ -9311,7 +9312,7 @@
       </c>
       <c r="N75" s="69" t="n">
         <f aca="false">MAX(0,I75-(O75+P75))</f>
-        <v>771.57029666326</v>
+        <v>771.945405655841</v>
       </c>
       <c r="O75" s="69" t="n">
         <f aca="false">4*L75</f>
@@ -9323,7 +9324,7 @@
       </c>
       <c r="Q75" s="70" t="n">
         <f aca="false">SUM(N75:P75)</f>
-        <v>1334.04494937468</v>
+        <v>1334.42005836726</v>
       </c>
       <c r="S75" s="79"/>
       <c r="T75" s="76"/>
@@ -9335,7 +9336,7 @@
       <c r="Z75" s="80"/>
       <c r="AA75" s="71" t="n">
         <f aca="false">($H75-Z75)/3500</f>
-        <v>0.258706711221877</v>
+        <v>0.258527673960322</v>
       </c>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
@@ -9354,7 +9355,7 @@
       </c>
       <c r="C76" s="69" t="n">
         <f aca="false">C75-AA75</f>
-        <v>179.723444495826</v>
+        <v>179.703409648719</v>
       </c>
       <c r="D76" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9362,28 +9363,28 @@
       </c>
       <c r="E76" s="70" t="n">
         <f aca="false">C76-D76</f>
-        <v>28.9501155235062</v>
+        <v>28.9300806763986</v>
       </c>
       <c r="F76" s="58"/>
       <c r="G76" s="71" t="n">
         <f aca="false">C76*TDEE!$B$5</f>
-        <v>2236.29935028</v>
+        <v>2236.05005661831</v>
       </c>
       <c r="H76" s="69" t="n">
         <f aca="false">$E76*31</f>
-        <v>897.453581228692</v>
+        <v>896.832500968356</v>
       </c>
       <c r="I76" s="69" t="n">
         <f aca="false">$G76-$H76</f>
-        <v>1338.8457690513</v>
+        <v>1339.21755564995</v>
       </c>
       <c r="J76" s="60" t="n">
         <f aca="false">H76/3500</f>
-        <v>0.256415308922483</v>
+        <v>0.25623785741953</v>
       </c>
       <c r="K76" s="69" t="n">
         <f aca="false">N76/9</f>
-        <v>86.263457371098</v>
+        <v>86.30476699317</v>
       </c>
       <c r="L76" s="69" t="n">
         <v>20</v>
@@ -9394,7 +9395,7 @@
       </c>
       <c r="N76" s="69" t="n">
         <f aca="false">MAX(0,I76-(O76+P76))</f>
-        <v>776.371116339882</v>
+        <v>776.74290293853</v>
       </c>
       <c r="O76" s="69" t="n">
         <f aca="false">4*L76</f>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="Q76" s="70" t="n">
         <f aca="false">SUM(N76:P76)</f>
-        <v>1338.8457690513</v>
+        <v>1339.21755564995</v>
       </c>
       <c r="S76" s="79"/>
       <c r="T76" s="76"/>
@@ -9418,7 +9419,7 @@
       <c r="Z76" s="80"/>
       <c r="AA76" s="71" t="n">
         <f aca="false">($H76-Z76)/3500</f>
-        <v>0.256415308922483</v>
+        <v>0.25623785741953</v>
       </c>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
@@ -9437,7 +9438,7 @@
       </c>
       <c r="C77" s="69" t="n">
         <f aca="false">C76-AA76</f>
-        <v>179.467029186904</v>
+        <v>179.447171791299</v>
       </c>
       <c r="D77" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9445,28 +9446,28 @@
       </c>
       <c r="E77" s="70" t="n">
         <f aca="false">C77-D77</f>
-        <v>28.6937002145837</v>
+        <v>28.673842818979</v>
       </c>
       <c r="F77" s="58"/>
       <c r="G77" s="71" t="n">
         <f aca="false">C77*TDEE!$B$5</f>
-        <v>2233.10877383431</v>
+        <v>2232.8616882022</v>
       </c>
       <c r="H77" s="69" t="n">
         <f aca="false">$E77*31</f>
-        <v>889.504706652095</v>
+        <v>888.88912738835</v>
       </c>
       <c r="I77" s="69" t="n">
         <f aca="false">$G77-$H77</f>
-        <v>1343.60406718222</v>
+        <v>1343.97256081385</v>
       </c>
       <c r="J77" s="60" t="n">
         <f aca="false">H77/3500</f>
-        <v>0.254144201900599</v>
+        <v>0.253968322110957</v>
       </c>
       <c r="K77" s="69" t="n">
         <f aca="false">N77/9</f>
-        <v>86.7921571634219</v>
+        <v>86.8331009002698</v>
       </c>
       <c r="L77" s="69" t="n">
         <v>20</v>
@@ -9477,7 +9478,7 @@
       </c>
       <c r="N77" s="69" t="n">
         <f aca="false">MAX(0,I77-(O77+P77))</f>
-        <v>781.129414470797</v>
+        <v>781.497908102428</v>
       </c>
       <c r="O77" s="69" t="n">
         <f aca="false">4*L77</f>
@@ -9489,7 +9490,7 @@
       </c>
       <c r="Q77" s="70" t="n">
         <f aca="false">SUM(N77:P77)</f>
-        <v>1343.60406718222</v>
+        <v>1343.97256081385</v>
       </c>
       <c r="S77" s="79"/>
       <c r="T77" s="76"/>
@@ -9501,7 +9502,7 @@
       <c r="Z77" s="80"/>
       <c r="AA77" s="71" t="n">
         <f aca="false">($H77-Z77)/3500</f>
-        <v>0.254144201900599</v>
+        <v>0.253968322110957</v>
       </c>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
@@ -9520,7 +9521,7 @@
       </c>
       <c r="C78" s="69" t="n">
         <f aca="false">C77-AA77</f>
-        <v>179.212884985003</v>
+        <v>179.193203469188</v>
       </c>
       <c r="D78" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9528,28 +9529,28 @@
       </c>
       <c r="E78" s="70" t="n">
         <f aca="false">C78-D78</f>
-        <v>28.4395560126831</v>
+        <v>28.4198744968681</v>
       </c>
       <c r="F78" s="58"/>
       <c r="G78" s="71" t="n">
         <f aca="false">C78*TDEE!$B$5</f>
-        <v>2229.94645678001</v>
+        <v>2229.70155962064</v>
       </c>
       <c r="H78" s="69" t="n">
         <f aca="false">$E78*31</f>
-        <v>881.626236393177</v>
+        <v>881.016109402911</v>
       </c>
       <c r="I78" s="69" t="n">
         <f aca="false">$G78-$H78</f>
-        <v>1348.32022038683</v>
+        <v>1348.68545021773</v>
       </c>
       <c r="J78" s="60" t="n">
         <f aca="false">H78/3500</f>
-        <v>0.25189321039805</v>
+        <v>0.251718888400832</v>
       </c>
       <c r="K78" s="69" t="n">
         <f aca="false">N78/9</f>
-        <v>87.3161741861567</v>
+        <v>87.3567552784781</v>
       </c>
       <c r="L78" s="69" t="n">
         <v>20</v>
@@ -9560,7 +9561,7 @@
       </c>
       <c r="N78" s="69" t="n">
         <f aca="false">MAX(0,I78-(O78+P78))</f>
-        <v>785.84556767541</v>
+        <v>786.210797506303</v>
       </c>
       <c r="O78" s="69" t="n">
         <f aca="false">4*L78</f>
@@ -9572,7 +9573,7 @@
       </c>
       <c r="Q78" s="70" t="n">
         <f aca="false">SUM(N78:P78)</f>
-        <v>1348.32022038683</v>
+        <v>1348.68545021773</v>
       </c>
       <c r="S78" s="79"/>
       <c r="T78" s="76"/>
@@ -9584,7 +9585,7 @@
       <c r="Z78" s="80"/>
       <c r="AA78" s="71" t="n">
         <f aca="false">($H78-Z78)/3500</f>
-        <v>0.25189321039805</v>
+        <v>0.251718888400832</v>
       </c>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
@@ -9603,7 +9604,7 @@
       </c>
       <c r="C79" s="69" t="n">
         <f aca="false">C78-AA78</f>
-        <v>178.960991774605</v>
+        <v>178.941484580787</v>
       </c>
       <c r="D79" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9611,28 +9612,28 @@
       </c>
       <c r="E79" s="70" t="n">
         <f aca="false">C79-D79</f>
-        <v>28.1876628022851</v>
+        <v>28.1681556084673</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="71" t="n">
         <f aca="false">C79*TDEE!$B$5</f>
-        <v>2226.81214881961</v>
+        <v>2226.56942074937</v>
       </c>
       <c r="H79" s="69" t="n">
         <f aca="false">$E79*31</f>
-        <v>873.817546870837</v>
+        <v>873.212823862485</v>
       </c>
       <c r="I79" s="69" t="n">
         <f aca="false">$G79-$H79</f>
-        <v>1352.99460194878</v>
+        <v>1353.35659688688</v>
       </c>
       <c r="J79" s="60" t="n">
         <f aca="false">H79/3500</f>
-        <v>0.249662156248811</v>
+        <v>0.249489378246424</v>
       </c>
       <c r="K79" s="69" t="n">
         <f aca="false">N79/9</f>
-        <v>87.8355499152615</v>
+        <v>87.875771575051</v>
       </c>
       <c r="L79" s="69" t="n">
         <v>20</v>
@@ -9643,7 +9644,7 @@
       </c>
       <c r="N79" s="69" t="n">
         <f aca="false">MAX(0,I79-(O79+P79))</f>
-        <v>790.519949237353</v>
+        <v>790.881944175459</v>
       </c>
       <c r="O79" s="69" t="n">
         <f aca="false">4*L79</f>
@@ -9655,7 +9656,7 @@
       </c>
       <c r="Q79" s="70" t="n">
         <f aca="false">SUM(N79:P79)</f>
-        <v>1352.99460194878</v>
+        <v>1353.35659688688</v>
       </c>
       <c r="S79" s="79"/>
       <c r="T79" s="76"/>
@@ -9667,7 +9668,7 @@
       <c r="Z79" s="80"/>
       <c r="AA79" s="71" t="n">
         <f aca="false">($H79-Z79)/3500</f>
-        <v>0.249662156248811</v>
+        <v>0.249489378246424</v>
       </c>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
@@ -9686,7 +9687,7 @@
       </c>
       <c r="C80" s="69" t="n">
         <f aca="false">C79-AA79</f>
-        <v>178.711329618356</v>
+        <v>178.691995202541</v>
       </c>
       <c r="D80" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9694,28 +9695,28 @@
       </c>
       <c r="E80" s="70" t="n">
         <f aca="false">C80-D80</f>
-        <v>27.9380006460363</v>
+        <v>27.9186662302208</v>
       </c>
       <c r="F80" s="58"/>
       <c r="G80" s="71" t="n">
         <f aca="false">C80*TDEE!$B$5</f>
-        <v>2223.70560187258</v>
+        <v>2223.46502367953</v>
       </c>
       <c r="H80" s="69" t="n">
         <f aca="false">$E80*31</f>
-        <v>866.078020027124</v>
+        <v>865.478653136845</v>
       </c>
       <c r="I80" s="69" t="n">
         <f aca="false">$G80-$H80</f>
-        <v>1357.62758184546</v>
+        <v>1357.98637054268</v>
       </c>
       <c r="J80" s="60" t="n">
         <f aca="false">H80/3500</f>
-        <v>0.247450862864893</v>
+        <v>0.247279615181956</v>
       </c>
       <c r="K80" s="69" t="n">
         <f aca="false">N80/9</f>
-        <v>88.350325459337</v>
+        <v>88.3901908701399</v>
       </c>
       <c r="L80" s="69" t="n">
         <v>20</v>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="N80" s="69" t="n">
         <f aca="false">MAX(0,I80-(O80+P80))</f>
-        <v>795.152929134033</v>
+        <v>795.511717831259</v>
       </c>
       <c r="O80" s="69" t="n">
         <f aca="false">4*L80</f>
@@ -9738,7 +9739,7 @@
       </c>
       <c r="Q80" s="70" t="n">
         <f aca="false">SUM(N80:P80)</f>
-        <v>1357.62758184546</v>
+        <v>1357.98637054268</v>
       </c>
       <c r="S80" s="79"/>
       <c r="T80" s="76"/>
@@ -9750,7 +9751,7 @@
       <c r="Z80" s="80"/>
       <c r="AA80" s="71" t="n">
         <f aca="false">($H80-Z80)/3500</f>
-        <v>0.247450862864893</v>
+        <v>0.247279615181956</v>
       </c>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
@@ -9769,7 +9770,7 @@
       </c>
       <c r="C81" s="69" t="n">
         <f aca="false">C80-AA80</f>
-        <v>178.463878755491</v>
+        <v>178.444715587359</v>
       </c>
       <c r="D81" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9777,28 +9778,28 @@
       </c>
       <c r="E81" s="70" t="n">
         <f aca="false">C81-D81</f>
-        <v>27.6905497831714</v>
+        <v>27.6713866150389</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="71" t="n">
         <f aca="false">C81*TDEE!$B$5</f>
-        <v>2220.62657005565</v>
+        <v>2220.38812269802</v>
       </c>
       <c r="H81" s="69" t="n">
         <f aca="false">$E81*31</f>
-        <v>858.407043278313</v>
+        <v>857.812985066205</v>
       </c>
       <c r="I81" s="69" t="n">
         <f aca="false">$G81-$H81</f>
-        <v>1362.21952677734</v>
+        <v>1362.57513763182</v>
       </c>
       <c r="J81" s="60" t="n">
         <f aca="false">H81/3500</f>
-        <v>0.245259155222375</v>
+        <v>0.24508942430463</v>
       </c>
       <c r="K81" s="69" t="n">
         <f aca="false">N81/9</f>
-        <v>88.8605415628794</v>
+        <v>88.9000538800437</v>
       </c>
       <c r="L81" s="69" t="n">
         <v>20</v>
@@ -9809,7 +9810,7 @@
       </c>
       <c r="N81" s="69" t="n">
         <f aca="false">MAX(0,I81-(O81+P81))</f>
-        <v>799.744874065914</v>
+        <v>800.100484920393</v>
       </c>
       <c r="O81" s="69" t="n">
         <f aca="false">4*L81</f>
@@ -9821,7 +9822,7 @@
       </c>
       <c r="Q81" s="70" t="n">
         <f aca="false">SUM(N81:P81)</f>
-        <v>1362.21952677734</v>
+        <v>1362.57513763182</v>
       </c>
       <c r="S81" s="79"/>
       <c r="T81" s="76"/>
@@ -9833,7 +9834,7 @@
       <c r="Z81" s="80"/>
       <c r="AA81" s="71" t="n">
         <f aca="false">($H81-Z81)/3500</f>
-        <v>0.245259155222375</v>
+        <v>0.24508942430463</v>
       </c>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
@@ -9852,7 +9853,7 @@
       </c>
       <c r="C82" s="69" t="n">
         <f aca="false">C81-AA81</f>
-        <v>178.218619600269</v>
+        <v>178.199626163054</v>
       </c>
       <c r="D82" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9860,28 +9861,28 @@
       </c>
       <c r="E82" s="70" t="n">
         <f aca="false">C82-D82</f>
-        <v>27.445290627949</v>
+        <v>27.4262971907342</v>
       </c>
       <c r="F82" s="58"/>
       <c r="G82" s="71" t="n">
         <f aca="false">C82*TDEE!$B$5</f>
-        <v>2217.57480966338</v>
+        <v>2217.33847426806</v>
       </c>
       <c r="H82" s="69" t="n">
         <f aca="false">$E82*31</f>
-        <v>850.804009466419</v>
+        <v>850.215212912761</v>
       </c>
       <c r="I82" s="69" t="n">
         <f aca="false">$G82-$H82</f>
-        <v>1366.77080019696</v>
+        <v>1367.1232613553</v>
       </c>
       <c r="J82" s="60" t="n">
         <f aca="false">H82/3500</f>
-        <v>0.243086859847548</v>
+        <v>0.242918632260789</v>
       </c>
       <c r="K82" s="69" t="n">
         <f aca="false">N82/9</f>
-        <v>89.3662386095047</v>
+        <v>89.4054009604312</v>
       </c>
       <c r="L82" s="69" t="n">
         <v>20</v>
@@ -9892,7 +9893,7 @@
       </c>
       <c r="N82" s="69" t="n">
         <f aca="false">MAX(0,I82-(O82+P82))</f>
-        <v>804.296147485542</v>
+        <v>804.648608643881</v>
       </c>
       <c r="O82" s="69" t="n">
         <f aca="false">4*L82</f>
@@ -9904,7 +9905,7 @@
       </c>
       <c r="Q82" s="70" t="n">
         <f aca="false">SUM(N82:P82)</f>
-        <v>1366.77080019696</v>
+        <v>1367.1232613553</v>
       </c>
       <c r="S82" s="79"/>
       <c r="T82" s="76"/>
@@ -9916,7 +9917,7 @@
       <c r="Z82" s="80"/>
       <c r="AA82" s="71" t="n">
         <f aca="false">($H82-Z82)/3500</f>
-        <v>0.243086859847548</v>
+        <v>0.242918632260789</v>
       </c>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
@@ -9935,7 +9936,7 @@
       </c>
       <c r="C83" s="69" t="n">
         <f aca="false">C82-AA82</f>
-        <v>177.975532740421</v>
+        <v>177.956707530793</v>
       </c>
       <c r="D83" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -9943,28 +9944,28 @@
       </c>
       <c r="E83" s="70" t="n">
         <f aca="false">C83-D83</f>
-        <v>27.2022037681014</v>
+        <v>27.1833785584734</v>
       </c>
       <c r="F83" s="58"/>
       <c r="G83" s="71" t="n">
         <f aca="false">C83*TDEE!$B$5</f>
-        <v>2214.55007914888</v>
+        <v>2214.31583700992</v>
       </c>
       <c r="H83" s="69" t="n">
         <f aca="false">$E83*31</f>
-        <v>843.268316811145</v>
+        <v>842.684735312677</v>
       </c>
       <c r="I83" s="69" t="n">
         <f aca="false">$G83-$H83</f>
-        <v>1371.28176233773</v>
+        <v>1371.63110169724</v>
       </c>
       <c r="J83" s="60" t="n">
         <f aca="false">H83/3500</f>
-        <v>0.240933804803184</v>
+        <v>0.240767067232193</v>
       </c>
       <c r="K83" s="69" t="n">
         <f aca="false">N83/9</f>
-        <v>89.8674566251455</v>
+        <v>89.9062721095353</v>
       </c>
       <c r="L83" s="69" t="n">
         <v>20</v>
@@ -9975,7 +9976,7 @@
       </c>
       <c r="N83" s="69" t="n">
         <f aca="false">MAX(0,I83-(O83+P83))</f>
-        <v>808.80710962631</v>
+        <v>809.156448985818</v>
       </c>
       <c r="O83" s="69" t="n">
         <f aca="false">4*L83</f>
@@ -9987,7 +9988,7 @@
       </c>
       <c r="Q83" s="70" t="n">
         <f aca="false">SUM(N83:P83)</f>
-        <v>1371.28176233773</v>
+        <v>1371.63110169724</v>
       </c>
       <c r="S83" s="79"/>
       <c r="T83" s="76"/>
@@ -9999,7 +10000,7 @@
       <c r="Z83" s="80"/>
       <c r="AA83" s="71" t="n">
         <f aca="false">($H83-Z83)/3500</f>
-        <v>0.240933804803184</v>
+        <v>0.240767067232193</v>
       </c>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
@@ -10018,7 +10019,7 @@
       </c>
       <c r="C84" s="69" t="n">
         <f aca="false">C83-AA83</f>
-        <v>177.734598935618</v>
+        <v>177.715940463561</v>
       </c>
       <c r="D84" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -10026,28 +10027,28 @@
       </c>
       <c r="E84" s="70" t="n">
         <f aca="false">C84-D84</f>
-        <v>26.9612699632983</v>
+        <v>26.9426114912412</v>
       </c>
       <c r="F84" s="58"/>
       <c r="G84" s="71" t="n">
         <f aca="false">C84*TDEE!$B$5</f>
-        <v>2211.55213910464</v>
+        <v>2211.31997168177</v>
       </c>
       <c r="H84" s="69" t="n">
         <f aca="false">$E84*31</f>
-        <v>835.799368862246</v>
+        <v>835.220956228479</v>
       </c>
       <c r="I84" s="69" t="n">
         <f aca="false">$G84-$H84</f>
-        <v>1375.7527702424</v>
+        <v>1376.09901545329</v>
       </c>
       <c r="J84" s="60" t="n">
         <f aca="false">H84/3500</f>
-        <v>0.238799819674927</v>
+        <v>0.238634558922422</v>
       </c>
       <c r="K84" s="69" t="n">
         <f aca="false">N84/9</f>
-        <v>90.3642352812193</v>
+        <v>90.4027069713188</v>
       </c>
       <c r="L84" s="69" t="n">
         <v>20</v>
@@ -10058,7 +10059,7 @@
       </c>
       <c r="N84" s="69" t="n">
         <f aca="false">MAX(0,I84-(O84+P84))</f>
-        <v>813.278117530974</v>
+        <v>813.624362741869</v>
       </c>
       <c r="O84" s="69" t="n">
         <f aca="false">4*L84</f>
@@ -10070,7 +10071,7 @@
       </c>
       <c r="Q84" s="70" t="n">
         <f aca="false">SUM(N84:P84)</f>
-        <v>1375.7527702424</v>
+        <v>1376.09901545329</v>
       </c>
       <c r="S84" s="79"/>
       <c r="T84" s="76"/>
@@ -10082,7 +10083,7 @@
       <c r="Z84" s="80"/>
       <c r="AA84" s="71" t="n">
         <f aca="false">($H84-Z84)/3500</f>
-        <v>0.238799819674927</v>
+        <v>0.238634558922422</v>
       </c>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
@@ -10101,7 +10102,7 @@
       </c>
       <c r="C85" s="69" t="n">
         <f aca="false">C84-AA84</f>
-        <v>177.495799115943</v>
+        <v>177.477305904639</v>
       </c>
       <c r="D85" s="69" t="n">
         <f aca="false">$D$3</f>
@@ -10109,28 +10110,28 @@
       </c>
       <c r="E85" s="70" t="n">
         <f aca="false">C85-D85</f>
-        <v>26.7224701436233</v>
+        <v>26.7039769323188</v>
       </c>
       <c r="F85" s="58"/>
       <c r="G85" s="71" t="n">
         <f aca="false">C85*TDEE!$B$5</f>
-        <v>2208.58075224366</v>
+        <v>2208.35064116081</v>
       </c>
       <c r="H85" s="69" t="n">
         <f aca="false">$E85*31</f>
-        <v>828.396574452323</v>
+        <v>827.823284901884</v>
       </c>
       <c r="I85" s="69" t="n">
         <f aca="false">$G85-$H85</f>
-        <v>1380.18417779133</v>
+        <v>1380.52735625893</v>
       </c>
       <c r="J85" s="60" t="n">
         <f aca="false">H85/3500</f>
-        <v>0.236684735557807</v>
+        <v>0.236520938543395</v>
       </c>
       <c r="K85" s="69" t="n">
         <f aca="false">N85/9</f>
-        <v>90.8566138977679</v>
+        <v>90.8947448386122</v>
       </c>
       <c r="L85" s="69" t="n">
         <v>20</v>
@@ -10141,7 +10142,7 @@
       </c>
       <c r="N85" s="69" t="n">
         <f aca="false">MAX(0,I85-(O85+P85))</f>
-        <v>817.709525079911</v>
+        <v>818.052703547509</v>
       </c>
       <c r="O85" s="69" t="n">
         <f aca="false">4*L85</f>
@@ -10153,7 +10154,7 @@
       </c>
       <c r="Q85" s="70" t="n">
         <f aca="false">SUM(N85:P85)</f>
-        <v>1380.18417779133</v>
+        <v>1380.52735625893</v>
       </c>
       <c r="S85" s="79"/>
       <c r="T85" s="76"/>
@@ -10165,7 +10166,7 @@
       <c r="Z85" s="80"/>
       <c r="AA85" s="71" t="n">
         <f aca="false">($H85-Z85)/3500</f>
-        <v>0.236684735557807</v>
+        <v>0.236520938543395</v>
       </c>
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
@@ -10184,7 +10185,7 @@
       </c>
       <c r="C86" s="69" t="n">
         <f aca="false">C85-AA85</f>
-        <v>177.259114380386</v>
+        <v>177.240784966095</v>
       </c>
       <c r="D86" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10192,28 +10193,28 @@
       </c>
       <c r="E86" s="82" t="n">
         <f aca="false">C86-D86</f>
-        <v>26.4857854080655</v>
+        <v>26.4674559937754</v>
       </c>
       <c r="F86" s="83"/>
       <c r="G86" s="84" t="n">
         <f aca="false">C86*TDEE!$B$5</f>
-        <v>2205.63568338058</v>
+        <v>2205.40761042447</v>
       </c>
       <c r="H86" s="69" t="n">
         <f aca="false">$E86*31</f>
-        <v>821.059347650031</v>
+        <v>820.491135807038</v>
       </c>
       <c r="I86" s="69" t="n">
         <f aca="false">$G86-$H86</f>
-        <v>1384.57633573055</v>
+        <v>1384.91647461744</v>
       </c>
       <c r="J86" s="60" t="n">
         <f aca="false">H86/3500</f>
-        <v>0.234588385042866</v>
+        <v>0.234426038802011</v>
       </c>
       <c r="K86" s="81" t="n">
         <f aca="false">N86/9</f>
-        <v>91.3446314465699</v>
+        <v>91.3824246562238</v>
       </c>
       <c r="L86" s="81" t="n">
         <v>20</v>
@@ -10224,7 +10225,7 @@
       </c>
       <c r="N86" s="69" t="n">
         <f aca="false">MAX(0,I86-(O86+P86))</f>
-        <v>822.101683019129</v>
+        <v>822.441821906014</v>
       </c>
       <c r="O86" s="81" t="n">
         <f aca="false">4*L86</f>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="Q86" s="70" t="n">
         <f aca="false">SUM(N86:P86)</f>
-        <v>1384.57633573055</v>
+        <v>1384.91647461744</v>
       </c>
       <c r="S86" s="79"/>
       <c r="T86" s="76"/>
@@ -10248,7 +10249,7 @@
       <c r="Z86" s="80"/>
       <c r="AA86" s="71" t="n">
         <f aca="false">($H86-Z86)/3500</f>
-        <v>0.234588385042866</v>
+        <v>0.234426038802011</v>
       </c>
       <c r="AB86" s="76"/>
       <c r="AC86" s="76"/>
@@ -10267,7 +10268,7 @@
       </c>
       <c r="C87" s="69" t="n">
         <f aca="false">C86-AA86</f>
-        <v>177.024525995343</v>
+        <v>177.006358927293</v>
       </c>
       <c r="D87" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10275,28 +10276,28 @@
       </c>
       <c r="E87" s="82" t="n">
         <f aca="false">C87-D87</f>
-        <v>26.2511970230227</v>
+        <v>26.2330299549734</v>
       </c>
       <c r="F87" s="83"/>
       <c r="G87" s="84" t="n">
         <f aca="false">C87*TDEE!$B$5</f>
-        <v>2202.71669941315</v>
+        <v>2202.4906465318</v>
       </c>
       <c r="H87" s="69" t="n">
         <f aca="false">$E87*31</f>
-        <v>813.787107713702</v>
+        <v>813.223928604176</v>
       </c>
       <c r="I87" s="69" t="n">
         <f aca="false">$G87-$H87</f>
-        <v>1388.92959169945</v>
+        <v>1389.26671792762</v>
       </c>
       <c r="J87" s="60" t="n">
         <f aca="false">H87/3500</f>
-        <v>0.232510602203915</v>
+        <v>0.232349693886907</v>
       </c>
       <c r="K87" s="81" t="n">
         <f aca="false">N87/9</f>
-        <v>91.3838821097808</v>
+        <v>91.4213405795779</v>
       </c>
       <c r="L87" s="81" t="n">
         <v>21</v>
@@ -10307,7 +10308,7 @@
       </c>
       <c r="N87" s="69" t="n">
         <f aca="false">MAX(0,I87-(O87+P87))</f>
-        <v>822.454938988027</v>
+        <v>822.792065216201</v>
       </c>
       <c r="O87" s="81" t="n">
         <f aca="false">4*L87</f>
@@ -10319,7 +10320,7 @@
       </c>
       <c r="Q87" s="70" t="n">
         <f aca="false">SUM(N87:P87)</f>
-        <v>1388.92959169945</v>
+        <v>1389.26671792762</v>
       </c>
       <c r="S87" s="79"/>
       <c r="T87" s="76"/>
@@ -10331,7 +10332,7 @@
       <c r="Z87" s="80"/>
       <c r="AA87" s="71" t="n">
         <f aca="false">($H87-Z87)/3500</f>
-        <v>0.232510602203915</v>
+        <v>0.232349693886907</v>
       </c>
       <c r="AB87" s="76"/>
       <c r="AC87" s="76"/>
@@ -10350,7 +10351,7 @@
       </c>
       <c r="C88" s="69" t="n">
         <f aca="false">C87-AA87</f>
-        <v>176.792015393139</v>
+        <v>176.774009233407</v>
       </c>
       <c r="D88" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10358,28 +10359,28 @@
       </c>
       <c r="E88" s="82" t="n">
         <f aca="false">C88-D88</f>
-        <v>26.0186864208187</v>
+        <v>26.0006802610865</v>
       </c>
       <c r="F88" s="83"/>
       <c r="G88" s="84" t="n">
         <f aca="false">C88*TDEE!$B$5</f>
-        <v>2199.82356930372</v>
+        <v>2199.59951860503</v>
       </c>
       <c r="H88" s="69" t="n">
         <f aca="false">$E88*31</f>
-        <v>806.579279045381</v>
+        <v>806.021088093682</v>
       </c>
       <c r="I88" s="69" t="n">
         <f aca="false">$G88-$H88</f>
-        <v>1393.24429025834</v>
+        <v>1393.57843051135</v>
       </c>
       <c r="J88" s="60" t="n">
         <f aca="false">H88/3500</f>
-        <v>0.230451222584395</v>
+        <v>0.230291739455338</v>
       </c>
       <c r="K88" s="81" t="n">
         <f aca="false">N88/9</f>
-        <v>91.418848616324</v>
+        <v>91.4559753111028</v>
       </c>
       <c r="L88" s="81" t="n">
         <v>22</v>
@@ -10390,7 +10391,7 @@
       </c>
       <c r="N88" s="69" t="n">
         <f aca="false">MAX(0,I88-(O88+P88))</f>
-        <v>822.769637546916</v>
+        <v>823.103777799926</v>
       </c>
       <c r="O88" s="81" t="n">
         <f aca="false">4*L88</f>
@@ -10402,7 +10403,7 @@
       </c>
       <c r="Q88" s="70" t="n">
         <f aca="false">SUM(N88:P88)</f>
-        <v>1393.24429025834</v>
+        <v>1393.57843051135</v>
       </c>
       <c r="S88" s="79"/>
       <c r="T88" s="76"/>
@@ -10414,7 +10415,7 @@
       <c r="Z88" s="80"/>
       <c r="AA88" s="71" t="n">
         <f aca="false">($H88-Z88)/3500</f>
-        <v>0.230451222584395</v>
+        <v>0.230291739455338</v>
       </c>
       <c r="AB88" s="76"/>
       <c r="AC88" s="76"/>
@@ -10433,7 +10434,7 @@
       </c>
       <c r="C89" s="69" t="n">
         <f aca="false">C88-AA88</f>
-        <v>176.561564170554</v>
+        <v>176.543717493951</v>
       </c>
       <c r="D89" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10441,28 +10442,28 @@
       </c>
       <c r="E89" s="82" t="n">
         <f aca="false">C89-D89</f>
-        <v>25.7882351982343</v>
+        <v>25.7703885216312</v>
       </c>
       <c r="F89" s="83"/>
       <c r="G89" s="84" t="n">
         <f aca="false">C89*TDEE!$B$5</f>
-        <v>2196.95606406097</v>
+        <v>2196.73399781133</v>
       </c>
       <c r="H89" s="69" t="n">
         <f aca="false">$E89*31</f>
-        <v>799.435291145264</v>
+        <v>798.882044170566</v>
       </c>
       <c r="I89" s="69" t="n">
         <f aca="false">$G89-$H89</f>
-        <v>1397.52077291571</v>
+        <v>1397.85195364076</v>
       </c>
       <c r="J89" s="60" t="n">
         <f aca="false">H89/3500</f>
-        <v>0.228410083184361</v>
+        <v>0.228252012620162</v>
       </c>
       <c r="K89" s="81" t="n">
         <f aca="false">N89/9</f>
-        <v>91.4495689115871</v>
+        <v>91.4863667699264</v>
       </c>
       <c r="L89" s="81" t="n">
         <v>23</v>
@@ -10473,7 +10474,7 @@
       </c>
       <c r="N89" s="69" t="n">
         <f aca="false">MAX(0,I89-(O89+P89))</f>
-        <v>823.046120204284</v>
+        <v>823.377300929337</v>
       </c>
       <c r="O89" s="81" t="n">
         <f aca="false">4*L89</f>
@@ -10485,7 +10486,7 @@
       </c>
       <c r="Q89" s="70" t="n">
         <f aca="false">SUM(N89:P89)</f>
-        <v>1397.52077291571</v>
+        <v>1397.85195364076</v>
       </c>
       <c r="S89" s="79"/>
       <c r="T89" s="76"/>
@@ -10497,7 +10498,7 @@
       <c r="Z89" s="80"/>
       <c r="AA89" s="71" t="n">
         <f aca="false">($H89-Z89)/3500</f>
-        <v>0.228410083184361</v>
+        <v>0.228252012620162</v>
       </c>
       <c r="AB89" s="76"/>
       <c r="AC89" s="76"/>
@@ -10516,7 +10517,7 @@
       </c>
       <c r="C90" s="69" t="n">
         <f aca="false">C89-AA89</f>
-        <v>176.33315408737</v>
+        <v>176.315465481331</v>
       </c>
       <c r="D90" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10524,28 +10525,28 @@
       </c>
       <c r="E90" s="82" t="n">
         <f aca="false">C90-D90</f>
-        <v>25.55982511505</v>
+        <v>25.542136509011</v>
       </c>
       <c r="F90" s="83"/>
       <c r="G90" s="84" t="n">
         <f aca="false">C90*TDEE!$B$5</f>
-        <v>2194.1139567218</v>
+        <v>2193.89385734465</v>
       </c>
       <c r="H90" s="69" t="n">
         <f aca="false">$E90*31</f>
-        <v>792.354578566549</v>
+        <v>791.806231779341</v>
       </c>
       <c r="I90" s="69" t="n">
         <f aca="false">$G90-$H90</f>
-        <v>1401.75937815525</v>
+        <v>1402.08762556531</v>
       </c>
       <c r="J90" s="60" t="n">
         <f aca="false">H90/3500</f>
-        <v>0.226387022447585</v>
+        <v>0.226230351936954</v>
       </c>
       <c r="K90" s="81" t="n">
         <f aca="false">N90/9</f>
-        <v>91.4760806048698</v>
+        <v>91.512552539321</v>
       </c>
       <c r="L90" s="81" t="n">
         <v>24</v>
@@ -10556,7 +10557,7 @@
       </c>
       <c r="N90" s="69" t="n">
         <f aca="false">MAX(0,I90-(O90+P90))</f>
-        <v>823.284725443829</v>
+        <v>823.612972853889</v>
       </c>
       <c r="O90" s="81" t="n">
         <f aca="false">4*L90</f>
@@ -10568,7 +10569,7 @@
       </c>
       <c r="Q90" s="70" t="n">
         <f aca="false">SUM(N90:P90)</f>
-        <v>1401.75937815525</v>
+        <v>1402.08762556531</v>
       </c>
       <c r="S90" s="79"/>
       <c r="T90" s="76"/>
@@ -10580,7 +10581,7 @@
       <c r="Z90" s="80"/>
       <c r="AA90" s="71" t="n">
         <f aca="false">($H90-Z90)/3500</f>
-        <v>0.226387022447585</v>
+        <v>0.226230351936954</v>
       </c>
       <c r="AB90" s="76"/>
       <c r="AC90" s="76"/>
@@ -10599,7 +10600,7 @@
       </c>
       <c r="C91" s="69" t="n">
         <f aca="false">C90-AA90</f>
-        <v>176.106767064922</v>
+        <v>176.089235129394</v>
       </c>
       <c r="D91" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10607,28 +10608,28 @@
       </c>
       <c r="E91" s="82" t="n">
         <f aca="false">C91-D91</f>
-        <v>25.3334380926024</v>
+        <v>25.315906157074</v>
       </c>
       <c r="F91" s="83"/>
       <c r="G91" s="84" t="n">
         <f aca="false">C91*TDEE!$B$5</f>
-        <v>2191.29702233335</v>
+        <v>2191.07887240783</v>
       </c>
       <c r="H91" s="69" t="n">
         <f aca="false">$E91*31</f>
-        <v>785.336580870673</v>
+        <v>784.793090869295</v>
       </c>
       <c r="I91" s="69" t="n">
         <f aca="false">$G91-$H91</f>
-        <v>1405.96044146267</v>
+        <v>1406.28578153853</v>
       </c>
       <c r="J91" s="60" t="n">
         <f aca="false">H91/3500</f>
-        <v>0.224381880248764</v>
+        <v>0.224226597391227</v>
       </c>
       <c r="K91" s="81" t="n">
         <f aca="false">N91/9</f>
-        <v>91.4984209723613</v>
+        <v>91.5345698696788</v>
       </c>
       <c r="L91" s="81" t="n">
         <v>25</v>
@@ -10639,7 +10640,7 @@
       </c>
       <c r="N91" s="69" t="n">
         <f aca="false">MAX(0,I91-(O91+P91))</f>
-        <v>823.485788751252</v>
+        <v>823.811128827109</v>
       </c>
       <c r="O91" s="81" t="n">
         <f aca="false">4*L91</f>
@@ -10651,7 +10652,7 @@
       </c>
       <c r="Q91" s="70" t="n">
         <f aca="false">SUM(N91:P91)</f>
-        <v>1405.96044146267</v>
+        <v>1406.28578153853</v>
       </c>
       <c r="S91" s="79"/>
       <c r="T91" s="76"/>
@@ -10663,7 +10664,7 @@
       <c r="Z91" s="80"/>
       <c r="AA91" s="71" t="n">
         <f aca="false">($H91-Z91)/3500</f>
-        <v>0.224381880248764</v>
+        <v>0.224226597391227</v>
       </c>
       <c r="AB91" s="76"/>
       <c r="AC91" s="76"/>
@@ -10682,7 +10683,7 @@
       </c>
       <c r="C92" s="69" t="n">
         <f aca="false">C91-AA91</f>
-        <v>175.882385184674</v>
+        <v>175.865008532003</v>
       </c>
       <c r="D92" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10690,28 +10691,28 @@
       </c>
       <c r="E92" s="82" t="n">
         <f aca="false">C92-D92</f>
-        <v>25.1090562123536</v>
+        <v>25.0916795596828</v>
       </c>
       <c r="F92" s="83"/>
       <c r="G92" s="84" t="n">
         <f aca="false">C92*TDEE!$B$5</f>
-        <v>2188.50503793519</v>
+        <v>2188.28882019473</v>
       </c>
       <c r="H92" s="69" t="n">
         <f aca="false">$E92*31</f>
-        <v>778.380742582962</v>
+        <v>777.842066350167</v>
       </c>
       <c r="I92" s="69" t="n">
         <f aca="false">$G92-$H92</f>
-        <v>1410.12429535223</v>
+        <v>1410.44675384456</v>
       </c>
       <c r="J92" s="60" t="n">
         <f aca="false">H92/3500</f>
-        <v>0.222394497880846</v>
+        <v>0.222240590385762</v>
       </c>
       <c r="K92" s="81" t="n">
         <f aca="false">N92/9</f>
-        <v>91.5166269600899</v>
+        <v>91.5524556814597</v>
       </c>
       <c r="L92" s="81" t="n">
         <v>26</v>
@@ -10722,7 +10723,7 @@
       </c>
       <c r="N92" s="69" t="n">
         <f aca="false">MAX(0,I92-(O92+P92))</f>
-        <v>823.649642640809</v>
+        <v>823.972101133137</v>
       </c>
       <c r="O92" s="81" t="n">
         <f aca="false">4*L92</f>
@@ -10734,7 +10735,7 @@
       </c>
       <c r="Q92" s="70" t="n">
         <f aca="false">SUM(N92:P92)</f>
-        <v>1410.12429535223</v>
+        <v>1410.44675384456</v>
       </c>
       <c r="S92" s="79"/>
       <c r="T92" s="76"/>
@@ -10746,7 +10747,7 @@
       <c r="Z92" s="80"/>
       <c r="AA92" s="71" t="n">
         <f aca="false">($H92-Z92)/3500</f>
-        <v>0.222394497880846</v>
+        <v>0.222240590385762</v>
       </c>
       <c r="AB92" s="76"/>
       <c r="AC92" s="76"/>
@@ -10765,7 +10766,7 @@
       </c>
       <c r="C93" s="69" t="n">
         <f aca="false">C92-AA92</f>
-        <v>175.659990686793</v>
+        <v>175.642767941617</v>
       </c>
       <c r="D93" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10773,28 +10774,28 @@
       </c>
       <c r="E93" s="82" t="n">
         <f aca="false">C93-D93</f>
-        <v>24.8866617144728</v>
+        <v>24.869438969297</v>
       </c>
       <c r="F93" s="83"/>
       <c r="G93" s="84" t="n">
         <f aca="false">C93*TDEE!$B$5</f>
-        <v>2185.73778254171</v>
+        <v>2185.52347987266</v>
       </c>
       <c r="H93" s="69" t="n">
         <f aca="false">$E93*31</f>
-        <v>771.486513148655</v>
+        <v>770.952608048209</v>
       </c>
       <c r="I93" s="69" t="n">
         <f aca="false">$G93-$H93</f>
-        <v>1414.25126939305</v>
+        <v>1414.57087182445</v>
       </c>
       <c r="J93" s="60" t="n">
         <f aca="false">H93/3500</f>
-        <v>0.220424718042473</v>
+        <v>0.22027217372806</v>
       </c>
       <c r="K93" s="81" t="n">
         <f aca="false">N93/9</f>
-        <v>91.5307351868478</v>
+        <v>91.5662465681141</v>
       </c>
       <c r="L93" s="81" t="n">
         <v>27</v>
@@ -10805,7 +10806,7 @@
       </c>
       <c r="N93" s="69" t="n">
         <f aca="false">MAX(0,I93-(O93+P93))</f>
-        <v>823.77661668163</v>
+        <v>824.096219113027</v>
       </c>
       <c r="O93" s="81" t="n">
         <f aca="false">4*L93</f>
@@ -10817,7 +10818,7 @@
       </c>
       <c r="Q93" s="70" t="n">
         <f aca="false">SUM(N93:P93)</f>
-        <v>1414.25126939305</v>
+        <v>1414.57087182445</v>
       </c>
       <c r="S93" s="79"/>
       <c r="T93" s="76"/>
@@ -10829,7 +10830,7 @@
       <c r="Z93" s="80"/>
       <c r="AA93" s="71" t="n">
         <f aca="false">($H93-Z93)/3500</f>
-        <v>0.220424718042473</v>
+        <v>0.22027217372806</v>
       </c>
       <c r="AB93" s="76"/>
       <c r="AC93" s="76"/>
@@ -10848,7 +10849,7 @@
       </c>
       <c r="C94" s="69" t="n">
         <f aca="false">C93-AA93</f>
-        <v>175.43956596875</v>
+        <v>175.422495767889</v>
       </c>
       <c r="D94" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10856,28 +10857,28 @@
       </c>
       <c r="E94" s="82" t="n">
         <f aca="false">C94-D94</f>
-        <v>24.6662369964303</v>
+        <v>24.649166795569</v>
       </c>
       <c r="F94" s="83"/>
       <c r="G94" s="84" t="n">
         <f aca="false">C94*TDEE!$B$5</f>
-        <v>2182.99503712456</v>
+        <v>2182.78263256487</v>
       </c>
       <c r="H94" s="69" t="n">
         <f aca="false">$E94*31</f>
-        <v>764.653346889339</v>
+        <v>764.124170662639</v>
       </c>
       <c r="I94" s="69" t="n">
         <f aca="false">$G94-$H94</f>
-        <v>1418.34169023523</v>
+        <v>1418.65846190223</v>
       </c>
       <c r="J94" s="60" t="n">
         <f aca="false">H94/3500</f>
-        <v>0.218472384825525</v>
+        <v>0.218321191617897</v>
       </c>
       <c r="K94" s="81" t="n">
         <f aca="false">N94/9</f>
-        <v>91.5407819470893</v>
+        <v>91.5759787989787</v>
       </c>
       <c r="L94" s="81" t="n">
         <v>28</v>
@@ -10888,7 +10889,7 @@
       </c>
       <c r="N94" s="69" t="n">
         <f aca="false">MAX(0,I94-(O94+P94))</f>
-        <v>823.867037523804</v>
+        <v>824.183809190808</v>
       </c>
       <c r="O94" s="81" t="n">
         <f aca="false">4*L94</f>
@@ -10900,7 +10901,7 @@
       </c>
       <c r="Q94" s="70" t="n">
         <f aca="false">SUM(N94:P94)</f>
-        <v>1418.34169023523</v>
+        <v>1418.65846190223</v>
       </c>
       <c r="S94" s="79"/>
       <c r="T94" s="76"/>
@@ -10912,7 +10913,7 @@
       <c r="Z94" s="80"/>
       <c r="AA94" s="71" t="n">
         <f aca="false">($H94-Z94)/3500</f>
-        <v>0.218472384825525</v>
+        <v>0.218321191617897</v>
       </c>
       <c r="AB94" s="76"/>
       <c r="AC94" s="76"/>
@@ -10931,7 +10932,7 @@
       </c>
       <c r="C95" s="69" t="n">
         <f aca="false">C94-AA94</f>
-        <v>175.221093583925</v>
+        <v>175.204174576271</v>
       </c>
       <c r="D95" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -10939,28 +10940,28 @@
       </c>
       <c r="E95" s="82" t="n">
         <f aca="false">C95-D95</f>
-        <v>24.4477646116048</v>
+        <v>24.4308456039511</v>
       </c>
       <c r="F95" s="83"/>
       <c r="G95" s="84" t="n">
         <f aca="false">C95*TDEE!$B$5</f>
-        <v>2180.2765845954</v>
+        <v>2180.06606133323</v>
       </c>
       <c r="H95" s="69" t="n">
         <f aca="false">$E95*31</f>
-        <v>757.880702959747</v>
+        <v>757.356213722484</v>
       </c>
       <c r="I95" s="69" t="n">
         <f aca="false">$G95-$H95</f>
-        <v>1422.39588163565</v>
+        <v>1422.70984761075</v>
       </c>
       <c r="J95" s="60" t="n">
         <f aca="false">H95/3500</f>
-        <v>0.216537343702785</v>
+        <v>0.216387489634995</v>
       </c>
       <c r="K95" s="81" t="n">
         <f aca="false">N95/9</f>
-        <v>91.5468032138037</v>
+        <v>91.5816883221476</v>
       </c>
       <c r="L95" s="81" t="n">
         <v>29</v>
@@ -10971,7 +10972,7 @@
       </c>
       <c r="N95" s="69" t="n">
         <f aca="false">MAX(0,I95-(O95+P95))</f>
-        <v>823.921228924233</v>
+        <v>824.235194899329</v>
       </c>
       <c r="O95" s="81" t="n">
         <f aca="false">4*L95</f>
@@ -10983,7 +10984,7 @@
       </c>
       <c r="Q95" s="70" t="n">
         <f aca="false">SUM(N95:P95)</f>
-        <v>1422.39588163565</v>
+        <v>1422.70984761075</v>
       </c>
       <c r="S95" s="79"/>
       <c r="T95" s="76"/>
@@ -10995,7 +10996,7 @@
       <c r="Z95" s="80"/>
       <c r="AA95" s="71" t="n">
         <f aca="false">($H95-Z95)/3500</f>
-        <v>0.216537343702785</v>
+        <v>0.216387489634995</v>
       </c>
       <c r="AB95" s="76"/>
       <c r="AC95" s="76"/>
@@ -11014,7 +11015,7 @@
       </c>
       <c r="C96" s="69" t="n">
         <f aca="false">C95-AA95</f>
-        <v>175.004556240222</v>
+        <v>174.987787086636</v>
       </c>
       <c r="D96" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11022,28 +11023,28 @@
       </c>
       <c r="E96" s="82" t="n">
         <f aca="false">C96-D96</f>
-        <v>24.231227267902</v>
+        <v>24.2144581143161</v>
       </c>
       <c r="F96" s="83"/>
       <c r="G96" s="84" t="n">
         <f aca="false">C96*TDEE!$B$5</f>
-        <v>2177.58220978864</v>
+        <v>2177.37355116108</v>
       </c>
       <c r="H96" s="69" t="n">
         <f aca="false">$E96*31</f>
-        <v>751.168045304961</v>
+        <v>750.648201543799</v>
       </c>
       <c r="I96" s="69" t="n">
         <f aca="false">$G96-$H96</f>
-        <v>1426.41416448368</v>
+        <v>1426.72534961728</v>
       </c>
       <c r="J96" s="60" t="n">
         <f aca="false">H96/3500</f>
-        <v>0.214619441515703</v>
+        <v>0.2144709147268</v>
       </c>
       <c r="K96" s="81" t="n">
         <f aca="false">N96/9</f>
-        <v>91.9932790858065</v>
+        <v>92.0278552117623</v>
       </c>
       <c r="L96" s="81" t="n">
         <v>29</v>
@@ -11054,7 +11055,7 @@
       </c>
       <c r="N96" s="69" t="n">
         <f aca="false">MAX(0,I96-(O96+P96))</f>
-        <v>827.939511772258</v>
+        <v>828.250696905861</v>
       </c>
       <c r="O96" s="81" t="n">
         <f aca="false">4*L96</f>
@@ -11066,7 +11067,7 @@
       </c>
       <c r="Q96" s="70" t="n">
         <f aca="false">SUM(N96:P96)</f>
-        <v>1426.41416448368</v>
+        <v>1426.72534961728</v>
       </c>
       <c r="S96" s="79"/>
       <c r="T96" s="76"/>
@@ -11078,7 +11079,7 @@
       <c r="Z96" s="80"/>
       <c r="AA96" s="71" t="n">
         <f aca="false">($H96-Z96)/3500</f>
-        <v>0.214619441515703</v>
+        <v>0.2144709147268</v>
       </c>
       <c r="AB96" s="76"/>
       <c r="AC96" s="76"/>
@@ -11097,7 +11098,7 @@
       </c>
       <c r="C97" s="69" t="n">
         <f aca="false">C96-AA96</f>
-        <v>174.789936798706</v>
+        <v>174.773316171909</v>
       </c>
       <c r="D97" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11105,28 +11106,28 @@
       </c>
       <c r="E97" s="82" t="n">
         <f aca="false">C97-D97</f>
-        <v>24.0166078263863</v>
+        <v>23.9999871995893</v>
       </c>
       <c r="F97" s="83"/>
       <c r="G97" s="84" t="n">
         <f aca="false">C97*TDEE!$B$5</f>
-        <v>2174.91169944445</v>
+        <v>2174.70488893617</v>
       </c>
       <c r="H97" s="69" t="n">
         <f aca="false">$E97*31</f>
-        <v>744.514842617974</v>
+        <v>743.999603187268</v>
       </c>
       <c r="I97" s="69" t="n">
         <f aca="false">$G97-$H97</f>
-        <v>1430.39685682648</v>
+        <v>1430.7052857489</v>
       </c>
       <c r="J97" s="60" t="n">
         <f aca="false">H97/3500</f>
-        <v>0.212718526462278</v>
+        <v>0.212571315196362</v>
       </c>
       <c r="K97" s="81" t="n">
         <f aca="false">N97/9</f>
-        <v>92.4358004572287</v>
+        <v>92.4700703374974</v>
       </c>
       <c r="L97" s="81" t="n">
         <v>29</v>
@@ -11137,7 +11138,7 @@
       </c>
       <c r="N97" s="69" t="n">
         <f aca="false">MAX(0,I97-(O97+P97))</f>
-        <v>831.922204115058</v>
+        <v>832.230633037477</v>
       </c>
       <c r="O97" s="81" t="n">
         <f aca="false">4*L97</f>
@@ -11149,7 +11150,7 @@
       </c>
       <c r="Q97" s="70" t="n">
         <f aca="false">SUM(N97:P97)</f>
-        <v>1430.39685682648</v>
+        <v>1430.7052857489</v>
       </c>
       <c r="S97" s="79"/>
       <c r="T97" s="76"/>
@@ -11161,7 +11162,7 @@
       <c r="Z97" s="80"/>
       <c r="AA97" s="71" t="n">
         <f aca="false">($H97-Z97)/3500</f>
-        <v>0.212718526462278</v>
+        <v>0.212571315196362</v>
       </c>
       <c r="AB97" s="76"/>
       <c r="AC97" s="76"/>
@@ -11180,7 +11181,7 @@
       </c>
       <c r="C98" s="69" t="n">
         <f aca="false">C97-AA97</f>
-        <v>174.577218272244</v>
+        <v>174.560744856713</v>
       </c>
       <c r="D98" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11188,28 +11189,28 @@
       </c>
       <c r="E98" s="82" t="n">
         <f aca="false">C98-D98</f>
-        <v>23.803889299924</v>
+        <v>23.7874158843929</v>
       </c>
       <c r="F98" s="83"/>
       <c r="G98" s="84" t="n">
         <f aca="false">C98*TDEE!$B$5</f>
-        <v>2172.26484219189</v>
+        <v>2172.05986343382</v>
       </c>
       <c r="H98" s="69" t="n">
         <f aca="false">$E98*31</f>
-        <v>737.920568297643</v>
+        <v>737.409892416181</v>
       </c>
       <c r="I98" s="69" t="n">
         <f aca="false">$G98-$H98</f>
-        <v>1434.34427389424</v>
+        <v>1434.64997101764</v>
       </c>
       <c r="J98" s="60" t="n">
         <f aca="false">H98/3500</f>
-        <v>0.210834448085041</v>
+        <v>0.210688540690337</v>
       </c>
       <c r="K98" s="81" t="n">
         <f aca="false">N98/9</f>
-        <v>92.8744023536468</v>
+        <v>92.9083687006903</v>
       </c>
       <c r="L98" s="81" t="n">
         <v>29</v>
@@ -11220,7 +11221,7 @@
       </c>
       <c r="N98" s="69" t="n">
         <f aca="false">MAX(0,I98-(O98+P98))</f>
-        <v>835.869621182822</v>
+        <v>836.175318306213</v>
       </c>
       <c r="O98" s="81" t="n">
         <f aca="false">4*L98</f>
@@ -11232,7 +11233,7 @@
       </c>
       <c r="Q98" s="70" t="n">
         <f aca="false">SUM(N98:P98)</f>
-        <v>1434.34427389424</v>
+        <v>1434.64997101764</v>
       </c>
       <c r="S98" s="79"/>
       <c r="T98" s="76"/>
@@ -11244,7 +11245,7 @@
       <c r="Z98" s="80"/>
       <c r="AA98" s="71" t="n">
         <f aca="false">($H98-Z98)/3500</f>
-        <v>0.210834448085041</v>
+        <v>0.210688540690337</v>
       </c>
       <c r="AB98" s="76"/>
       <c r="AC98" s="76"/>
@@ -11263,7 +11264,7 @@
       </c>
       <c r="C99" s="69" t="n">
         <f aca="false">C98-AA98</f>
-        <v>174.366383824159</v>
+        <v>174.350056316023</v>
       </c>
       <c r="D99" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11271,28 +11272,28 @@
       </c>
       <c r="E99" s="82" t="n">
         <f aca="false">C99-D99</f>
-        <v>23.5930548518389</v>
+        <v>23.5767273437026</v>
       </c>
       <c r="F99" s="83"/>
       <c r="G99" s="84" t="n">
         <f aca="false">C99*TDEE!$B$5</f>
-        <v>2169.64142853213</v>
+        <v>2169.4382653002</v>
       </c>
       <c r="H99" s="69" t="n">
         <f aca="false">$E99*31</f>
-        <v>731.384700407007</v>
+        <v>730.878547654781</v>
       </c>
       <c r="I99" s="69" t="n">
         <f aca="false">$G99-$H99</f>
-        <v>1438.25672812512</v>
+        <v>1438.55971764542</v>
       </c>
       <c r="J99" s="60" t="n">
         <f aca="false">H99/3500</f>
-        <v>0.208967057259145</v>
+        <v>0.20882244218708</v>
       </c>
       <c r="K99" s="81" t="n">
         <f aca="false">N99/9</f>
-        <v>93.3091194904111</v>
+        <v>93.3427849926665</v>
       </c>
       <c r="L99" s="81" t="n">
         <v>29</v>
@@ -11303,7 +11304,7 @@
       </c>
       <c r="N99" s="69" t="n">
         <f aca="false">MAX(0,I99-(O99+P99))</f>
-        <v>839.7820754137</v>
+        <v>840.085064933998</v>
       </c>
       <c r="O99" s="81" t="n">
         <f aca="false">4*L99</f>
@@ -11315,7 +11316,7 @@
       </c>
       <c r="Q99" s="70" t="n">
         <f aca="false">SUM(N99:P99)</f>
-        <v>1438.25672812512</v>
+        <v>1438.55971764542</v>
       </c>
       <c r="S99" s="79"/>
       <c r="T99" s="76"/>
@@ -11327,7 +11328,7 @@
       <c r="Z99" s="80"/>
       <c r="AA99" s="71" t="n">
         <f aca="false">($H99-Z99)/3500</f>
-        <v>0.208967057259145</v>
+        <v>0.20882244218708</v>
       </c>
       <c r="AB99" s="76"/>
       <c r="AC99" s="76"/>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="C100" s="69" t="n">
         <f aca="false">C99-AA99</f>
-        <v>174.1574167669</v>
+        <v>174.141233873836</v>
       </c>
       <c r="D100" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11354,28 +11355,28 @@
       </c>
       <c r="E100" s="82" t="n">
         <f aca="false">C100-D100</f>
-        <v>23.3840877945798</v>
+        <v>23.3679049015155</v>
       </c>
       <c r="F100" s="83"/>
       <c r="G100" s="84" t="n">
         <f aca="false">C100*TDEE!$B$5</f>
-        <v>2167.04125082193</v>
+        <v>2166.83988703577</v>
       </c>
       <c r="H100" s="69" t="n">
         <f aca="false">$E100*31</f>
-        <v>724.906721631973</v>
+        <v>724.405051946981</v>
       </c>
       <c r="I100" s="69" t="n">
         <f aca="false">$G100-$H100</f>
-        <v>1442.13452918995</v>
+        <v>1442.43483508879</v>
       </c>
       <c r="J100" s="60" t="n">
         <f aca="false">H100/3500</f>
-        <v>0.207116206180564</v>
+        <v>0.206972871984852</v>
       </c>
       <c r="K100" s="81" t="n">
         <f aca="false">N100/9</f>
-        <v>93.7399862753925</v>
+        <v>93.773353597485</v>
       </c>
       <c r="L100" s="81" t="n">
         <v>29</v>
@@ -11386,7 +11387,7 @@
       </c>
       <c r="N100" s="69" t="n">
         <f aca="false">MAX(0,I100-(O100+P100))</f>
-        <v>843.659876478533</v>
+        <v>843.960182377365</v>
       </c>
       <c r="O100" s="81" t="n">
         <f aca="false">4*L100</f>
@@ -11398,7 +11399,7 @@
       </c>
       <c r="Q100" s="70" t="n">
         <f aca="false">SUM(N100:P100)</f>
-        <v>1442.13452918995</v>
+        <v>1442.43483508879</v>
       </c>
       <c r="S100" s="79"/>
       <c r="T100" s="76"/>
@@ -11410,7 +11411,7 @@
       <c r="Z100" s="80"/>
       <c r="AA100" s="71" t="n">
         <f aca="false">($H100-Z100)/3500</f>
-        <v>0.207116206180564</v>
+        <v>0.206972871984852</v>
       </c>
       <c r="AB100" s="76"/>
       <c r="AC100" s="76"/>
@@ -11429,7 +11430,7 @@
       </c>
       <c r="C101" s="69" t="n">
         <f aca="false">C100-AA100</f>
-        <v>173.950300560719</v>
+        <v>173.934261001851</v>
       </c>
       <c r="D101" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11437,28 +11438,28 @@
       </c>
       <c r="E101" s="82" t="n">
         <f aca="false">C101-D101</f>
-        <v>23.1769715883992</v>
+        <v>23.1609320295307</v>
       </c>
       <c r="F101" s="83"/>
       <c r="G101" s="84" t="n">
         <f aca="false">C101*TDEE!$B$5</f>
-        <v>2164.46410325716</v>
+        <v>2164.26452297882</v>
       </c>
       <c r="H101" s="69" t="n">
         <f aca="false">$E101*31</f>
-        <v>718.486119240376</v>
+        <v>717.988892915451</v>
       </c>
       <c r="I101" s="69" t="n">
         <f aca="false">$G101-$H101</f>
-        <v>1445.97798401678</v>
+        <v>1446.27563006337</v>
       </c>
       <c r="J101" s="60" t="n">
         <f aca="false">H101/3500</f>
-        <v>0.205281748354393</v>
+        <v>0.205139683690129</v>
       </c>
       <c r="K101" s="81" t="n">
         <f aca="false">N101/9</f>
-        <v>94.1670368117069</v>
+        <v>94.2001085946609</v>
       </c>
       <c r="L101" s="81" t="n">
         <v>29</v>
@@ -11469,7 +11470,7 @@
       </c>
       <c r="N101" s="69" t="n">
         <f aca="false">MAX(0,I101-(O101+P101))</f>
-        <v>847.503331305362</v>
+        <v>847.800977351949</v>
       </c>
       <c r="O101" s="81" t="n">
         <f aca="false">4*L101</f>
@@ -11481,7 +11482,7 @@
       </c>
       <c r="Q101" s="70" t="n">
         <f aca="false">SUM(N101:P101)</f>
-        <v>1445.97798401678</v>
+        <v>1446.27563006337</v>
       </c>
       <c r="S101" s="79"/>
       <c r="T101" s="76"/>
@@ -11493,7 +11494,7 @@
       <c r="Z101" s="80"/>
       <c r="AA101" s="71" t="n">
         <f aca="false">($H101-Z101)/3500</f>
-        <v>0.205281748354393</v>
+        <v>0.205139683690129</v>
       </c>
       <c r="AB101" s="76"/>
       <c r="AC101" s="76"/>
@@ -11512,7 +11513,7 @@
       </c>
       <c r="C102" s="69" t="n">
         <f aca="false">C101-AA101</f>
-        <v>173.745018812365</v>
+        <v>173.729121318161</v>
       </c>
       <c r="D102" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11520,28 +11521,28 @@
       </c>
       <c r="E102" s="82" t="n">
         <f aca="false">C102-D102</f>
-        <v>22.9716898400448</v>
+        <v>22.9557923458405</v>
       </c>
       <c r="F102" s="83"/>
       <c r="G102" s="84" t="n">
         <f aca="false">C102*TDEE!$B$5</f>
-        <v>2161.90978185654</v>
+        <v>2161.71196928923</v>
       </c>
       <c r="H102" s="69" t="n">
         <f aca="false">$E102*31</f>
-        <v>712.12238504139</v>
+        <v>711.629562721057</v>
       </c>
       <c r="I102" s="69" t="n">
         <f aca="false">$G102-$H102</f>
-        <v>1449.78739681515</v>
+        <v>1450.08240656818</v>
       </c>
       <c r="J102" s="60" t="n">
         <f aca="false">H102/3500</f>
-        <v>0.203463538583254</v>
+        <v>0.203322732206016</v>
       </c>
       <c r="K102" s="81" t="n">
         <f aca="false">N102/9</f>
-        <v>94.590304900414</v>
+        <v>94.6230837618618</v>
       </c>
       <c r="L102" s="81" t="n">
         <v>29</v>
@@ -11552,7 +11553,7 @@
       </c>
       <c r="N102" s="69" t="n">
         <f aca="false">MAX(0,I102-(O102+P102))</f>
-        <v>851.312744103726</v>
+        <v>851.607753856757</v>
       </c>
       <c r="O102" s="81" t="n">
         <f aca="false">4*L102</f>
@@ -11564,7 +11565,7 @@
       </c>
       <c r="Q102" s="70" t="n">
         <f aca="false">SUM(N102:P102)</f>
-        <v>1449.78739681515</v>
+        <v>1450.08240656818</v>
       </c>
       <c r="S102" s="79"/>
       <c r="T102" s="76"/>
@@ -11576,7 +11577,7 @@
       <c r="Z102" s="80"/>
       <c r="AA102" s="71" t="n">
         <f aca="false">($H102-Z102)/3500</f>
-        <v>0.203463538583254</v>
+        <v>0.203322732206016</v>
       </c>
       <c r="AB102" s="76"/>
       <c r="AC102" s="76"/>
@@ -11595,7 +11596,7 @@
       </c>
       <c r="C103" s="69" t="n">
         <f aca="false">C102-AA102</f>
-        <v>173.541555273782</v>
+        <v>173.525798585955</v>
       </c>
       <c r="D103" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11603,28 +11604,28 @@
       </c>
       <c r="E103" s="82" t="n">
         <f aca="false">C103-D103</f>
-        <v>22.7682263014616</v>
+        <v>22.7524696136345</v>
       </c>
       <c r="F103" s="83"/>
       <c r="G103" s="84" t="n">
         <f aca="false">C103*TDEE!$B$5</f>
-        <v>2159.37808444546</v>
+        <v>2159.18202393233</v>
       </c>
       <c r="H103" s="69" t="n">
         <f aca="false">$E103*31</f>
-        <v>705.815015345309</v>
+        <v>705.32655802267</v>
       </c>
       <c r="I103" s="69" t="n">
         <f aca="false">$G103-$H103</f>
-        <v>1453.56306910016</v>
+        <v>1453.85546590966</v>
       </c>
       <c r="J103" s="60" t="n">
         <f aca="false">H103/3500</f>
-        <v>0.201661432955802</v>
+        <v>0.201521873720763</v>
       </c>
       <c r="K103" s="81" t="n">
         <f aca="false">N103/9</f>
-        <v>95.0098240431926</v>
+        <v>95.0423125775818</v>
       </c>
       <c r="L103" s="81" t="n">
         <v>29</v>
@@ -11635,7 +11636,7 @@
       </c>
       <c r="N103" s="69" t="n">
         <f aca="false">MAX(0,I103-(O103+P103))</f>
-        <v>855.088416388733</v>
+        <v>855.380813198236</v>
       </c>
       <c r="O103" s="81" t="n">
         <f aca="false">4*L103</f>
@@ -11647,7 +11648,7 @@
       </c>
       <c r="Q103" s="70" t="n">
         <f aca="false">SUM(N103:P103)</f>
-        <v>1453.56306910016</v>
+        <v>1453.85546590966</v>
       </c>
       <c r="S103" s="79"/>
       <c r="T103" s="76"/>
@@ -11659,7 +11660,7 @@
       <c r="Z103" s="80"/>
       <c r="AA103" s="71" t="n">
         <f aca="false">($H103-Z103)/3500</f>
-        <v>0.201661432955802</v>
+        <v>0.201521873720763</v>
       </c>
       <c r="AB103" s="76"/>
       <c r="AC103" s="76"/>
@@ -11678,7 +11679,7 @@
       </c>
       <c r="C104" s="69" t="n">
         <f aca="false">C103-AA103</f>
-        <v>173.339893840826</v>
+        <v>173.324276712234</v>
       </c>
       <c r="D104" s="81" t="n">
         <f aca="false">$D$3</f>
@@ -11686,28 +11687,28 @@
       </c>
       <c r="E104" s="82" t="n">
         <f aca="false">C104-D104</f>
-        <v>22.5665648685058</v>
+        <v>22.5509477399138</v>
       </c>
       <c r="F104" s="83"/>
       <c r="G104" s="84" t="n">
         <f aca="false">C104*TDEE!$B$5</f>
-        <v>2156.86881064003</v>
+        <v>2156.67448666287</v>
       </c>
       <c r="H104" s="69" t="n">
         <f aca="false">$E104*31</f>
-        <v>699.563510923679</v>
+        <v>699.079379937327</v>
       </c>
       <c r="I104" s="69" t="n">
         <f aca="false">$G104-$H104</f>
-        <v>1457.30529971635</v>
+        <v>1457.59510672554</v>
       </c>
       <c r="J104" s="60" t="n">
         <f aca="false">H104/3500</f>
-        <v>0.199875288835337</v>
+        <v>0.199736965696379</v>
       </c>
       <c r="K104" s="81" t="n">
         <f aca="false">N104/9</f>
-        <v>95.4256274449922</v>
+        <v>95.4578282237912</v>
       </c>
       <c r="L104" s="81" t="n">
         <v>29</v>
@@ -11718,7 +11719,7 @@
       </c>
       <c r="N104" s="69" t="n">
         <f aca="false">MAX(0,I104-(O104+P104))</f>
-        <v>858.83064700493</v>
+        <v>859.12045401412</v>
       </c>
       <c r="O104" s="81" t="n">
         <f aca="false">4*L104</f>
@@ -11730,7 +11731,7 @@
       </c>
       <c r="Q104" s="70" t="n">
         <f aca="false">SUM(N104:P104)</f>
-        <v>1457.30529971635</v>
+        <v>1457.59510672554</v>
       </c>
       <c r="S104" s="79"/>
       <c r="T104" s="76"/>
@@ -11742,7 +11743,7 @@
       <c r="Z104" s="80"/>
       <c r="AA104" s="71" t="n">
         <f aca="false">($H104-Z104)/3500</f>
-        <v>0.199875288835337</v>
+        <v>0.199736965696379</v>
       </c>
       <c r="AB104" s="76"/>
       <c r="AC104" s="76"/>
@@ -11761,7 +11762,7 @@
       </c>
       <c r="C105" s="86" t="n">
         <f aca="false">C104-AA104</f>
-        <v>173.14001855199</v>
+        <v>173.124539746537</v>
       </c>
       <c r="D105" s="87" t="n">
         <f aca="false">$D$3</f>
@@ -11769,28 +11770,28 @@
       </c>
       <c r="E105" s="88" t="n">
         <f aca="false">C105-D105</f>
-        <v>22.3666895796704</v>
+        <v>22.3512107742174</v>
       </c>
       <c r="F105" s="83"/>
       <c r="G105" s="89" t="n">
         <f aca="false">C105*TDEE!$B$5</f>
-        <v>2154.38176183116</v>
+        <v>2154.18915900922</v>
       </c>
       <c r="H105" s="87" t="n">
         <f aca="false">E105*31</f>
-        <v>693.367376969783</v>
+        <v>692.887534000739</v>
       </c>
       <c r="I105" s="87" t="n">
         <f aca="false">G105-H105</f>
-        <v>1461.01438486138</v>
+        <v>1461.30162500849</v>
       </c>
       <c r="J105" s="60" t="n">
         <f aca="false">H105/3500</f>
-        <v>0.19810496484851</v>
+        <v>0.197967866857354</v>
       </c>
       <c r="K105" s="87" t="n">
         <f aca="false">N105/9</f>
-        <v>95.8377480166616</v>
+        <v>95.8696635885627</v>
       </c>
       <c r="L105" s="87" t="n">
         <v>29</v>
@@ -11801,7 +11802,7 @@
       </c>
       <c r="N105" s="86" t="n">
         <f aca="false">MAX(0,I105-(O105+P105))</f>
-        <v>862.539732149954</v>
+        <v>862.826972297064</v>
       </c>
       <c r="O105" s="87" t="n">
         <f aca="false">4*L105</f>
@@ -11813,7 +11814,7 @@
       </c>
       <c r="Q105" s="90" t="n">
         <f aca="false">SUM(N105:P105)</f>
-        <v>1461.01438486138</v>
+        <v>1461.30162500849</v>
       </c>
       <c r="S105" s="91"/>
       <c r="T105" s="92"/>
@@ -11825,7 +11826,7 @@
       <c r="Z105" s="93"/>
       <c r="AA105" s="94" t="n">
         <f aca="false">($H105-Z105)/3500</f>
-        <v>0.19810496484851</v>
+        <v>0.197967866857354</v>
       </c>
       <c r="AB105" s="92"/>
       <c r="AC105" s="92"/>
@@ -11858,8 +11859,8 @@
   </sheetPr>
   <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D94" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P96" activeCellId="0" sqref="P96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E118" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S121" activeCellId="0" sqref="S121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11870,7 +11871,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8"/>
@@ -13698,7 +13699,7 @@
       </c>
       <c r="J58" s="0" t="n">
         <f aca="false">J57-J56</f>
-        <v>-60.9321426033021</v>
+        <v>-60.9321426033019</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15865,67 +15866,67 @@
         <v>115</v>
       </c>
       <c r="C121" s="99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,3,0)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,4,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,5,0)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,6,0)</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="H121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,7,0)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,8,0)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J121" s="0" t="n">
         <f aca="false">$C121*VLOOKUP($B121,FoodDB!$A$2:$I$1006,9,0)</f>
-        <v>125.5</v>
+        <v>251</v>
       </c>
       <c r="L121" s="0" t="n">
         <f aca="false">SUM(G121:G127)</f>
-        <v>455.85</v>
+        <v>469.35</v>
       </c>
       <c r="M121" s="0" t="n">
         <f aca="false">SUM(H121:H127)</f>
-        <v>48.5714285714286</v>
+        <v>60.5714285714286</v>
       </c>
       <c r="N121" s="0" t="n">
         <f aca="false">SUM(I121:I127)</f>
-        <v>418.285714285714</v>
+        <v>518.285714285714</v>
       </c>
       <c r="O121" s="0" t="n">
         <f aca="false">SUM(L121:N121)</f>
-        <v>922.707142857143</v>
+        <v>1048.20714285714</v>
       </c>
       <c r="P121" s="102" t="n">
         <f aca="false">VLOOKUP($A121,LossChart!$A$3:$AG$105,14,0)-L121</f>
-        <v>-14.8446799856893</v>
+        <v>-28.3446799856893</v>
       </c>
       <c r="Q121" s="102" t="n">
         <f aca="false">VLOOKUP($A121,LossChart!$A$3:$AG$105,15,0)-M121</f>
-        <v>31.4285714285714</v>
+        <v>19.4285714285714</v>
       </c>
       <c r="R121" s="102" t="n">
         <f aca="false">VLOOKUP($A121,LossChart!$A$3:$AG$105,16,0)-N121</f>
-        <v>64.188938425708</v>
+        <v>-35.8110615742922</v>
       </c>
       <c r="S121" s="102" t="n">
         <f aca="false">VLOOKUP($A121,LossChart!$A$3:$AG$105,17,0)-O121</f>
-        <v>80.7728298685897</v>
+        <v>-44.7271701314101</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16276,7 +16277,7 @@
       </c>
       <c r="P130" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,14,0)-L130</f>
-        <v>448.305743436828</v>
+        <v>448.971144331002</v>
       </c>
       <c r="Q130" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,15,0)-M130</f>
@@ -16288,7 +16289,7 @@
       </c>
       <c r="S130" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,17,0)-O130</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
       <c r="T130" s="102"/>
       <c r="U130" s="102"/>
@@ -16543,7 +16544,7 @@
       <c r="F138" s="102"/>
       <c r="G138" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>448.305743436828</v>
+        <v>448.971144331002</v>
       </c>
       <c r="H138" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,15,0)</f>
@@ -16555,7 +16556,7 @@
       </c>
       <c r="J138" s="102" t="n">
         <f aca="false">VLOOKUP($A130,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
       <c r="K138" s="102"/>
     </row>
@@ -16565,7 +16566,7 @@
       </c>
       <c r="G139" s="0" t="n">
         <f aca="false">G138-G137</f>
-        <v>448.305743436828</v>
+        <v>448.971144331002</v>
       </c>
       <c r="H139" s="0" t="n">
         <f aca="false">H138-H137</f>
@@ -16577,7 +16578,7 @@
       </c>
       <c r="J139" s="0" t="n">
         <f aca="false">J138-J137</f>
-        <v>1010.78039614825</v>
+        <v>1011.44579704242</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16712,7 +16713,7 @@
       </c>
       <c r="P142" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,14,0)-L142</f>
-        <v>450.610606633969</v>
+        <v>451.266586022387</v>
       </c>
       <c r="Q142" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,15,0)-M142</f>
@@ -16724,7 +16725,7 @@
       </c>
       <c r="S142" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,17,0)-O142</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
       <c r="T142" s="102"/>
       <c r="U142" s="102"/>
@@ -16979,7 +16980,7 @@
       <c r="F150" s="102"/>
       <c r="G150" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>450.610606633969</v>
+        <v>451.266586022387</v>
       </c>
       <c r="H150" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,15,0)</f>
@@ -16991,7 +16992,7 @@
       </c>
       <c r="J150" s="102" t="n">
         <f aca="false">VLOOKUP($A142,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
       <c r="K150" s="102"/>
     </row>
@@ -17001,7 +17002,7 @@
       </c>
       <c r="G151" s="0" t="n">
         <f aca="false">G150-G149</f>
-        <v>450.610606633969</v>
+        <v>451.266586022387</v>
       </c>
       <c r="H151" s="0" t="n">
         <f aca="false">H150-H149</f>
@@ -17013,7 +17014,7 @@
       </c>
       <c r="J151" s="0" t="n">
         <f aca="false">J150-J149</f>
-        <v>1013.08525934539</v>
+        <v>1013.74123873381</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17148,7 +17149,7 @@
       </c>
       <c r="P154" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,14,0)-L154</f>
-        <v>452.882834945779</v>
+        <v>453.529526228878</v>
       </c>
       <c r="Q154" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,15,0)-M154</f>
@@ -17160,7 +17161,7 @@
       </c>
       <c r="S154" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,17,0)-O154</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
       <c r="T154" s="102"/>
       <c r="U154" s="102"/>
@@ -17415,7 +17416,7 @@
       <c r="F162" s="102"/>
       <c r="G162" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>452.882834945779</v>
+        <v>453.529526228878</v>
       </c>
       <c r="H162" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,15,0)</f>
@@ -17427,7 +17428,7 @@
       </c>
       <c r="J162" s="102" t="n">
         <f aca="false">VLOOKUP($A154,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
       <c r="K162" s="102"/>
     </row>
@@ -17437,7 +17438,7 @@
       </c>
       <c r="G163" s="0" t="n">
         <f aca="false">G162-G161</f>
-        <v>452.882834945779</v>
+        <v>453.529526228878</v>
       </c>
       <c r="H163" s="0" t="n">
         <f aca="false">H162-H161</f>
@@ -17449,7 +17450,7 @@
       </c>
       <c r="J163" s="0" t="n">
         <f aca="false">J162-J161</f>
-        <v>1015.3574876572</v>
+        <v>1016.0041789403</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17584,7 +17585,7 @@
       </c>
       <c r="P166" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,14,0)-L166</f>
-        <v>455.122890454234</v>
+        <v>455.760425143617</v>
       </c>
       <c r="Q166" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,15,0)-M166</f>
@@ -17596,7 +17597,7 @@
       </c>
       <c r="S166" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,17,0)-O166</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
       <c r="T166" s="102"/>
       <c r="U166" s="102"/>
@@ -17851,7 +17852,7 @@
       <c r="F174" s="102"/>
       <c r="G174" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>455.122890454234</v>
+        <v>455.760425143617</v>
       </c>
       <c r="H174" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,15,0)</f>
@@ -17863,7 +17864,7 @@
       </c>
       <c r="J174" s="102" t="n">
         <f aca="false">VLOOKUP($A166,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
       <c r="K174" s="102"/>
     </row>
@@ -17873,7 +17874,7 @@
       </c>
       <c r="G175" s="0" t="n">
         <f aca="false">G174-G173</f>
-        <v>455.122890454234</v>
+        <v>455.760425143617</v>
       </c>
       <c r="H175" s="0" t="n">
         <f aca="false">H174-H173</f>
@@ -17885,7 +17886,7 @@
       </c>
       <c r="J175" s="0" t="n">
         <f aca="false">J174-J173</f>
-        <v>1017.59754316566</v>
+        <v>1018.23507785504</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18020,7 +18021,7 @@
       </c>
       <c r="P178" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,14,0)-L178</f>
-        <v>457.331228698626</v>
+        <v>457.959736443803</v>
       </c>
       <c r="Q178" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,15,0)-M178</f>
@@ -18032,7 +18033,7 @@
       </c>
       <c r="S178" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,17,0)-O178</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
       <c r="T178" s="102"/>
       <c r="U178" s="102"/>
@@ -18287,7 +18288,7 @@
       <c r="F186" s="102"/>
       <c r="G186" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>457.331228698626</v>
+        <v>457.959736443803</v>
       </c>
       <c r="H186" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,15,0)</f>
@@ -18299,7 +18300,7 @@
       </c>
       <c r="J186" s="102" t="n">
         <f aca="false">VLOOKUP($A178,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
       <c r="K186" s="102"/>
     </row>
@@ -18309,7 +18310,7 @@
       </c>
       <c r="G187" s="0" t="n">
         <f aca="false">G186-G185</f>
-        <v>457.331228698626</v>
+        <v>457.959736443803</v>
       </c>
       <c r="H187" s="0" t="n">
         <f aca="false">H186-H185</f>
@@ -18321,7 +18322,7 @@
       </c>
       <c r="J187" s="0" t="n">
         <f aca="false">J186-J185</f>
-        <v>1019.80588141005</v>
+        <v>1020.43438915523</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18456,7 +18457,7 @@
       </c>
       <c r="P190" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,14,0)-L190</f>
-        <v>459.508298768201</v>
+        <v>460.127907382957</v>
       </c>
       <c r="Q190" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,15,0)-M190</f>
@@ -18468,7 +18469,7 @@
       </c>
       <c r="S190" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,17,0)-O190</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
       <c r="T190" s="102"/>
       <c r="U190" s="102"/>
@@ -18723,7 +18724,7 @@
       <c r="F198" s="102"/>
       <c r="G198" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>459.508298768201</v>
+        <v>460.127907382957</v>
       </c>
       <c r="H198" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,15,0)</f>
@@ -18735,7 +18736,7 @@
       </c>
       <c r="J198" s="102" t="n">
         <f aca="false">VLOOKUP($A190,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
       <c r="K198" s="102"/>
     </row>
@@ -18745,7 +18746,7 @@
       </c>
       <c r="G199" s="0" t="n">
         <f aca="false">G198-G197</f>
-        <v>459.508298768201</v>
+        <v>460.127907382957</v>
       </c>
       <c r="H199" s="0" t="n">
         <f aca="false">H198-H197</f>
@@ -18757,7 +18758,7 @@
       </c>
       <c r="J199" s="0" t="n">
         <f aca="false">J198-J197</f>
-        <v>1021.98295147962</v>
+        <v>1022.60256009438</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18892,7 +18893,7 @@
       </c>
       <c r="P202" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,14,0)-L202</f>
-        <v>461.654543393487</v>
+        <v>462.265378881874</v>
       </c>
       <c r="Q202" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,15,0)-M202</f>
@@ -18904,7 +18905,7 @@
       </c>
       <c r="S202" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,17,0)-O202</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
       <c r="T202" s="102"/>
       <c r="U202" s="102"/>
@@ -19159,7 +19160,7 @@
       <c r="F210" s="102"/>
       <c r="G210" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>461.654543393487</v>
+        <v>462.265378881874</v>
       </c>
       <c r="H210" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,15,0)</f>
@@ -19171,7 +19172,7 @@
       </c>
       <c r="J210" s="102" t="n">
         <f aca="false">VLOOKUP($A202,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
       <c r="K210" s="102"/>
     </row>
@@ -19181,7 +19182,7 @@
       </c>
       <c r="G211" s="0" t="n">
         <f aca="false">G210-G209</f>
-        <v>461.654543393487</v>
+        <v>462.265378881874</v>
       </c>
       <c r="H211" s="0" t="n">
         <f aca="false">H210-H209</f>
@@ -19193,7 +19194,7 @@
       </c>
       <c r="J211" s="0" t="n">
         <f aca="false">J210-J209</f>
-        <v>1024.12919610491</v>
+        <v>1024.7400315933</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19328,7 +19329,7 @@
       </c>
       <c r="P214" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,14,0)-L214</f>
-        <v>463.770399036326</v>
+        <v>464.372585618286</v>
       </c>
       <c r="Q214" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,15,0)-M214</f>
@@ -19340,7 +19341,7 @@
       </c>
       <c r="S214" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,17,0)-O214</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
       <c r="T214" s="102"/>
       <c r="U214" s="102"/>
@@ -19595,7 +19596,7 @@
       <c r="F222" s="102"/>
       <c r="G222" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>463.770399036326</v>
+        <v>464.372585618286</v>
       </c>
       <c r="H222" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,15,0)</f>
@@ -19607,7 +19608,7 @@
       </c>
       <c r="J222" s="102" t="n">
         <f aca="false">VLOOKUP($A214,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
       <c r="K222" s="102"/>
     </row>
@@ -19617,7 +19618,7 @@
       </c>
       <c r="G223" s="0" t="n">
         <f aca="false">G222-G221</f>
-        <v>463.770399036326</v>
+        <v>464.372585618286</v>
       </c>
       <c r="H223" s="0" t="n">
         <f aca="false">H222-H221</f>
@@ -19629,7 +19630,7 @@
       </c>
       <c r="J223" s="0" t="n">
         <f aca="false">J222-J221</f>
-        <v>1026.24505174775</v>
+        <v>1026.84723832971</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="33.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19764,7 +19765,7 @@
       </c>
       <c r="P226" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,14,0)-L226</f>
-        <v>465.856295978637</v>
+        <v>466.449956115265</v>
       </c>
       <c r="Q226" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,15,0)-M226</f>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="S226" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,17,0)-O226</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
       <c r="T226" s="102"/>
       <c r="U226" s="102"/>
@@ -20031,7 +20032,7 @@
       <c r="F234" s="102"/>
       <c r="G234" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,14,0)</f>
-        <v>465.856295978637</v>
+        <v>466.449956115265</v>
       </c>
       <c r="H234" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,15,0)</f>
@@ -20043,7 +20044,7 @@
       </c>
       <c r="J234" s="102" t="n">
         <f aca="false">VLOOKUP($A226,LossChart!$A$3:$AG$105,17,0)</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
       <c r="K234" s="102"/>
     </row>
@@ -20053,7 +20054,7 @@
       </c>
       <c r="G235" s="0" t="n">
         <f aca="false">G234-G233</f>
-        <v>465.856295978637</v>
+        <v>466.449956115265</v>
       </c>
       <c r="H235" s="0" t="n">
         <f aca="false">H234-H233</f>
@@ -20065,7 +20066,7 @@
       </c>
       <c r="J235" s="0" t="n">
         <f aca="false">J234-J233</f>
-        <v>1028.33094869006</v>
+        <v>1028.92460882669</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20969,7 +20970,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.57"/>

--- a/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
+++ b/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
@@ -2468,9 +2468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
+++ b/Calculators/Spreadsheet Calculators/DGG-LossPotential.xlsx
@@ -2468,9 +2468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,16 +4139,16 @@
         <v>2207</v>
       </c>
       <c r="AH15">
-        <f>AD15*$C15/100</f>
-        <v>61.861886203635606</v>
+        <f>-AD15*$C15/100</f>
+        <v>-61.861886203635606</v>
       </c>
       <c r="AI15">
-        <f t="shared" ref="AI15" si="16">AE15*$C15/100</f>
-        <v>74.749779162726355</v>
+        <f t="shared" ref="AI15:AJ15" si="16">-AE15*$C15/100</f>
+        <v>-74.749779162726355</v>
       </c>
       <c r="AJ15">
-        <f t="shared" ref="AJ15" si="17">AF15*$C15/100</f>
-        <v>55.913627914824481</v>
+        <f t="shared" si="16"/>
+        <v>-55.913627914824481</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6223,7 +6223,7 @@
         <v>150.77332897231949</v>
       </c>
       <c r="E35" s="66">
-        <f t="shared" ref="E35:E66" si="18">C35-D35</f>
+        <f t="shared" ref="E35:E66" si="17">C35-D35</f>
         <v>39.77203730151183</v>
       </c>
       <c r="F35" s="55"/>
@@ -6240,11 +6240,11 @@
         <v>1138.0233985556215</v>
       </c>
       <c r="J35" s="57">
-        <f t="shared" ref="J35:J66" si="19">H35/3500</f>
+        <f t="shared" ref="J35:J66" si="18">H35/3500</f>
         <v>0.35226661609910481</v>
       </c>
       <c r="K35" s="65">
-        <f t="shared" ref="K35:K66" si="20">N35/9</f>
+        <f t="shared" ref="K35:K66" si="19">N35/9</f>
         <v>63.949860649355465</v>
       </c>
       <c r="L35" s="65">
@@ -6255,19 +6255,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N35" s="65">
-        <f t="shared" ref="N35:N66" si="21">MAX(0,I35-(O35+P35))</f>
+        <f t="shared" ref="N35:N66" si="20">MAX(0,I35-(O35+P35))</f>
         <v>575.54874584419917</v>
       </c>
       <c r="O35" s="65">
-        <f t="shared" ref="O35:O66" si="22">4*L35</f>
+        <f t="shared" ref="O35:O66" si="21">4*L35</f>
         <v>80</v>
       </c>
       <c r="P35" s="65">
-        <f t="shared" ref="P35:P66" si="23">4*M35</f>
+        <f t="shared" ref="P35:P66" si="22">4*M35</f>
         <v>482.47465271142238</v>
       </c>
       <c r="Q35" s="66">
-        <f t="shared" ref="Q35:Q66" si="24">SUM(N35:P35)</f>
+        <f t="shared" ref="Q35:Q66" si="23">SUM(N35:P35)</f>
         <v>1138.0233985556215</v>
       </c>
       <c r="S35" s="68">
@@ -6319,19 +6319,19 @@
         <v>43025</v>
       </c>
       <c r="B36" s="64">
-        <f t="shared" ref="B36:B67" si="25">B35+1</f>
+        <f t="shared" ref="B36:B67" si="24">B35+1</f>
         <v>34</v>
       </c>
       <c r="C36" s="65">
-        <f t="shared" ref="C36:C67" si="26">C35-AA35</f>
+        <f t="shared" ref="C36:C67" si="25">C35-AA35</f>
         <v>190.1930996577322</v>
       </c>
       <c r="D36" s="65">
-        <f t="shared" ref="D36:D67" si="27">$D$3</f>
+        <f t="shared" ref="D36:D67" si="26">$D$3</f>
         <v>150.77332897231949</v>
       </c>
       <c r="E36" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>39.419770685412715</v>
       </c>
       <c r="F36" s="55"/>
@@ -6340,19 +6340,19 @@
         <v>2366.5733003587211</v>
       </c>
       <c r="H36" s="65">
-        <f t="shared" ref="H36:H67" si="28">$E36*31</f>
+        <f t="shared" ref="H36:H67" si="27">$E36*31</f>
         <v>1222.0128912477942</v>
       </c>
       <c r="I36" s="65">
-        <f t="shared" ref="I36:I67" si="29">$G36-$H36</f>
+        <f t="shared" ref="I36:I67" si="28">$G36-$H36</f>
         <v>1144.5604091109269</v>
       </c>
       <c r="J36" s="57">
+        <f t="shared" si="18"/>
+        <v>0.3491465403565126</v>
+      </c>
+      <c r="K36" s="65">
         <f t="shared" si="19"/>
-        <v>0.3491465403565126</v>
-      </c>
-      <c r="K36" s="65">
-        <f t="shared" si="20"/>
         <v>64.676195155500508</v>
       </c>
       <c r="L36" s="65">
@@ -6363,19 +6363,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N36" s="65">
+        <f t="shared" si="20"/>
+        <v>582.08575639950459</v>
+      </c>
+      <c r="O36" s="65">
         <f t="shared" si="21"/>
-        <v>582.08575639950459</v>
-      </c>
-      <c r="O36" s="65">
+        <v>80</v>
+      </c>
+      <c r="P36" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P36" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q36" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q36" s="66">
-        <f t="shared" si="24"/>
         <v>1144.5604091109269</v>
       </c>
       <c r="S36" s="68">
@@ -6427,19 +6427,19 @@
         <v>43026</v>
       </c>
       <c r="B37" s="64">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="65">
         <f t="shared" si="25"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="65">
+        <v>189.84395311737569</v>
+      </c>
+      <c r="D37" s="65">
         <f t="shared" si="26"/>
-        <v>189.84395311737569</v>
-      </c>
-      <c r="D37" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E37" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>39.0706241450562</v>
       </c>
       <c r="F37" s="55"/>
@@ -6448,19 +6448,19 @@
         <v>2362.2288689266275</v>
       </c>
       <c r="H37" s="65">
+        <f t="shared" si="27"/>
+        <v>1211.1893484967422</v>
+      </c>
+      <c r="I37" s="65">
         <f t="shared" si="28"/>
-        <v>1211.1893484967422</v>
-      </c>
-      <c r="I37" s="65">
-        <f t="shared" si="29"/>
         <v>1151.0395204298852</v>
       </c>
       <c r="J37" s="57">
+        <f t="shared" si="18"/>
+        <v>0.34605409957049776</v>
+      </c>
+      <c r="K37" s="65">
         <f t="shared" si="19"/>
-        <v>0.34605409957049776</v>
-      </c>
-      <c r="K37" s="65">
-        <f t="shared" si="20"/>
         <v>65.396096413162539</v>
       </c>
       <c r="L37" s="65">
@@ -6471,19 +6471,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N37" s="65">
+        <f t="shared" si="20"/>
+        <v>588.56486771846289</v>
+      </c>
+      <c r="O37" s="65">
         <f t="shared" si="21"/>
-        <v>588.56486771846289</v>
-      </c>
-      <c r="O37" s="65">
+        <v>80</v>
+      </c>
+      <c r="P37" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P37" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q37" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q37" s="66">
-        <f t="shared" si="24"/>
         <v>1151.0395204298852</v>
       </c>
       <c r="S37" s="68">
@@ -6535,19 +6535,19 @@
         <v>43027</v>
       </c>
       <c r="B38" s="64">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="65">
         <f t="shared" si="25"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="65">
+        <v>189.4978990178052</v>
+      </c>
+      <c r="D38" s="65">
         <f t="shared" si="26"/>
-        <v>189.4978990178052</v>
-      </c>
-      <c r="D38" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E38" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>38.724570045485706</v>
       </c>
       <c r="F38" s="55"/>
@@ -6556,19 +6556,19 @@
         <v>2357.9229167443614</v>
       </c>
       <c r="H38" s="65">
+        <f t="shared" si="27"/>
+        <v>1200.4616714100569</v>
+      </c>
+      <c r="I38" s="65">
         <f t="shared" si="28"/>
-        <v>1200.4616714100569</v>
-      </c>
-      <c r="I38" s="65">
-        <f t="shared" si="29"/>
         <v>1157.4612453343045</v>
       </c>
       <c r="J38" s="57">
+        <f t="shared" si="18"/>
+        <v>0.34298904897430194</v>
+      </c>
+      <c r="K38" s="65">
         <f t="shared" si="19"/>
-        <v>0.34298904897430194</v>
-      </c>
-      <c r="K38" s="65">
-        <f t="shared" si="20"/>
         <v>66.109621402542473</v>
       </c>
       <c r="L38" s="65">
@@ -6579,19 +6579,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N38" s="65">
+        <f t="shared" si="20"/>
+        <v>594.9865926228822</v>
+      </c>
+      <c r="O38" s="65">
         <f t="shared" si="21"/>
-        <v>594.9865926228822</v>
-      </c>
-      <c r="O38" s="65">
+        <v>80</v>
+      </c>
+      <c r="P38" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P38" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q38" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q38" s="66">
-        <f t="shared" si="24"/>
         <v>1157.4612453343045</v>
       </c>
       <c r="S38" s="68">
@@ -6643,19 +6643,19 @@
         <v>43028</v>
       </c>
       <c r="B39" s="64">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="65">
         <f t="shared" si="25"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="65">
+        <v>189.15490996883091</v>
+      </c>
+      <c r="D39" s="65">
         <f t="shared" si="26"/>
-        <v>189.15490996883091</v>
-      </c>
-      <c r="D39" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E39" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>38.381580996511417</v>
       </c>
       <c r="F39" s="55"/>
@@ -6664,19 +6664,19 @@
         <v>2353.6551029957095</v>
       </c>
       <c r="H39" s="65">
+        <f t="shared" si="27"/>
+        <v>1189.8290108918538</v>
+      </c>
+      <c r="I39" s="65">
         <f t="shared" si="28"/>
-        <v>1189.8290108918538</v>
-      </c>
-      <c r="I39" s="65">
-        <f t="shared" si="29"/>
         <v>1163.8260921038557</v>
       </c>
       <c r="J39" s="57">
+        <f t="shared" si="18"/>
+        <v>0.33995114596910109</v>
+      </c>
+      <c r="K39" s="65">
         <f t="shared" si="19"/>
-        <v>0.33995114596910109</v>
-      </c>
-      <c r="K39" s="65">
-        <f t="shared" si="20"/>
         <v>66.816826599159256</v>
       </c>
       <c r="L39" s="65">
@@ -6687,19 +6687,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N39" s="65">
+        <f t="shared" si="20"/>
+        <v>601.35143939243335</v>
+      </c>
+      <c r="O39" s="65">
         <f t="shared" si="21"/>
-        <v>601.35143939243335</v>
-      </c>
-      <c r="O39" s="65">
+        <v>80</v>
+      </c>
+      <c r="P39" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P39" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q39" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q39" s="66">
-        <f t="shared" si="24"/>
         <v>1163.8260921038557</v>
       </c>
       <c r="S39" s="68">
@@ -6751,19 +6751,19 @@
         <v>43029</v>
       </c>
       <c r="B40" s="64">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="65">
         <f t="shared" si="25"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="65">
+        <v>188.8149588228618</v>
+      </c>
+      <c r="D40" s="65">
         <f t="shared" si="26"/>
-        <v>188.8149588228618</v>
-      </c>
-      <c r="D40" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E40" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>38.041629850542307</v>
       </c>
       <c r="F40" s="55"/>
@@ -6772,19 +6772,19 @@
         <v>2349.4250898831169</v>
       </c>
       <c r="H40" s="65">
+        <f t="shared" si="27"/>
+        <v>1179.2905253668116</v>
+      </c>
+      <c r="I40" s="65">
         <f t="shared" si="28"/>
-        <v>1179.2905253668116</v>
-      </c>
-      <c r="I40" s="65">
-        <f t="shared" si="29"/>
         <v>1170.1345645163053</v>
       </c>
       <c r="J40" s="57">
+        <f t="shared" si="18"/>
+        <v>0.33694015010480333</v>
+      </c>
+      <c r="K40" s="65">
         <f t="shared" si="19"/>
-        <v>0.33694015010480333</v>
-      </c>
-      <c r="K40" s="65">
-        <f t="shared" si="20"/>
         <v>67.517767978320336</v>
       </c>
       <c r="L40" s="65">
@@ -6795,19 +6795,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N40" s="65">
+        <f t="shared" si="20"/>
+        <v>607.659911804883</v>
+      </c>
+      <c r="O40" s="65">
         <f t="shared" si="21"/>
-        <v>607.659911804883</v>
-      </c>
-      <c r="O40" s="65">
+        <v>80</v>
+      </c>
+      <c r="P40" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P40" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q40" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q40" s="66">
-        <f t="shared" si="24"/>
         <v>1170.1345645163053</v>
       </c>
       <c r="S40" s="68">
@@ -6859,19 +6859,19 @@
         <v>43030</v>
       </c>
       <c r="B41" s="64">
+        <f t="shared" si="24"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="65">
         <f t="shared" si="25"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="65">
+        <v>188.478018672757</v>
+      </c>
+      <c r="D41" s="65">
         <f t="shared" si="26"/>
-        <v>188.478018672757</v>
-      </c>
-      <c r="D41" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E41" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>37.704689700437513</v>
       </c>
       <c r="F41" s="55"/>
@@ -6880,19 +6880,19 @@
         <v>2345.2325426009502</v>
       </c>
       <c r="H41" s="65">
+        <f t="shared" si="27"/>
+        <v>1168.8453807135629</v>
+      </c>
+      <c r="I41" s="65">
         <f t="shared" si="28"/>
-        <v>1168.8453807135629</v>
-      </c>
-      <c r="I41" s="65">
-        <f t="shared" si="29"/>
         <v>1176.3871618873873</v>
       </c>
       <c r="J41" s="57">
+        <f t="shared" si="18"/>
+        <v>0.33395582306101795</v>
+      </c>
+      <c r="K41" s="65">
         <f t="shared" si="19"/>
-        <v>0.33395582306101795</v>
-      </c>
-      <c r="K41" s="65">
-        <f t="shared" si="20"/>
         <v>68.212501019551667</v>
       </c>
       <c r="L41" s="65">
@@ -6903,19 +6903,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N41" s="65">
+        <f t="shared" si="20"/>
+        <v>613.91250917596494</v>
+      </c>
+      <c r="O41" s="65">
         <f t="shared" si="21"/>
-        <v>613.91250917596494</v>
-      </c>
-      <c r="O41" s="65">
+        <v>80</v>
+      </c>
+      <c r="P41" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P41" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q41" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q41" s="66">
-        <f t="shared" si="24"/>
         <v>1176.3871618873873</v>
       </c>
       <c r="S41" s="68">
@@ -6967,19 +6967,19 @@
         <v>43031</v>
       </c>
       <c r="B42" s="64">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="65">
         <f t="shared" si="25"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="65">
+        <v>188.14406284969598</v>
+      </c>
+      <c r="D42" s="65">
         <f t="shared" si="26"/>
-        <v>188.14406284969598</v>
-      </c>
-      <c r="D42" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E42" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>37.370733877376495</v>
       </c>
       <c r="F42" s="55"/>
@@ -6988,19 +6988,19 @@
         <v>2341.077129308997</v>
       </c>
       <c r="H42" s="65">
+        <f t="shared" si="27"/>
+        <v>1158.4927501986713</v>
+      </c>
+      <c r="I42" s="65">
         <f t="shared" si="28"/>
-        <v>1158.4927501986713</v>
-      </c>
-      <c r="I42" s="65">
-        <f t="shared" si="29"/>
         <v>1182.5843791103257</v>
       </c>
       <c r="J42" s="57">
+        <f t="shared" si="18"/>
+        <v>0.33099792862819177</v>
+      </c>
+      <c r="K42" s="65">
         <f t="shared" si="19"/>
-        <v>0.33099792862819177</v>
-      </c>
-      <c r="K42" s="65">
-        <f t="shared" si="20"/>
         <v>68.901080710989262</v>
       </c>
       <c r="L42" s="65">
@@ -7011,19 +7011,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N42" s="65">
+        <f t="shared" si="20"/>
+        <v>620.10972639890338</v>
+      </c>
+      <c r="O42" s="65">
         <f t="shared" si="21"/>
-        <v>620.10972639890338</v>
-      </c>
-      <c r="O42" s="65">
+        <v>80</v>
+      </c>
+      <c r="P42" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P42" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q42" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q42" s="66">
-        <f t="shared" si="24"/>
         <v>1182.5843791103257</v>
       </c>
       <c r="S42" s="68">
@@ -7075,19 +7075,19 @@
         <v>43032</v>
       </c>
       <c r="B43" s="64">
+        <f t="shared" si="24"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="65">
         <f t="shared" si="25"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="65">
+        <v>187.81306492106779</v>
+      </c>
+      <c r="D43" s="65">
         <f t="shared" si="26"/>
-        <v>187.81306492106779</v>
-      </c>
-      <c r="D43" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E43" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>37.039735948748302</v>
       </c>
       <c r="F43" s="55"/>
@@ -7096,19 +7096,19 @@
         <v>2336.9585211062008</v>
       </c>
       <c r="H43" s="65">
+        <f t="shared" si="27"/>
+        <v>1148.2318144111973</v>
+      </c>
+      <c r="I43" s="65">
         <f t="shared" si="28"/>
-        <v>1148.2318144111973</v>
-      </c>
-      <c r="I43" s="65">
-        <f t="shared" si="29"/>
         <v>1188.7267066950035</v>
       </c>
       <c r="J43" s="57">
+        <f t="shared" si="18"/>
+        <v>0.32806623268891349</v>
+      </c>
+      <c r="K43" s="65">
         <f t="shared" si="19"/>
-        <v>0.32806623268891349</v>
-      </c>
-      <c r="K43" s="65">
-        <f t="shared" si="20"/>
         <v>69.583561553731244</v>
       </c>
       <c r="L43" s="65">
@@ -7119,19 +7119,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N43" s="65">
+        <f t="shared" si="20"/>
+        <v>626.25205398358116</v>
+      </c>
+      <c r="O43" s="65">
         <f t="shared" si="21"/>
-        <v>626.25205398358116</v>
-      </c>
-      <c r="O43" s="65">
+        <v>80</v>
+      </c>
+      <c r="P43" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P43" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q43" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q43" s="66">
-        <f t="shared" si="24"/>
         <v>1188.7267066950035</v>
       </c>
       <c r="S43" s="68">
@@ -7183,19 +7183,19 @@
         <v>43033</v>
       </c>
       <c r="B44" s="64">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="65">
         <f t="shared" si="25"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="65">
+        <v>187.48499868837888</v>
+      </c>
+      <c r="D44" s="65">
         <f t="shared" si="26"/>
-        <v>187.48499868837888</v>
-      </c>
-      <c r="D44" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E44" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>36.71166971605939</v>
       </c>
       <c r="F44" s="55"/>
@@ -7204,19 +7204,19 @@
         <v>2332.8763920046299</v>
       </c>
       <c r="H44" s="65">
+        <f t="shared" si="27"/>
+        <v>1138.0617611978412</v>
+      </c>
+      <c r="I44" s="65">
         <f t="shared" si="28"/>
-        <v>1138.0617611978412</v>
-      </c>
-      <c r="I44" s="65">
-        <f t="shared" si="29"/>
         <v>1194.8146308067887</v>
       </c>
       <c r="J44" s="57">
+        <f t="shared" si="18"/>
+        <v>0.32516050319938317</v>
+      </c>
+      <c r="K44" s="65">
         <f t="shared" si="19"/>
-        <v>0.32516050319938317</v>
-      </c>
-      <c r="K44" s="65">
-        <f t="shared" si="20"/>
         <v>70.259997566151824</v>
       </c>
       <c r="L44" s="65">
@@ -7227,19 +7227,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N44" s="65">
+        <f t="shared" si="20"/>
+        <v>632.3399780953664</v>
+      </c>
+      <c r="O44" s="65">
         <f t="shared" si="21"/>
-        <v>632.3399780953664</v>
-      </c>
-      <c r="O44" s="65">
+        <v>80</v>
+      </c>
+      <c r="P44" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P44" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q44" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q44" s="66">
-        <f t="shared" si="24"/>
         <v>1194.8146308067887</v>
       </c>
       <c r="S44" s="68">
@@ -7291,19 +7291,19 @@
         <v>43034</v>
       </c>
       <c r="B45" s="64">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="65">
         <f t="shared" si="25"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="65">
+        <v>187.1598381851795</v>
+      </c>
+      <c r="D45" s="65">
         <f t="shared" si="26"/>
-        <v>187.1598381851795</v>
-      </c>
-      <c r="D45" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E45" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>36.386509212860005</v>
       </c>
       <c r="F45" s="55"/>
@@ -7312,19 +7312,19 @@
         <v>2328.8304189036726</v>
       </c>
       <c r="H45" s="65">
+        <f t="shared" si="27"/>
+        <v>1127.9817855986603</v>
+      </c>
+      <c r="I45" s="65">
         <f t="shared" si="28"/>
-        <v>1127.9817855986603</v>
-      </c>
-      <c r="I45" s="65">
-        <f t="shared" si="29"/>
         <v>1200.8486333050123</v>
       </c>
       <c r="J45" s="57">
+        <f t="shared" si="18"/>
+        <v>0.32228051017104581</v>
+      </c>
+      <c r="K45" s="65">
         <f t="shared" si="19"/>
-        <v>0.32228051017104581</v>
-      </c>
-      <c r="K45" s="65">
-        <f t="shared" si="20"/>
         <v>70.930442288176664</v>
       </c>
       <c r="L45" s="65">
@@ -7335,19 +7335,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N45" s="65">
+        <f t="shared" si="20"/>
+        <v>638.37398059358998</v>
+      </c>
+      <c r="O45" s="65">
         <f t="shared" si="21"/>
-        <v>638.37398059358998</v>
-      </c>
-      <c r="O45" s="65">
+        <v>80</v>
+      </c>
+      <c r="P45" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P45" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q45" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q45" s="66">
-        <f t="shared" si="24"/>
         <v>1200.8486333050123</v>
       </c>
       <c r="S45" s="68">
@@ -7399,19 +7399,19 @@
         <v>43035</v>
       </c>
       <c r="B46" s="64">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="65">
         <f t="shared" si="25"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="65">
+        <v>186.83755767500844</v>
+      </c>
+      <c r="D46" s="65">
         <f t="shared" si="26"/>
-        <v>186.83755767500844</v>
-      </c>
-      <c r="D46" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E46" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>36.064228702688951</v>
       </c>
       <c r="F46" s="55"/>
@@ -7420,19 +7420,19 @@
         <v>2324.8202815644668</v>
       </c>
       <c r="H46" s="65">
+        <f t="shared" si="27"/>
+        <v>1117.9910897833574</v>
+      </c>
+      <c r="I46" s="65">
         <f t="shared" si="28"/>
-        <v>1117.9910897833574</v>
-      </c>
-      <c r="I46" s="65">
-        <f t="shared" si="29"/>
         <v>1206.8291917811093</v>
       </c>
       <c r="J46" s="57">
+        <f t="shared" si="18"/>
+        <v>0.31942602565238781</v>
+      </c>
+      <c r="K46" s="65">
         <f t="shared" si="19"/>
-        <v>0.31942602565238781</v>
-      </c>
-      <c r="K46" s="65">
-        <f t="shared" si="20"/>
         <v>71.594948785520785</v>
       </c>
       <c r="L46" s="65">
@@ -7443,19 +7443,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N46" s="65">
+        <f t="shared" si="20"/>
+        <v>644.35453906968701</v>
+      </c>
+      <c r="O46" s="65">
         <f t="shared" si="21"/>
-        <v>644.35453906968701</v>
-      </c>
-      <c r="O46" s="65">
+        <v>80</v>
+      </c>
+      <c r="P46" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P46" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q46" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q46" s="66">
-        <f t="shared" si="24"/>
         <v>1206.8291917811093</v>
       </c>
       <c r="S46" s="68">
@@ -7507,19 +7507,19 @@
         <v>43036</v>
       </c>
       <c r="B47" s="64">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="65">
         <f t="shared" si="25"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="65">
+        <v>186.51813164935606</v>
+      </c>
+      <c r="D47" s="65">
         <f t="shared" si="26"/>
-        <v>186.51813164935606</v>
-      </c>
-      <c r="D47" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E47" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>35.744802677036574</v>
       </c>
       <c r="F47" s="55"/>
@@ -7528,19 +7528,19 @@
         <v>2320.8456625845511</v>
       </c>
       <c r="H47" s="65">
+        <f t="shared" si="27"/>
+        <v>1108.0888829881337</v>
+      </c>
+      <c r="I47" s="65">
         <f t="shared" si="28"/>
-        <v>1108.0888829881337</v>
-      </c>
-      <c r="I47" s="65">
-        <f t="shared" si="29"/>
         <v>1212.7567795964173</v>
       </c>
       <c r="J47" s="57">
+        <f t="shared" si="18"/>
+        <v>0.31659682371089537</v>
+      </c>
+      <c r="K47" s="65">
         <f t="shared" si="19"/>
-        <v>0.31659682371089537</v>
-      </c>
-      <c r="K47" s="65">
-        <f t="shared" si="20"/>
         <v>72.253569653888334</v>
       </c>
       <c r="L47" s="65">
@@ -7551,19 +7551,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N47" s="65">
+        <f t="shared" si="20"/>
+        <v>650.28212688499502</v>
+      </c>
+      <c r="O47" s="65">
         <f t="shared" si="21"/>
-        <v>650.28212688499502</v>
-      </c>
-      <c r="O47" s="65">
+        <v>80</v>
+      </c>
+      <c r="P47" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P47" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q47" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q47" s="66">
-        <f t="shared" si="24"/>
         <v>1212.7567795964173</v>
       </c>
       <c r="S47" s="68">
@@ -7615,19 +7615,19 @@
         <v>43037</v>
       </c>
       <c r="B48" s="64">
+        <f t="shared" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="65">
         <f t="shared" si="25"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="65">
+        <v>186.20153482564518</v>
+      </c>
+      <c r="D48" s="65">
         <f t="shared" si="26"/>
-        <v>186.20153482564518</v>
-      </c>
-      <c r="D48" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E48" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>35.428205853325693</v>
       </c>
       <c r="F48" s="55"/>
@@ -7636,19 +7636,19 @@
         <v>2316.9062473727431</v>
       </c>
       <c r="H48" s="65">
+        <f t="shared" si="27"/>
+        <v>1098.2743814530966</v>
+      </c>
+      <c r="I48" s="65">
         <f t="shared" si="28"/>
-        <v>1098.2743814530966</v>
-      </c>
-      <c r="I48" s="65">
-        <f t="shared" si="29"/>
         <v>1218.6318659196465</v>
       </c>
       <c r="J48" s="57">
+        <f t="shared" si="18"/>
+        <v>0.31379268041517044</v>
+      </c>
+      <c r="K48" s="65">
         <f t="shared" si="19"/>
-        <v>0.31379268041517044</v>
-      </c>
-      <c r="K48" s="65">
-        <f t="shared" si="20"/>
         <v>72.906357023136025</v>
       </c>
       <c r="L48" s="65">
@@ -7659,19 +7659,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N48" s="65">
+        <f t="shared" si="20"/>
+        <v>656.15721320822422</v>
+      </c>
+      <c r="O48" s="65">
         <f t="shared" si="21"/>
-        <v>656.15721320822422</v>
-      </c>
-      <c r="O48" s="65">
+        <v>80</v>
+      </c>
+      <c r="P48" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P48" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q48" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q48" s="66">
-        <f t="shared" si="24"/>
         <v>1218.6318659196465</v>
       </c>
       <c r="S48" s="68">
@@ -7723,19 +7723,19 @@
         <v>43038</v>
       </c>
       <c r="B49" s="64">
+        <f t="shared" si="24"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="65">
         <f t="shared" si="25"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="65">
+        <v>185.88774214523002</v>
+      </c>
+      <c r="D49" s="65">
         <f t="shared" si="26"/>
-        <v>185.88774214523002</v>
-      </c>
-      <c r="D49" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E49" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>35.114413172910531</v>
       </c>
       <c r="F49" s="55"/>
@@ -7744,19 +7744,19 @@
         <v>2313.0017241242399</v>
       </c>
       <c r="H49" s="65">
+        <f t="shared" si="27"/>
+        <v>1088.5468083602264</v>
+      </c>
+      <c r="I49" s="65">
         <f t="shared" si="28"/>
-        <v>1088.5468083602264</v>
-      </c>
-      <c r="I49" s="65">
-        <f t="shared" si="29"/>
         <v>1224.4549157640135</v>
       </c>
       <c r="J49" s="57">
+        <f t="shared" si="18"/>
+        <v>0.31101337381720751</v>
+      </c>
+      <c r="K49" s="65">
         <f t="shared" si="19"/>
-        <v>0.31101337381720751</v>
-      </c>
-      <c r="K49" s="65">
-        <f t="shared" si="20"/>
         <v>73.553362561399027</v>
       </c>
       <c r="L49" s="65">
@@ -7767,19 +7767,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N49" s="65">
+        <f t="shared" si="20"/>
+        <v>661.98026305259123</v>
+      </c>
+      <c r="O49" s="65">
         <f t="shared" si="21"/>
-        <v>661.98026305259123</v>
-      </c>
-      <c r="O49" s="65">
+        <v>80</v>
+      </c>
+      <c r="P49" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P49" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q49" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q49" s="66">
-        <f t="shared" si="24"/>
         <v>1224.4549157640135</v>
       </c>
       <c r="S49" s="68">
@@ -7831,19 +7831,19 @@
         <v>43039</v>
       </c>
       <c r="B50" s="64">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="65">
         <f t="shared" si="25"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="65">
+        <v>185.5767287714128</v>
+      </c>
+      <c r="D50" s="65">
         <f t="shared" si="26"/>
-        <v>185.5767287714128</v>
-      </c>
-      <c r="D50" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E50" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>34.803399799093313</v>
       </c>
       <c r="F50" s="55"/>
@@ -7852,19 +7852,19 @@
         <v>2309.1317837959373</v>
       </c>
       <c r="H50" s="65">
+        <f t="shared" si="27"/>
+        <v>1078.9053937718927</v>
+      </c>
+      <c r="I50" s="65">
         <f t="shared" si="28"/>
-        <v>1078.9053937718927</v>
-      </c>
-      <c r="I50" s="65">
-        <f t="shared" si="29"/>
         <v>1230.2263900240446</v>
       </c>
       <c r="J50" s="57">
+        <f t="shared" si="18"/>
+        <v>0.30825868393482647</v>
+      </c>
+      <c r="K50" s="65">
         <f t="shared" si="19"/>
-        <v>0.30825868393482647</v>
-      </c>
-      <c r="K50" s="65">
-        <f t="shared" si="20"/>
         <v>74.194637479180244</v>
       </c>
       <c r="L50" s="65">
@@ -7875,19 +7875,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N50" s="65">
+        <f t="shared" si="20"/>
+        <v>667.75173731262225</v>
+      </c>
+      <c r="O50" s="65">
         <f t="shared" si="21"/>
-        <v>667.75173731262225</v>
-      </c>
-      <c r="O50" s="65">
+        <v>80</v>
+      </c>
+      <c r="P50" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P50" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q50" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q50" s="66">
-        <f t="shared" si="24"/>
         <v>1230.2263900240446</v>
       </c>
       <c r="S50" s="68">
@@ -7939,19 +7939,19 @@
         <v>43040</v>
       </c>
       <c r="B51" s="64">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="65">
         <f t="shared" si="25"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="65">
+        <v>185.26847008747797</v>
+      </c>
+      <c r="D51" s="65">
         <f t="shared" si="26"/>
-        <v>185.26847008747797</v>
-      </c>
-      <c r="D51" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E51" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>34.495141115158475</v>
       </c>
       <c r="F51" s="55"/>
@@ -7960,19 +7960,19 @@
         <v>2305.2961200819714</v>
       </c>
       <c r="H51" s="65">
+        <f t="shared" si="27"/>
+        <v>1069.3493745699127</v>
+      </c>
+      <c r="I51" s="65">
         <f t="shared" si="28"/>
-        <v>1069.3493745699127</v>
-      </c>
-      <c r="I51" s="65">
-        <f t="shared" si="29"/>
         <v>1235.9467455120587</v>
       </c>
       <c r="J51" s="57">
+        <f t="shared" si="18"/>
+        <v>0.30552839273426075</v>
+      </c>
+      <c r="K51" s="65">
         <f t="shared" si="19"/>
-        <v>0.30552839273426075</v>
-      </c>
-      <c r="K51" s="65">
-        <f t="shared" si="20"/>
         <v>74.830232533404043</v>
       </c>
       <c r="L51" s="65">
@@ -7983,19 +7983,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N51" s="65">
+        <f t="shared" si="20"/>
+        <v>673.47209280063635</v>
+      </c>
+      <c r="O51" s="65">
         <f t="shared" si="21"/>
-        <v>673.47209280063635</v>
-      </c>
-      <c r="O51" s="65">
+        <v>80</v>
+      </c>
+      <c r="P51" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P51" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q51" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q51" s="66">
-        <f t="shared" si="24"/>
         <v>1235.9467455120587</v>
       </c>
       <c r="S51" s="68">
@@ -8047,19 +8047,19 @@
         <v>43041</v>
       </c>
       <c r="B52" s="64">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="65">
         <f t="shared" si="25"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="65">
+        <v>184.96294169474371</v>
+      </c>
+      <c r="D52" s="65">
         <f t="shared" si="26"/>
-        <v>184.96294169474371</v>
-      </c>
-      <c r="D52" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E52" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>34.189612722424215</v>
       </c>
       <c r="F52" s="55"/>
@@ -8068,19 +8068,19 @@
         <v>2301.4944293894719</v>
       </c>
       <c r="H52" s="65">
+        <f t="shared" si="27"/>
+        <v>1059.8779943951506</v>
+      </c>
+      <c r="I52" s="65">
         <f t="shared" si="28"/>
-        <v>1059.8779943951506</v>
-      </c>
-      <c r="I52" s="65">
-        <f t="shared" si="29"/>
         <v>1241.6164349943213</v>
       </c>
       <c r="J52" s="57">
+        <f t="shared" si="18"/>
+        <v>0.30282228411290019</v>
+      </c>
+      <c r="K52" s="65">
         <f t="shared" si="19"/>
-        <v>0.30282228411290019</v>
-      </c>
-      <c r="K52" s="65">
-        <f t="shared" si="20"/>
         <v>75.460198031433208</v>
       </c>
       <c r="L52" s="65">
@@ -8091,19 +8091,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N52" s="65">
+        <f t="shared" si="20"/>
+        <v>679.14178228289893</v>
+      </c>
+      <c r="O52" s="65">
         <f t="shared" si="21"/>
-        <v>679.14178228289893</v>
-      </c>
-      <c r="O52" s="65">
+        <v>80</v>
+      </c>
+      <c r="P52" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P52" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q52" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q52" s="66">
-        <f t="shared" si="24"/>
         <v>1241.6164349943213</v>
       </c>
       <c r="S52" s="68">
@@ -8155,19 +8155,19 @@
         <v>43042</v>
       </c>
       <c r="B53" s="64">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="65">
         <f t="shared" si="25"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="65">
+        <v>184.66011941063081</v>
+      </c>
+      <c r="D53" s="65">
         <f t="shared" si="26"/>
-        <v>184.66011941063081</v>
-      </c>
-      <c r="D53" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E53" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>33.886790438311323</v>
       </c>
       <c r="F53" s="55"/>
@@ -8176,19 +8176,19 @@
         <v>2297.7264108145346</v>
       </c>
       <c r="H53" s="65">
+        <f t="shared" si="27"/>
+        <v>1050.4905035876509</v>
+      </c>
+      <c r="I53" s="65">
         <f t="shared" si="28"/>
-        <v>1050.4905035876509</v>
-      </c>
-      <c r="I53" s="65">
-        <f t="shared" si="29"/>
         <v>1247.2359072268837</v>
       </c>
       <c r="J53" s="57">
+        <f t="shared" si="18"/>
+        <v>0.30014014388218596</v>
+      </c>
+      <c r="K53" s="65">
         <f t="shared" si="19"/>
-        <v>0.30014014388218596</v>
-      </c>
-      <c r="K53" s="65">
-        <f t="shared" si="20"/>
         <v>76.084583835051262</v>
       </c>
       <c r="L53" s="65">
@@ -8199,19 +8199,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N53" s="65">
+        <f t="shared" si="20"/>
+        <v>684.76125451546136</v>
+      </c>
+      <c r="O53" s="65">
         <f t="shared" si="21"/>
-        <v>684.76125451546136</v>
-      </c>
-      <c r="O53" s="65">
+        <v>80</v>
+      </c>
+      <c r="P53" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P53" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q53" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q53" s="66">
-        <f t="shared" si="24"/>
         <v>1247.2359072268837</v>
       </c>
       <c r="S53" s="68">
@@ -8263,19 +8263,19 @@
         <v>43043</v>
       </c>
       <c r="B54" s="64">
+        <f t="shared" si="24"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="65">
         <f t="shared" si="25"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="65">
+        <v>184.35997926674864</v>
+      </c>
+      <c r="D54" s="65">
         <f t="shared" si="26"/>
-        <v>184.35997926674864</v>
-      </c>
-      <c r="D54" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E54" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>33.586650294429148</v>
       </c>
       <c r="F54" s="55"/>
@@ -8284,19 +8284,19 @@
         <v>2293.991766118404</v>
       </c>
       <c r="H54" s="65">
+        <f t="shared" si="27"/>
+        <v>1041.1861591273037</v>
+      </c>
+      <c r="I54" s="65">
         <f t="shared" si="28"/>
-        <v>1041.1861591273037</v>
-      </c>
-      <c r="I54" s="65">
-        <f t="shared" si="29"/>
         <v>1252.8056069911004</v>
       </c>
       <c r="J54" s="57">
+        <f t="shared" si="18"/>
+        <v>0.29748175975065821</v>
+      </c>
+      <c r="K54" s="65">
         <f t="shared" si="19"/>
-        <v>0.29748175975065821</v>
-      </c>
-      <c r="K54" s="65">
-        <f t="shared" si="20"/>
         <v>76.703439364408666</v>
       </c>
       <c r="L54" s="65">
@@ -8307,19 +8307,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N54" s="65">
+        <f t="shared" si="20"/>
+        <v>690.33095427967805</v>
+      </c>
+      <c r="O54" s="65">
         <f t="shared" si="21"/>
-        <v>690.33095427967805</v>
-      </c>
-      <c r="O54" s="65">
+        <v>80</v>
+      </c>
+      <c r="P54" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P54" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q54" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q54" s="66">
-        <f t="shared" si="24"/>
         <v>1252.8056069911004</v>
       </c>
       <c r="S54" s="68">
@@ -8371,19 +8371,19 @@
         <v>43044</v>
       </c>
       <c r="B55" s="64">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="65">
         <f t="shared" si="25"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="65">
+        <v>184.06249750699797</v>
+      </c>
+      <c r="D55" s="65">
         <f t="shared" si="26"/>
-        <v>184.06249750699797</v>
-      </c>
-      <c r="D55" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E55" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>33.289168534678481</v>
       </c>
       <c r="F55" s="55"/>
@@ -8392,19 +8392,19 @@
         <v>2290.2901997038675</v>
       </c>
       <c r="H55" s="65">
+        <f t="shared" si="27"/>
+        <v>1031.9642245750329</v>
+      </c>
+      <c r="I55" s="65">
         <f t="shared" si="28"/>
-        <v>1031.9642245750329</v>
-      </c>
-      <c r="I55" s="65">
-        <f t="shared" si="29"/>
         <v>1258.3259751288347</v>
       </c>
       <c r="J55" s="57">
+        <f t="shared" si="18"/>
+        <v>0.29484692130715223</v>
+      </c>
+      <c r="K55" s="65">
         <f t="shared" si="19"/>
-        <v>0.29484692130715223</v>
-      </c>
-      <c r="K55" s="65">
-        <f t="shared" si="20"/>
         <v>77.316813601934712</v>
       </c>
       <c r="L55" s="65">
@@ -8415,19 +8415,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N55" s="65">
+        <f t="shared" si="20"/>
+        <v>695.85132241741235</v>
+      </c>
+      <c r="O55" s="65">
         <f t="shared" si="21"/>
-        <v>695.85132241741235</v>
-      </c>
-      <c r="O55" s="65">
+        <v>80</v>
+      </c>
+      <c r="P55" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P55" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q55" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q55" s="66">
-        <f t="shared" si="24"/>
         <v>1258.3259751288347</v>
       </c>
       <c r="S55" s="68">
@@ -8479,19 +8479,19 @@
         <v>43045</v>
       </c>
       <c r="B56" s="64">
+        <f t="shared" si="24"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="65">
         <f t="shared" si="25"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="65">
+        <v>183.76765058569083</v>
+      </c>
+      <c r="D56" s="65">
         <f t="shared" si="26"/>
-        <v>183.76765058569083</v>
-      </c>
-      <c r="D56" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E56" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>32.994321613371341</v>
       </c>
       <c r="F56" s="55"/>
@@ -8500,19 +8500,19 @@
         <v>2286.6214185918602</v>
       </c>
       <c r="H56" s="65">
+        <f t="shared" si="27"/>
+        <v>1022.8239700145116</v>
+      </c>
+      <c r="I56" s="65">
         <f t="shared" si="28"/>
-        <v>1022.8239700145116</v>
-      </c>
-      <c r="I56" s="65">
-        <f t="shared" si="29"/>
         <v>1263.7974485773486</v>
       </c>
       <c r="J56" s="57">
+        <f t="shared" si="18"/>
+        <v>0.29223542000414615</v>
+      </c>
+      <c r="K56" s="65">
         <f t="shared" si="19"/>
-        <v>0.29223542000414615</v>
-      </c>
-      <c r="K56" s="65">
-        <f t="shared" si="20"/>
         <v>77.924755096214028</v>
       </c>
       <c r="L56" s="65">
@@ -8523,19 +8523,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N56" s="65">
+        <f t="shared" si="20"/>
+        <v>701.32279586592631</v>
+      </c>
+      <c r="O56" s="65">
         <f t="shared" si="21"/>
-        <v>701.32279586592631</v>
-      </c>
-      <c r="O56" s="65">
+        <v>80</v>
+      </c>
+      <c r="P56" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P56" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q56" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q56" s="66">
-        <f t="shared" si="24"/>
         <v>1263.7974485773486</v>
       </c>
       <c r="S56" s="68">
@@ -8587,19 +8587,19 @@
         <v>43046</v>
       </c>
       <c r="B57" s="64">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="65">
         <f t="shared" si="25"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="65">
+        <v>183.47541516568668</v>
+      </c>
+      <c r="D57" s="65">
         <f t="shared" si="26"/>
-        <v>183.47541516568668</v>
-      </c>
-      <c r="D57" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E57" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>32.702086193367194</v>
       </c>
       <c r="F57" s="55"/>
@@ -8608,19 +8608,19 @@
         <v>2282.985132398273</v>
       </c>
       <c r="H57" s="65">
+        <f t="shared" si="27"/>
+        <v>1013.764671994383</v>
+      </c>
+      <c r="I57" s="65">
         <f t="shared" si="28"/>
-        <v>1013.764671994383</v>
-      </c>
-      <c r="I57" s="65">
-        <f t="shared" si="29"/>
         <v>1269.22046040389</v>
       </c>
       <c r="J57" s="57">
+        <f t="shared" si="18"/>
+        <v>0.28964704914125228</v>
+      </c>
+      <c r="K57" s="65">
         <f t="shared" si="19"/>
-        <v>0.28964704914125228</v>
-      </c>
-      <c r="K57" s="65">
-        <f t="shared" si="20"/>
         <v>78.527311965829739</v>
       </c>
       <c r="L57" s="65">
@@ -8631,19 +8631,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N57" s="65">
+        <f t="shared" si="20"/>
+        <v>706.74580769246768</v>
+      </c>
+      <c r="O57" s="65">
         <f t="shared" si="21"/>
-        <v>706.74580769246768</v>
-      </c>
-      <c r="O57" s="65">
+        <v>80</v>
+      </c>
+      <c r="P57" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P57" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q57" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q57" s="66">
-        <f t="shared" si="24"/>
         <v>1269.22046040389</v>
       </c>
       <c r="S57" s="68">
@@ -8695,19 +8695,19 @@
         <v>43047</v>
       </c>
       <c r="B58" s="64">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="65">
         <f t="shared" si="25"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="65">
+        <v>183.18576811654543</v>
+      </c>
+      <c r="D58" s="65">
         <f t="shared" si="26"/>
-        <v>183.18576811654543</v>
-      </c>
-      <c r="D58" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E58" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>32.412439144225942</v>
       </c>
       <c r="F58" s="55"/>
@@ -8716,19 +8716,19 @@
         <v>2279.3810533109722</v>
       </c>
       <c r="H58" s="65">
+        <f t="shared" si="27"/>
+        <v>1004.7856134710042</v>
+      </c>
+      <c r="I58" s="65">
         <f t="shared" si="28"/>
-        <v>1004.7856134710042</v>
-      </c>
-      <c r="I58" s="65">
-        <f t="shared" si="29"/>
         <v>1274.5954398399681</v>
       </c>
       <c r="J58" s="57">
+        <f t="shared" si="18"/>
+        <v>0.28708160384885834</v>
+      </c>
+      <c r="K58" s="65">
         <f t="shared" si="19"/>
-        <v>0.28708160384885834</v>
-      </c>
-      <c r="K58" s="65">
-        <f t="shared" si="20"/>
         <v>79.124531903171757</v>
       </c>
       <c r="L58" s="65">
@@ -8739,19 +8739,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N58" s="65">
+        <f t="shared" si="20"/>
+        <v>712.12078712854577</v>
+      </c>
+      <c r="O58" s="65">
         <f t="shared" si="21"/>
-        <v>712.12078712854577</v>
-      </c>
-      <c r="O58" s="65">
+        <v>80</v>
+      </c>
+      <c r="P58" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P58" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q58" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q58" s="66">
-        <f t="shared" si="24"/>
         <v>1274.5954398399681</v>
       </c>
       <c r="S58" s="68">
@@ -8803,19 +8803,19 @@
         <v>43048</v>
       </c>
       <c r="B59" s="64">
+        <f t="shared" si="24"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="65">
         <f t="shared" si="25"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="65">
+        <v>182.89868651269657</v>
+      </c>
+      <c r="D59" s="65">
         <f t="shared" si="26"/>
-        <v>182.89868651269657</v>
-      </c>
-      <c r="D59" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E59" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>32.125357540377081</v>
       </c>
       <c r="F59" s="55"/>
@@ -8824,19 +8824,19 @@
         <v>2275.8088960670157</v>
       </c>
       <c r="H59" s="65">
+        <f t="shared" si="27"/>
+        <v>995.88608375168951</v>
+      </c>
+      <c r="I59" s="65">
         <f t="shared" si="28"/>
-        <v>995.88608375168951</v>
-      </c>
-      <c r="I59" s="65">
-        <f t="shared" si="29"/>
         <v>1279.9228123153262</v>
       </c>
       <c r="J59" s="57">
+        <f t="shared" si="18"/>
+        <v>0.28453888107191128</v>
+      </c>
+      <c r="K59" s="65">
         <f t="shared" si="19"/>
-        <v>0.28453888107191128</v>
-      </c>
-      <c r="K59" s="65">
-        <f t="shared" si="20"/>
         <v>79.716462178211543</v>
       </c>
       <c r="L59" s="65">
@@ -8847,19 +8847,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N59" s="65">
+        <f t="shared" si="20"/>
+        <v>717.44815960390383</v>
+      </c>
+      <c r="O59" s="65">
         <f t="shared" si="21"/>
-        <v>717.44815960390383</v>
-      </c>
-      <c r="O59" s="65">
+        <v>80</v>
+      </c>
+      <c r="P59" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P59" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q59" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q59" s="66">
-        <f t="shared" si="24"/>
         <v>1279.9228123153262</v>
       </c>
       <c r="S59" s="68">
@@ -8911,19 +8911,19 @@
         <v>43049</v>
       </c>
       <c r="B60" s="64">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="65">
         <f t="shared" si="25"/>
-        <v>58</v>
-      </c>
-      <c r="C60" s="65">
+        <v>182.61414763162466</v>
+      </c>
+      <c r="D60" s="65">
         <f t="shared" si="26"/>
-        <v>182.61414763162466</v>
-      </c>
-      <c r="D60" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E60" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>31.840818659305171</v>
       </c>
       <c r="F60" s="55"/>
@@ -8932,19 +8932,19 @@
         <v>2272.2683779300773</v>
       </c>
       <c r="H60" s="65">
+        <f t="shared" si="27"/>
+        <v>987.06537843846036</v>
+      </c>
+      <c r="I60" s="65">
         <f t="shared" si="28"/>
-        <v>987.06537843846036</v>
-      </c>
-      <c r="I60" s="65">
-        <f t="shared" si="29"/>
         <v>1285.202999491617</v>
       </c>
       <c r="J60" s="57">
+        <f t="shared" si="18"/>
+        <v>0.2820186795538458</v>
+      </c>
+      <c r="K60" s="65">
         <f t="shared" si="19"/>
-        <v>0.2820186795538458</v>
-      </c>
-      <c r="K60" s="65">
-        <f t="shared" si="20"/>
         <v>80.303149642243852</v>
       </c>
       <c r="L60" s="65">
@@ -8955,19 +8955,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N60" s="65">
+        <f t="shared" si="20"/>
+        <v>722.72834678019467</v>
+      </c>
+      <c r="O60" s="65">
         <f t="shared" si="21"/>
-        <v>722.72834678019467</v>
-      </c>
-      <c r="O60" s="65">
+        <v>80</v>
+      </c>
+      <c r="P60" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P60" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q60" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q60" s="66">
-        <f t="shared" si="24"/>
         <v>1285.202999491617</v>
       </c>
       <c r="S60" s="68">
@@ -9019,19 +9019,19 @@
         <v>43050</v>
       </c>
       <c r="B61" s="64">
+        <f t="shared" si="24"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="65">
         <f t="shared" si="25"/>
-        <v>59</v>
-      </c>
-      <c r="C61" s="65">
+        <v>182.3321289520708</v>
+      </c>
+      <c r="D61" s="65">
         <f t="shared" si="26"/>
-        <v>182.3321289520708</v>
-      </c>
-      <c r="D61" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E61" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>31.558799979751313</v>
       </c>
       <c r="F61" s="55"/>
@@ -9040,19 +9040,19 @@
         <v>2268.7592186680658</v>
       </c>
       <c r="H61" s="65">
+        <f t="shared" si="27"/>
+        <v>978.32279937229077</v>
+      </c>
+      <c r="I61" s="65">
         <f t="shared" si="28"/>
-        <v>978.32279937229077</v>
-      </c>
-      <c r="I61" s="65">
-        <f t="shared" si="29"/>
         <v>1290.4364192957751</v>
       </c>
       <c r="J61" s="57">
+        <f t="shared" si="18"/>
+        <v>0.27952079982065453</v>
+      </c>
+      <c r="K61" s="65">
         <f t="shared" si="19"/>
-        <v>0.27952079982065453</v>
-      </c>
-      <c r="K61" s="65">
-        <f t="shared" si="20"/>
         <v>80.884640731594743</v>
       </c>
       <c r="L61" s="65">
@@ -9063,19 +9063,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N61" s="65">
+        <f t="shared" si="20"/>
+        <v>727.96176658435274</v>
+      </c>
+      <c r="O61" s="65">
         <f t="shared" si="21"/>
-        <v>727.96176658435274</v>
-      </c>
-      <c r="O61" s="65">
+        <v>80</v>
+      </c>
+      <c r="P61" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P61" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q61" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q61" s="66">
-        <f t="shared" si="24"/>
         <v>1290.4364192957751</v>
       </c>
       <c r="S61" s="68">
@@ -9127,19 +9127,19 @@
         <v>43051</v>
       </c>
       <c r="B62" s="64">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="65">
         <f t="shared" si="25"/>
-        <v>60</v>
-      </c>
-      <c r="C62" s="65">
+        <v>182.05260815225014</v>
+      </c>
+      <c r="D62" s="65">
         <f t="shared" si="26"/>
-        <v>182.05260815225014</v>
-      </c>
-      <c r="D62" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E62" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>31.279279179930654</v>
       </c>
       <c r="F62" s="55"/>
@@ -9148,19 +9148,19 @@
         <v>2265.2811405309467</v>
       </c>
       <c r="H62" s="65">
+        <f t="shared" si="27"/>
+        <v>969.65765457785028</v>
+      </c>
+      <c r="I62" s="65">
         <f t="shared" si="28"/>
-        <v>969.65765457785028</v>
-      </c>
-      <c r="I62" s="65">
-        <f t="shared" si="29"/>
         <v>1295.6234859530964</v>
       </c>
       <c r="J62" s="57">
+        <f t="shared" si="18"/>
+        <v>0.27704504416510006</v>
+      </c>
+      <c r="K62" s="65">
         <f t="shared" si="19"/>
-        <v>0.27704504416510006</v>
-      </c>
-      <c r="K62" s="65">
-        <f t="shared" si="20"/>
         <v>81.460981471297117</v>
       </c>
       <c r="L62" s="65">
@@ -9171,19 +9171,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N62" s="65">
+        <f t="shared" si="20"/>
+        <v>733.14883324167408</v>
+      </c>
+      <c r="O62" s="65">
         <f t="shared" si="21"/>
-        <v>733.14883324167408</v>
-      </c>
-      <c r="O62" s="65">
+        <v>80</v>
+      </c>
+      <c r="P62" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P62" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q62" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q62" s="66">
-        <f t="shared" si="24"/>
         <v>1295.6234859530964</v>
       </c>
       <c r="S62" s="68">
@@ -9235,19 +9235,19 @@
         <v>43052</v>
       </c>
       <c r="B63" s="64">
+        <f t="shared" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="65">
         <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
-      <c r="C63" s="65">
+        <v>181.77556310808504</v>
+      </c>
+      <c r="D63" s="65">
         <f t="shared" si="26"/>
-        <v>181.77556310808504</v>
-      </c>
-      <c r="D63" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E63" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>31.002234135765548</v>
       </c>
       <c r="F63" s="55"/>
@@ -9256,19 +9256,19 @@
         <v>2261.8338682287563</v>
       </c>
       <c r="H63" s="65">
+        <f t="shared" si="27"/>
+        <v>961.06925820873198</v>
+      </c>
+      <c r="I63" s="65">
         <f t="shared" si="28"/>
-        <v>961.06925820873198</v>
-      </c>
-      <c r="I63" s="65">
-        <f t="shared" si="29"/>
         <v>1300.7646100200243</v>
       </c>
       <c r="J63" s="57">
+        <f t="shared" si="18"/>
+        <v>0.27459121663106628</v>
+      </c>
+      <c r="K63" s="65">
         <f t="shared" si="19"/>
-        <v>0.27459121663106628</v>
-      </c>
-      <c r="K63" s="65">
-        <f t="shared" si="20"/>
         <v>82.032217478733557</v>
       </c>
       <c r="L63" s="65">
@@ -9279,19 +9279,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N63" s="65">
+        <f t="shared" si="20"/>
+        <v>738.28995730860197</v>
+      </c>
+      <c r="O63" s="65">
         <f t="shared" si="21"/>
-        <v>738.28995730860197</v>
-      </c>
-      <c r="O63" s="65">
+        <v>80</v>
+      </c>
+      <c r="P63" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P63" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q63" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q63" s="66">
-        <f t="shared" si="24"/>
         <v>1300.7646100200243</v>
       </c>
       <c r="S63" s="68">
@@ -9343,19 +9343,19 @@
         <v>43053</v>
       </c>
       <c r="B64" s="64">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="65">
         <f t="shared" si="25"/>
-        <v>62</v>
-      </c>
-      <c r="C64" s="65">
+        <v>181.50097189145396</v>
+      </c>
+      <c r="D64" s="65">
         <f t="shared" si="26"/>
-        <v>181.50097189145396</v>
-      </c>
-      <c r="D64" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E64" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>30.727642919134468</v>
       </c>
       <c r="F64" s="55"/>
@@ -9364,19 +9364,19 @@
         <v>2258.417128909814</v>
       </c>
       <c r="H64" s="65">
+        <f t="shared" si="27"/>
+        <v>952.55693049316847</v>
+      </c>
+      <c r="I64" s="65">
         <f t="shared" si="28"/>
-        <v>952.55693049316847</v>
-      </c>
-      <c r="I64" s="65">
-        <f t="shared" si="29"/>
         <v>1305.8601984166455</v>
       </c>
       <c r="J64" s="57">
+        <f t="shared" si="18"/>
+        <v>0.27215912299804812</v>
+      </c>
+      <c r="K64" s="65">
         <f t="shared" si="19"/>
-        <v>0.27215912299804812</v>
-      </c>
-      <c r="K64" s="65">
-        <f t="shared" si="20"/>
         <v>82.59839396724702</v>
       </c>
       <c r="L64" s="65">
@@ -9387,19 +9387,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N64" s="65">
+        <f t="shared" si="20"/>
+        <v>743.38554570522319</v>
+      </c>
+      <c r="O64" s="65">
         <f t="shared" si="21"/>
-        <v>743.38554570522319</v>
-      </c>
-      <c r="O64" s="65">
+        <v>80</v>
+      </c>
+      <c r="P64" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P64" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q64" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q64" s="66">
-        <f t="shared" si="24"/>
         <v>1305.8601984166455</v>
       </c>
       <c r="S64" s="68">
@@ -9451,19 +9451,19 @@
         <v>43054</v>
       </c>
       <c r="B65" s="64">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="65">
         <f t="shared" si="25"/>
-        <v>63</v>
-      </c>
-      <c r="C65" s="65">
+        <v>181.2288127684559</v>
+      </c>
+      <c r="D65" s="65">
         <f t="shared" si="26"/>
-        <v>181.2288127684559</v>
-      </c>
-      <c r="D65" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E65" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>30.455483796136406</v>
       </c>
       <c r="F65" s="55"/>
@@ -9472,19 +9472,19 @@
         <v>2255.0306521391249</v>
       </c>
       <c r="H65" s="65">
+        <f t="shared" si="27"/>
+        <v>944.11999768022861</v>
+      </c>
+      <c r="I65" s="65">
         <f t="shared" si="28"/>
-        <v>944.11999768022861</v>
-      </c>
-      <c r="I65" s="65">
-        <f t="shared" si="29"/>
         <v>1310.9106544588963</v>
       </c>
       <c r="J65" s="57">
+        <f t="shared" si="18"/>
+        <v>0.26974857076577963</v>
+      </c>
+      <c r="K65" s="65">
         <f t="shared" si="19"/>
-        <v>0.26974857076577963</v>
-      </c>
-      <c r="K65" s="65">
-        <f t="shared" si="20"/>
         <v>83.159555749719331</v>
       </c>
       <c r="L65" s="65">
@@ -9495,19 +9495,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N65" s="65">
+        <f t="shared" si="20"/>
+        <v>748.43600174747394</v>
+      </c>
+      <c r="O65" s="65">
         <f t="shared" si="21"/>
-        <v>748.43600174747394</v>
-      </c>
-      <c r="O65" s="65">
+        <v>80</v>
+      </c>
+      <c r="P65" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P65" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q65" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q65" s="66">
-        <f t="shared" si="24"/>
         <v>1310.9106544588963</v>
       </c>
       <c r="S65" s="68">
@@ -9559,19 +9559,19 @@
         <v>43055</v>
       </c>
       <c r="B66" s="64">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="65">
         <f t="shared" si="25"/>
-        <v>64</v>
-      </c>
-      <c r="C66" s="65">
+        <v>180.95906419769011</v>
+      </c>
+      <c r="D66" s="65">
         <f t="shared" si="26"/>
-        <v>180.95906419769011</v>
-      </c>
-      <c r="D66" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E66" s="66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>30.185735225370621</v>
       </c>
       <c r="F66" s="55"/>
@@ -9580,19 +9580,19 @@
         <v>2251.6741698769761</v>
       </c>
       <c r="H66" s="65">
+        <f t="shared" si="27"/>
+        <v>935.75779198648922</v>
+      </c>
+      <c r="I66" s="65">
         <f t="shared" si="28"/>
-        <v>935.75779198648922</v>
-      </c>
-      <c r="I66" s="65">
-        <f t="shared" si="29"/>
         <v>1315.9163778904867</v>
       </c>
       <c r="J66" s="57">
+        <f t="shared" si="18"/>
+        <v>0.26735936913899694</v>
+      </c>
+      <c r="K66" s="65">
         <f t="shared" si="19"/>
-        <v>0.26735936913899694</v>
-      </c>
-      <c r="K66" s="65">
-        <f t="shared" si="20"/>
         <v>83.715747242118269</v>
       </c>
       <c r="L66" s="65">
@@ -9603,19 +9603,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N66" s="65">
+        <f t="shared" si="20"/>
+        <v>753.44172517906441</v>
+      </c>
+      <c r="O66" s="65">
         <f t="shared" si="21"/>
-        <v>753.44172517906441</v>
-      </c>
-      <c r="O66" s="65">
+        <v>80</v>
+      </c>
+      <c r="P66" s="65">
         <f t="shared" si="22"/>
-        <v>80</v>
-      </c>
-      <c r="P66" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q66" s="66">
         <f t="shared" si="23"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q66" s="66">
-        <f t="shared" si="24"/>
         <v>1315.9163778904867</v>
       </c>
       <c r="S66" s="68">
@@ -9667,19 +9667,19 @@
         <v>43056</v>
       </c>
       <c r="B67" s="64">
+        <f t="shared" si="24"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="65">
         <f t="shared" si="25"/>
-        <v>65</v>
-      </c>
-      <c r="C67" s="65">
+        <v>180.69170482855111</v>
+      </c>
+      <c r="D67" s="65">
         <f t="shared" si="26"/>
-        <v>180.69170482855111</v>
-      </c>
-      <c r="D67" s="65">
-        <f t="shared" si="27"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E67" s="66">
-        <f t="shared" ref="E67:E98" si="30">C67-D67</f>
+        <f t="shared" ref="E67:E98" si="29">C67-D67</f>
         <v>29.91837585623162</v>
       </c>
       <c r="F67" s="55"/>
@@ -9688,19 +9688,19 @@
         <v>2248.347416457721</v>
       </c>
       <c r="H67" s="65">
+        <f t="shared" si="27"/>
+        <v>927.46965154318025</v>
+      </c>
+      <c r="I67" s="65">
         <f t="shared" si="28"/>
-        <v>927.46965154318025</v>
-      </c>
-      <c r="I67" s="65">
-        <f t="shared" si="29"/>
         <v>1320.8777649145409</v>
       </c>
       <c r="J67" s="57">
-        <f t="shared" ref="J67:J98" si="31">H67/3500</f>
+        <f t="shared" ref="J67:J98" si="30">H67/3500</f>
         <v>0.26499132901233724</v>
       </c>
       <c r="K67" s="65">
-        <f t="shared" ref="K67:K98" si="32">N67/9</f>
+        <f t="shared" ref="K67:K98" si="31">N67/9</f>
         <v>84.267012467013174</v>
       </c>
       <c r="L67" s="65">
@@ -9711,19 +9711,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N67" s="65">
-        <f t="shared" ref="N67:N98" si="33">MAX(0,I67-(O67+P67))</f>
+        <f t="shared" ref="N67:N98" si="32">MAX(0,I67-(O67+P67))</f>
         <v>758.40311220311855</v>
       </c>
       <c r="O67" s="65">
-        <f t="shared" ref="O67:O98" si="34">4*L67</f>
+        <f t="shared" ref="O67:O98" si="33">4*L67</f>
         <v>80</v>
       </c>
       <c r="P67" s="65">
-        <f t="shared" ref="P67:P98" si="35">4*M67</f>
+        <f t="shared" ref="P67:P98" si="34">4*M67</f>
         <v>482.47465271142238</v>
       </c>
       <c r="Q67" s="66">
-        <f t="shared" ref="Q67:Q98" si="36">SUM(N67:P67)</f>
+        <f t="shared" ref="Q67:Q98" si="35">SUM(N67:P67)</f>
         <v>1320.8777649145409</v>
       </c>
       <c r="S67" s="68">
@@ -9775,19 +9775,19 @@
         <v>43057</v>
       </c>
       <c r="B68" s="64">
-        <f t="shared" ref="B68:B99" si="37">B67+1</f>
+        <f t="shared" ref="B68:B99" si="36">B67+1</f>
         <v>66</v>
       </c>
       <c r="C68" s="65">
-        <f t="shared" ref="C68:C99" si="38">C67-AA67</f>
+        <f t="shared" ref="C68:C99" si="37">C67-AA67</f>
         <v>180.42671349953878</v>
       </c>
       <c r="D68" s="65">
-        <f t="shared" ref="D68:D99" si="39">$D$3</f>
+        <f t="shared" ref="D68:D99" si="38">$D$3</f>
         <v>150.77332897231949</v>
       </c>
       <c r="E68" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>29.653384527219288</v>
       </c>
       <c r="F68" s="55"/>
@@ -9796,19 +9796,19 @@
         <v>2245.0501285687506</v>
       </c>
       <c r="H68" s="65">
-        <f t="shared" ref="H68:H104" si="40">$E68*31</f>
+        <f t="shared" ref="H68:H104" si="39">$E68*31</f>
         <v>919.25492034379795</v>
       </c>
       <c r="I68" s="65">
-        <f t="shared" ref="I68:I104" si="41">$G68-$H68</f>
+        <f t="shared" ref="I68:I104" si="40">$G68-$H68</f>
         <v>1325.7952082249526</v>
       </c>
       <c r="J68" s="57">
+        <f t="shared" si="30"/>
+        <v>0.26264426295537086</v>
+      </c>
+      <c r="K68" s="65">
         <f t="shared" si="31"/>
-        <v>0.26264426295537086</v>
-      </c>
-      <c r="K68" s="65">
-        <f t="shared" si="32"/>
         <v>84.813395057058926</v>
       </c>
       <c r="L68" s="65">
@@ -9819,19 +9819,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N68" s="65">
+        <f t="shared" si="32"/>
+        <v>763.32055551353028</v>
+      </c>
+      <c r="O68" s="65">
         <f t="shared" si="33"/>
-        <v>763.32055551353028</v>
-      </c>
-      <c r="O68" s="65">
+        <v>80</v>
+      </c>
+      <c r="P68" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P68" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q68" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q68" s="66">
-        <f t="shared" si="36"/>
         <v>1325.7952082249526</v>
       </c>
       <c r="S68" s="68">
@@ -9867,7 +9867,7 @@
         <v>1325.7952082249526</v>
       </c>
       <c r="AA68" s="111">
-        <f t="shared" ref="AA68:AA111" si="42">MIN($H68,($H68+Z68))/3500</f>
+        <f t="shared" ref="AA68:AA111" si="41">MIN($H68,($H68+Z68))/3500</f>
         <v>0.26264426295537086</v>
       </c>
       <c r="AB68" s="72"/>
@@ -9879,23 +9879,23 @@
     </row>
     <row r="69" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63">
-        <f t="shared" ref="A69:A111" si="43">A68+1</f>
+        <f t="shared" ref="A69:A111" si="42">A68+1</f>
         <v>43058</v>
       </c>
       <c r="B69" s="64">
+        <f t="shared" si="36"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="65">
         <f t="shared" si="37"/>
-        <v>67</v>
-      </c>
-      <c r="C69" s="65">
+        <v>180.1640692365834</v>
+      </c>
+      <c r="D69" s="65">
         <f t="shared" si="38"/>
-        <v>180.1640692365834</v>
-      </c>
-      <c r="D69" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E69" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>29.390740264263911</v>
       </c>
       <c r="F69" s="55"/>
@@ -9904,19 +9904,19 @@
         <v>2241.7820452296542</v>
       </c>
       <c r="H69" s="65">
+        <f t="shared" si="39"/>
+        <v>911.11294819218119</v>
+      </c>
+      <c r="I69" s="65">
         <f t="shared" si="40"/>
-        <v>911.11294819218119</v>
-      </c>
-      <c r="I69" s="65">
-        <f t="shared" si="41"/>
         <v>1330.669097037473</v>
       </c>
       <c r="J69" s="57">
+        <f t="shared" si="30"/>
+        <v>0.26031798519776606</v>
+      </c>
+      <c r="K69" s="65">
         <f t="shared" si="31"/>
-        <v>0.26031798519776606</v>
-      </c>
-      <c r="K69" s="65">
-        <f t="shared" si="32"/>
         <v>85.354938258450076</v>
       </c>
       <c r="L69" s="65">
@@ -9927,19 +9927,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N69" s="65">
+        <f t="shared" si="32"/>
+        <v>768.19444432605064</v>
+      </c>
+      <c r="O69" s="65">
         <f t="shared" si="33"/>
-        <v>768.19444432605064</v>
-      </c>
-      <c r="O69" s="65">
+        <v>80</v>
+      </c>
+      <c r="P69" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P69" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q69" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q69" s="66">
-        <f t="shared" si="36"/>
         <v>1330.669097037473</v>
       </c>
       <c r="S69" s="68">
@@ -9975,7 +9975,7 @@
         <v>1330.669097037473</v>
       </c>
       <c r="AA69" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.26031798519776606</v>
       </c>
       <c r="AB69" s="72"/>
@@ -9987,23 +9987,23 @@
     </row>
     <row r="70" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43059</v>
       </c>
       <c r="B70" s="64">
+        <f t="shared" si="36"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="65">
         <f t="shared" si="37"/>
-        <v>68</v>
-      </c>
-      <c r="C70" s="65">
+        <v>179.90375125138564</v>
+      </c>
+      <c r="D70" s="65">
         <f t="shared" si="38"/>
-        <v>179.90375125138564</v>
-      </c>
-      <c r="D70" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E70" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>29.130422279066153</v>
       </c>
       <c r="F70" s="55"/>
@@ -10012,19 +10012,19 @@
         <v>2238.5429077715612</v>
       </c>
       <c r="H70" s="65">
+        <f t="shared" si="39"/>
+        <v>903.04309065105076</v>
+      </c>
+      <c r="I70" s="65">
         <f t="shared" si="40"/>
-        <v>903.04309065105076</v>
-      </c>
-      <c r="I70" s="65">
-        <f t="shared" si="41"/>
         <v>1335.4998171205104</v>
       </c>
       <c r="J70" s="57">
+        <f t="shared" si="30"/>
+        <v>0.25801231161458593</v>
+      </c>
+      <c r="K70" s="65">
         <f t="shared" si="31"/>
-        <v>0.25801231161458593</v>
-      </c>
-      <c r="K70" s="65">
-        <f t="shared" si="32"/>
         <v>85.891684934343118</v>
       </c>
       <c r="L70" s="65">
@@ -10035,19 +10035,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N70" s="65">
+        <f t="shared" si="32"/>
+        <v>773.02516440908812</v>
+      </c>
+      <c r="O70" s="65">
         <f t="shared" si="33"/>
-        <v>773.02516440908812</v>
-      </c>
-      <c r="O70" s="65">
+        <v>80</v>
+      </c>
+      <c r="P70" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P70" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q70" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q70" s="66">
-        <f t="shared" si="36"/>
         <v>1335.4998171205104</v>
       </c>
       <c r="S70" s="68">
@@ -10083,7 +10083,7 @@
         <v>1335.4998171205104</v>
       </c>
       <c r="AA70" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.25801231161458593</v>
       </c>
       <c r="AB70" s="72"/>
@@ -10095,23 +10095,23 @@
     </row>
     <row r="71" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43060</v>
       </c>
       <c r="B71" s="64">
+        <f t="shared" si="36"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="65">
         <f t="shared" si="37"/>
-        <v>69</v>
-      </c>
-      <c r="C71" s="65">
+        <v>179.64573893977106</v>
+      </c>
+      <c r="D71" s="65">
         <f t="shared" si="38"/>
-        <v>179.64573893977106</v>
-      </c>
-      <c r="D71" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E71" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.872409967451574</v>
       </c>
       <c r="F71" s="55"/>
@@ -10120,19 +10120,19 @@
         <v>2235.3324598166682</v>
       </c>
       <c r="H71" s="65">
+        <f t="shared" si="39"/>
+        <v>895.04470899099874</v>
+      </c>
+      <c r="I71" s="65">
         <f t="shared" si="40"/>
-        <v>895.04470899099874</v>
-      </c>
-      <c r="I71" s="65">
-        <f t="shared" si="41"/>
         <v>1340.2877508256695</v>
       </c>
       <c r="J71" s="57">
+        <f t="shared" si="30"/>
+        <v>0.25572705971171394</v>
+      </c>
+      <c r="K71" s="65">
         <f t="shared" si="31"/>
-        <v>0.25572705971171394</v>
-      </c>
-      <c r="K71" s="65">
-        <f t="shared" si="32"/>
         <v>86.423677568249687</v>
       </c>
       <c r="L71" s="65">
@@ -10143,19 +10143,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N71" s="65">
+        <f t="shared" si="32"/>
+        <v>777.81309811424717</v>
+      </c>
+      <c r="O71" s="65">
         <f t="shared" si="33"/>
-        <v>777.81309811424717</v>
-      </c>
-      <c r="O71" s="65">
+        <v>80</v>
+      </c>
+      <c r="P71" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P71" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q71" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q71" s="66">
-        <f t="shared" si="36"/>
         <v>1340.2877508256695</v>
       </c>
       <c r="S71" s="68">
@@ -10191,7 +10191,7 @@
         <v>1340.2877508256695</v>
       </c>
       <c r="AA71" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.25572705971171394</v>
       </c>
       <c r="AB71" s="72"/>
@@ -10203,23 +10203,23 @@
     </row>
     <row r="72" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43061</v>
       </c>
       <c r="B72" s="64">
+        <f t="shared" si="36"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="65">
         <f t="shared" si="37"/>
-        <v>70</v>
-      </c>
-      <c r="C72" s="65">
+        <v>179.39001188005935</v>
+      </c>
+      <c r="D72" s="65">
         <f t="shared" si="38"/>
-        <v>179.39001188005935</v>
-      </c>
-      <c r="D72" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E72" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.616682907739857</v>
       </c>
       <c r="F72" s="55"/>
@@ -10228,19 +10228,19 @@
         <v>2232.1504472579472</v>
       </c>
       <c r="H72" s="65">
+        <f t="shared" si="39"/>
+        <v>887.11717013993552</v>
+      </c>
+      <c r="I72" s="65">
         <f t="shared" si="40"/>
-        <v>887.11717013993552</v>
-      </c>
-      <c r="I72" s="65">
-        <f t="shared" si="41"/>
         <v>1345.0332771180117</v>
       </c>
       <c r="J72" s="57">
+        <f t="shared" si="30"/>
+        <v>0.25346204861141014</v>
+      </c>
+      <c r="K72" s="65">
         <f t="shared" si="31"/>
-        <v>0.25346204861141014</v>
-      </c>
-      <c r="K72" s="65">
-        <f t="shared" si="32"/>
         <v>86.950958267398818</v>
       </c>
       <c r="L72" s="65">
@@ -10251,19 +10251,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N72" s="65">
+        <f t="shared" si="32"/>
+        <v>782.55862440658939</v>
+      </c>
+      <c r="O72" s="65">
         <f t="shared" si="33"/>
-        <v>782.55862440658939</v>
-      </c>
-      <c r="O72" s="65">
+        <v>80</v>
+      </c>
+      <c r="P72" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P72" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q72" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q72" s="66">
-        <f t="shared" si="36"/>
         <v>1345.0332771180117</v>
       </c>
       <c r="S72" s="68">
@@ -10299,7 +10299,7 @@
         <v>1345.0332771180117</v>
       </c>
       <c r="AA72" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.25346204861141014</v>
       </c>
       <c r="AB72" s="72"/>
@@ -10311,23 +10311,23 @@
     </row>
     <row r="73" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43062</v>
       </c>
       <c r="B73" s="64">
+        <f t="shared" si="36"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="65">
         <f t="shared" si="37"/>
-        <v>71</v>
-      </c>
-      <c r="C73" s="65">
+        <v>179.13654983144795</v>
+      </c>
+      <c r="D73" s="65">
         <f t="shared" si="38"/>
-        <v>179.13654983144795</v>
-      </c>
-      <c r="D73" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E73" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.363220859128461</v>
       </c>
       <c r="F73" s="55"/>
@@ -10336,19 +10336,19 @@
         <v>2228.9966182390322</v>
       </c>
       <c r="H73" s="65">
+        <f t="shared" si="39"/>
+        <v>879.25984663298232</v>
+      </c>
+      <c r="I73" s="65">
         <f t="shared" si="40"/>
-        <v>879.25984663298232</v>
-      </c>
-      <c r="I73" s="65">
-        <f t="shared" si="41"/>
         <v>1349.7367716060498</v>
       </c>
       <c r="J73" s="57">
+        <f t="shared" si="30"/>
+        <v>0.25121709903799494</v>
+      </c>
+      <c r="K73" s="65">
         <f t="shared" si="31"/>
-        <v>0.25121709903799494</v>
-      </c>
-      <c r="K73" s="65">
-        <f t="shared" si="32"/>
         <v>87.473568766069718</v>
       </c>
       <c r="L73" s="65">
@@ -10359,19 +10359,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N73" s="65">
+        <f t="shared" si="32"/>
+        <v>787.26211889462752</v>
+      </c>
+      <c r="O73" s="65">
         <f t="shared" si="33"/>
-        <v>787.26211889462752</v>
-      </c>
-      <c r="O73" s="65">
+        <v>80</v>
+      </c>
+      <c r="P73" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P73" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q73" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q73" s="66">
-        <f t="shared" si="36"/>
         <v>1349.7367716060498</v>
       </c>
       <c r="S73" s="68">
@@ -10407,7 +10407,7 @@
         <v>1349.7367716060498</v>
       </c>
       <c r="AA73" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.25121709903799494</v>
       </c>
       <c r="AB73" s="72"/>
@@ -10419,23 +10419,23 @@
     </row>
     <row r="74" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43063</v>
       </c>
       <c r="B74" s="64">
+        <f t="shared" si="36"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="65">
         <f t="shared" si="37"/>
-        <v>72</v>
-      </c>
-      <c r="C74" s="65">
+        <v>178.88533273240995</v>
+      </c>
+      <c r="D74" s="65">
         <f t="shared" si="38"/>
-        <v>178.88533273240995</v>
-      </c>
-      <c r="D74" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E74" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.11200376009046</v>
       </c>
       <c r="F74" s="55"/>
@@ -10444,19 +10444,19 @@
         <v>2225.8707231342842</v>
       </c>
       <c r="H74" s="65">
+        <f t="shared" si="39"/>
+        <v>871.47211656280422</v>
+      </c>
+      <c r="I74" s="65">
         <f t="shared" si="40"/>
-        <v>871.47211656280422</v>
-      </c>
-      <c r="I74" s="65">
-        <f t="shared" si="41"/>
         <v>1354.3986065714798</v>
       </c>
       <c r="J74" s="57">
+        <f t="shared" si="30"/>
+        <v>0.24899203330365835</v>
+      </c>
+      <c r="K74" s="65">
         <f t="shared" si="31"/>
-        <v>0.24899203330365835</v>
-      </c>
-      <c r="K74" s="65">
-        <f t="shared" si="32"/>
         <v>87.99155042889528</v>
       </c>
       <c r="L74" s="65">
@@ -10467,19 +10467,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N74" s="65">
+        <f t="shared" si="32"/>
+        <v>791.92395386005751</v>
+      </c>
+      <c r="O74" s="65">
         <f t="shared" si="33"/>
-        <v>791.92395386005751</v>
-      </c>
-      <c r="O74" s="65">
+        <v>80</v>
+      </c>
+      <c r="P74" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P74" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q74" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q74" s="66">
-        <f t="shared" si="36"/>
         <v>1354.3986065714798</v>
       </c>
       <c r="S74" s="68">
@@ -10515,7 +10515,7 @@
         <v>1354.3986065714798</v>
       </c>
       <c r="AA74" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24899203330365835</v>
       </c>
       <c r="AB74" s="72"/>
@@ -10527,23 +10527,23 @@
     </row>
     <row r="75" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43064</v>
       </c>
       <c r="B75" s="64">
+        <f t="shared" si="36"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="65">
         <f t="shared" si="37"/>
-        <v>73</v>
-      </c>
-      <c r="C75" s="65">
+        <v>178.63634069910628</v>
+      </c>
+      <c r="D75" s="65">
         <f t="shared" si="38"/>
-        <v>178.63634069910628</v>
-      </c>
-      <c r="D75" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E75" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>27.863011726786794</v>
       </c>
       <c r="F75" s="55"/>
@@ -10552,19 +10552,19 @@
         <v>2222.7725145290356</v>
       </c>
       <c r="H75" s="65">
+        <f t="shared" si="39"/>
+        <v>863.75336353039063</v>
+      </c>
+      <c r="I75" s="65">
         <f t="shared" si="40"/>
-        <v>863.75336353039063</v>
-      </c>
-      <c r="I75" s="65">
-        <f t="shared" si="41"/>
         <v>1359.0191509986448</v>
       </c>
       <c r="J75" s="57">
+        <f t="shared" si="30"/>
+        <v>0.24678667529439732</v>
+      </c>
+      <c r="K75" s="65">
         <f t="shared" si="31"/>
-        <v>0.24678667529439732</v>
-      </c>
-      <c r="K75" s="65">
-        <f t="shared" si="32"/>
         <v>88.504944254135836</v>
       </c>
       <c r="L75" s="65">
@@ -10575,19 +10575,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N75" s="65">
+        <f t="shared" si="32"/>
+        <v>796.5444982872225</v>
+      </c>
+      <c r="O75" s="65">
         <f t="shared" si="33"/>
-        <v>796.5444982872225</v>
-      </c>
-      <c r="O75" s="65">
+        <v>80</v>
+      </c>
+      <c r="P75" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P75" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q75" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q75" s="66">
-        <f t="shared" si="36"/>
         <v>1359.0191509986448</v>
       </c>
       <c r="S75" s="68">
@@ -10623,7 +10623,7 @@
         <v>1359.0191509986448</v>
       </c>
       <c r="AA75" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24678667529439732</v>
       </c>
       <c r="AB75" s="72"/>
@@ -10635,23 +10635,23 @@
     </row>
     <row r="76" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43065</v>
       </c>
       <c r="B76" s="64">
+        <f t="shared" si="36"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="65">
         <f t="shared" si="37"/>
-        <v>74</v>
-      </c>
-      <c r="C76" s="65">
+        <v>178.38955402381188</v>
+      </c>
+      <c r="D76" s="65">
         <f t="shared" si="38"/>
-        <v>178.38955402381188</v>
-      </c>
-      <c r="D76" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E76" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>27.616225051492393</v>
       </c>
       <c r="F76" s="55"/>
@@ -10660,19 +10660,19 @@
         <v>2219.7017472000052</v>
       </c>
       <c r="H76" s="65">
+        <f t="shared" si="39"/>
+        <v>856.10297659626417</v>
+      </c>
+      <c r="I76" s="65">
         <f t="shared" si="40"/>
-        <v>856.10297659626417</v>
-      </c>
-      <c r="I76" s="65">
-        <f t="shared" si="41"/>
         <v>1363.5987706037411</v>
       </c>
       <c r="J76" s="57">
+        <f t="shared" si="30"/>
+        <v>0.24460085045607546</v>
+      </c>
+      <c r="K76" s="65">
         <f t="shared" si="31"/>
-        <v>0.24460085045607546</v>
-      </c>
-      <c r="K76" s="65">
-        <f t="shared" si="32"/>
         <v>89.013790876924304</v>
       </c>
       <c r="L76" s="65">
@@ -10683,19 +10683,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N76" s="65">
+        <f t="shared" si="32"/>
+        <v>801.12411789231874</v>
+      </c>
+      <c r="O76" s="65">
         <f t="shared" si="33"/>
-        <v>801.12411789231874</v>
-      </c>
-      <c r="O76" s="65">
+        <v>80</v>
+      </c>
+      <c r="P76" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P76" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q76" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q76" s="66">
-        <f t="shared" si="36"/>
         <v>1363.5987706037411</v>
       </c>
       <c r="S76" s="68">
@@ -10731,7 +10731,7 @@
         <v>1363.5987706037411</v>
       </c>
       <c r="AA76" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24460085045607546</v>
       </c>
       <c r="AB76" s="72"/>
@@ -10743,23 +10743,23 @@
     </row>
     <row r="77" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43066</v>
       </c>
       <c r="B77" s="64">
+        <f t="shared" si="36"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="65">
         <f t="shared" si="37"/>
-        <v>75</v>
-      </c>
-      <c r="C77" s="65">
+        <v>178.14495317335582</v>
+      </c>
+      <c r="D77" s="65">
         <f t="shared" si="38"/>
-        <v>178.14495317335582</v>
-      </c>
-      <c r="D77" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E77" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>27.371624201036326</v>
       </c>
       <c r="F77" s="55"/>
@@ -10768,19 +10768,19 @@
         <v>2216.6581780958891</v>
       </c>
       <c r="H77" s="65">
+        <f t="shared" si="39"/>
+        <v>848.52035023212613</v>
+      </c>
+      <c r="I77" s="65">
         <f t="shared" si="40"/>
-        <v>848.52035023212613</v>
-      </c>
-      <c r="I77" s="65">
-        <f t="shared" si="41"/>
         <v>1368.1378278637631</v>
       </c>
       <c r="J77" s="57">
+        <f t="shared" si="30"/>
+        <v>0.24243438578060747</v>
+      </c>
+      <c r="K77" s="65">
         <f t="shared" si="31"/>
-        <v>0.24243438578060747</v>
-      </c>
-      <c r="K77" s="65">
-        <f t="shared" si="32"/>
         <v>89.518130572482306</v>
       </c>
       <c r="L77" s="65">
@@ -10791,19 +10791,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N77" s="65">
+        <f t="shared" si="32"/>
+        <v>805.66317515234073</v>
+      </c>
+      <c r="O77" s="65">
         <f t="shared" si="33"/>
-        <v>805.66317515234073</v>
-      </c>
-      <c r="O77" s="65">
+        <v>80</v>
+      </c>
+      <c r="P77" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P77" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q77" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q77" s="66">
-        <f t="shared" si="36"/>
         <v>1368.1378278637631</v>
       </c>
       <c r="S77" s="68">
@@ -10839,7 +10839,7 @@
         <v>1368.1378278637631</v>
       </c>
       <c r="AA77" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24243438578060747</v>
       </c>
       <c r="AB77" s="72"/>
@@ -10851,23 +10851,23 @@
     </row>
     <row r="78" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43067</v>
       </c>
       <c r="B78" s="64">
+        <f t="shared" si="36"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="65">
         <f t="shared" si="37"/>
-        <v>76</v>
-      </c>
-      <c r="C78" s="65">
+        <v>177.90251878757522</v>
+      </c>
+      <c r="D78" s="65">
         <f t="shared" si="38"/>
-        <v>177.90251878757522</v>
-      </c>
-      <c r="D78" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E78" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>27.129189815255728</v>
       </c>
       <c r="F78" s="55"/>
@@ -10876,19 +10876,19 @@
         <v>2213.6415663181233</v>
       </c>
       <c r="H78" s="65">
+        <f t="shared" si="39"/>
+        <v>841.0048842729276</v>
+      </c>
+      <c r="I78" s="65">
         <f t="shared" si="40"/>
-        <v>841.0048842729276</v>
-      </c>
-      <c r="I78" s="65">
-        <f t="shared" si="41"/>
         <v>1372.6366820451958</v>
       </c>
       <c r="J78" s="57">
+        <f t="shared" si="30"/>
+        <v>0.24028710979226503</v>
+      </c>
+      <c r="K78" s="65">
         <f t="shared" si="31"/>
-        <v>0.24028710979226503</v>
-      </c>
-      <c r="K78" s="65">
-        <f t="shared" si="32"/>
         <v>90.018003259308159</v>
       </c>
       <c r="L78" s="65">
@@ -10899,19 +10899,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N78" s="65">
+        <f t="shared" si="32"/>
+        <v>810.16202933377349</v>
+      </c>
+      <c r="O78" s="65">
         <f t="shared" si="33"/>
-        <v>810.16202933377349</v>
-      </c>
-      <c r="O78" s="65">
+        <v>80</v>
+      </c>
+      <c r="P78" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P78" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q78" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q78" s="66">
-        <f t="shared" si="36"/>
         <v>1372.6366820451958</v>
       </c>
       <c r="S78" s="68">
@@ -10947,7 +10947,7 @@
         <v>1372.6366820451958</v>
       </c>
       <c r="AA78" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24028710979226503</v>
       </c>
       <c r="AB78" s="72"/>
@@ -10959,23 +10959,23 @@
     </row>
     <row r="79" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43068</v>
       </c>
       <c r="B79" s="64">
+        <f t="shared" si="36"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="65">
         <f t="shared" si="37"/>
-        <v>77</v>
-      </c>
-      <c r="C79" s="65">
+        <v>177.66223167778296</v>
+      </c>
+      <c r="D79" s="65">
         <f t="shared" si="38"/>
-        <v>177.66223167778296</v>
-      </c>
-      <c r="D79" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E79" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>26.888902705463465</v>
       </c>
       <c r="F79" s="55"/>
@@ -10984,19 +10984,19 @@
         <v>2210.6516731018182</v>
       </c>
       <c r="H79" s="65">
+        <f t="shared" si="39"/>
+        <v>833.55598386936742</v>
+      </c>
+      <c r="I79" s="65">
         <f t="shared" si="40"/>
-        <v>833.55598386936742</v>
-      </c>
-      <c r="I79" s="65">
-        <f t="shared" si="41"/>
         <v>1377.0956892324507</v>
       </c>
       <c r="J79" s="57">
+        <f t="shared" si="30"/>
+        <v>0.23815885253410499</v>
+      </c>
+      <c r="K79" s="65">
         <f t="shared" si="31"/>
-        <v>0.23815885253410499</v>
-      </c>
-      <c r="K79" s="65">
-        <f t="shared" si="32"/>
         <v>90.513448502336487</v>
       </c>
       <c r="L79" s="65">
@@ -11007,19 +11007,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N79" s="65">
+        <f t="shared" si="32"/>
+        <v>814.62103652102837</v>
+      </c>
+      <c r="O79" s="65">
         <f t="shared" si="33"/>
-        <v>814.62103652102837</v>
-      </c>
-      <c r="O79" s="65">
+        <v>80</v>
+      </c>
+      <c r="P79" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P79" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q79" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q79" s="66">
-        <f t="shared" si="36"/>
         <v>1377.0956892324507</v>
       </c>
       <c r="S79" s="68">
@@ -11055,7 +11055,7 @@
         <v>1377.0956892324507</v>
       </c>
       <c r="AA79" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.23815885253410499</v>
       </c>
       <c r="AB79" s="72"/>
@@ -11067,23 +11067,23 @@
     </row>
     <row r="80" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43069</v>
       </c>
       <c r="B80" s="64">
+        <f t="shared" si="36"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="65">
         <f t="shared" si="37"/>
-        <v>78</v>
-      </c>
-      <c r="C80" s="65">
+        <v>177.42407282524886</v>
+      </c>
+      <c r="D80" s="65">
         <f t="shared" si="38"/>
-        <v>177.42407282524886</v>
-      </c>
-      <c r="D80" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E80" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>26.650743852929367</v>
       </c>
       <c r="F80" s="55"/>
@@ -11092,19 +11092,19 @@
         <v>2207.6882617968572</v>
       </c>
       <c r="H80" s="65">
+        <f t="shared" si="39"/>
+        <v>826.17305944081033</v>
+      </c>
+      <c r="I80" s="65">
         <f t="shared" si="40"/>
-        <v>826.17305944081033</v>
-      </c>
-      <c r="I80" s="65">
-        <f t="shared" si="41"/>
         <v>1381.5152023560468</v>
       </c>
       <c r="J80" s="57">
+        <f t="shared" si="30"/>
+        <v>0.23604944555451723</v>
+      </c>
+      <c r="K80" s="65">
         <f t="shared" si="31"/>
-        <v>0.23604944555451723</v>
-      </c>
-      <c r="K80" s="65">
-        <f t="shared" si="32"/>
         <v>91.004505516069386</v>
       </c>
       <c r="L80" s="65">
@@ -11115,19 +11115,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N80" s="65">
+        <f t="shared" si="32"/>
+        <v>819.04054964462443</v>
+      </c>
+      <c r="O80" s="65">
         <f t="shared" si="33"/>
-        <v>819.04054964462443</v>
-      </c>
-      <c r="O80" s="65">
+        <v>80</v>
+      </c>
+      <c r="P80" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P80" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q80" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q80" s="66">
-        <f t="shared" si="36"/>
         <v>1381.5152023560468</v>
       </c>
       <c r="S80" s="68">
@@ -11163,7 +11163,7 @@
         <v>1381.5152023560468</v>
       </c>
       <c r="AA80" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.23604944555451723</v>
       </c>
       <c r="AB80" s="72"/>
@@ -11175,23 +11175,23 @@
     </row>
     <row r="81" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43070</v>
       </c>
       <c r="B81" s="64">
+        <f t="shared" si="36"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="65">
         <f t="shared" si="37"/>
-        <v>79</v>
-      </c>
-      <c r="C81" s="65">
+        <v>177.18802337969433</v>
+      </c>
+      <c r="D81" s="65">
         <f t="shared" si="38"/>
-        <v>177.18802337969433</v>
-      </c>
-      <c r="D81" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E81" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>26.414694407374839</v>
       </c>
       <c r="F81" s="55"/>
@@ -11200,19 +11200,19 @@
         <v>2204.7510978491687</v>
       </c>
       <c r="H81" s="65">
+        <f t="shared" si="39"/>
+        <v>818.85552662862005</v>
+      </c>
+      <c r="I81" s="65">
         <f t="shared" si="40"/>
-        <v>818.85552662862005</v>
-      </c>
-      <c r="I81" s="65">
-        <f t="shared" si="41"/>
         <v>1385.8955712205486</v>
       </c>
       <c r="J81" s="57">
+        <f t="shared" si="30"/>
+        <v>0.23395872189389144</v>
+      </c>
+      <c r="K81" s="65">
         <f t="shared" si="31"/>
-        <v>0.23395872189389144</v>
-      </c>
-      <c r="K81" s="65">
-        <f t="shared" si="32"/>
         <v>91.491213167680698</v>
       </c>
       <c r="L81" s="65">
@@ -11223,19 +11223,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N81" s="65">
+        <f t="shared" si="32"/>
+        <v>823.4209185091263</v>
+      </c>
+      <c r="O81" s="65">
         <f t="shared" si="33"/>
-        <v>823.4209185091263</v>
-      </c>
-      <c r="O81" s="65">
+        <v>80</v>
+      </c>
+      <c r="P81" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P81" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q81" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q81" s="66">
-        <f t="shared" si="36"/>
         <v>1385.8955712205486</v>
       </c>
       <c r="S81" s="68">
@@ -11271,7 +11271,7 @@
         <v>1385.8955712205486</v>
       </c>
       <c r="AA81" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.23395872189389144</v>
       </c>
       <c r="AB81" s="72"/>
@@ -11283,23 +11283,23 @@
     </row>
     <row r="82" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43071</v>
       </c>
       <c r="B82" s="64">
+        <f t="shared" si="36"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="65">
         <f t="shared" si="37"/>
-        <v>80</v>
-      </c>
-      <c r="C82" s="65">
+        <v>176.95406465780044</v>
+      </c>
+      <c r="D82" s="65">
         <f t="shared" si="38"/>
-        <v>176.95406465780044</v>
-      </c>
-      <c r="D82" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E82" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>26.180735685480954</v>
       </c>
       <c r="F82" s="55"/>
@@ -11308,19 +11308,19 @@
         <v>2201.8399487821598</v>
       </c>
       <c r="H82" s="65">
+        <f t="shared" si="39"/>
+        <v>811.60280624990958</v>
+      </c>
+      <c r="I82" s="65">
         <f t="shared" si="40"/>
-        <v>811.60280624990958</v>
-      </c>
-      <c r="I82" s="65">
-        <f t="shared" si="41"/>
         <v>1390.2371425322503</v>
       </c>
       <c r="J82" s="57">
+        <f t="shared" si="30"/>
+        <v>0.23188651607140273</v>
+      </c>
+      <c r="K82" s="65">
         <f t="shared" si="31"/>
-        <v>0.23188651607140273</v>
-      </c>
-      <c r="K82" s="65">
-        <f t="shared" si="32"/>
         <v>91.973609980092007</v>
       </c>
       <c r="L82" s="65">
@@ -11331,19 +11331,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N82" s="65">
+        <f t="shared" si="32"/>
+        <v>827.76248982082802</v>
+      </c>
+      <c r="O82" s="65">
         <f t="shared" si="33"/>
-        <v>827.76248982082802</v>
-      </c>
-      <c r="O82" s="65">
+        <v>80</v>
+      </c>
+      <c r="P82" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P82" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q82" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q82" s="66">
-        <f t="shared" si="36"/>
         <v>1390.2371425322503</v>
       </c>
       <c r="S82" s="68">
@@ -11379,7 +11379,7 @@
         <v>1390.2371425322503</v>
       </c>
       <c r="AA82" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.23188651607140273</v>
       </c>
       <c r="AB82" s="72"/>
@@ -11391,23 +11391,23 @@
     </row>
     <row r="83" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43072</v>
       </c>
       <c r="B83" s="64">
+        <f t="shared" si="36"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="65">
         <f t="shared" si="37"/>
-        <v>81</v>
-      </c>
-      <c r="C83" s="65">
+        <v>176.72217814172905</v>
+      </c>
+      <c r="D83" s="65">
         <f t="shared" si="38"/>
-        <v>176.72217814172905</v>
-      </c>
-      <c r="D83" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E83" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.948849169409556</v>
       </c>
       <c r="F83" s="55"/>
@@ -11416,19 +11416,19 @@
         <v>2198.9545841783161</v>
       </c>
       <c r="H83" s="65">
+        <f t="shared" si="39"/>
+        <v>804.41432425169626</v>
+      </c>
+      <c r="I83" s="65">
         <f t="shared" si="40"/>
-        <v>804.41432425169626</v>
-      </c>
-      <c r="I83" s="65">
-        <f t="shared" si="41"/>
         <v>1394.5402599266199</v>
       </c>
       <c r="J83" s="57">
+        <f t="shared" si="30"/>
+        <v>0.22983266407191322</v>
+      </c>
+      <c r="K83" s="65">
         <f t="shared" si="31"/>
-        <v>0.22983266407191322</v>
-      </c>
-      <c r="K83" s="65">
-        <f t="shared" si="32"/>
         <v>92.451734135021951</v>
       </c>
       <c r="L83" s="65">
@@ -11439,19 +11439,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N83" s="65">
+        <f t="shared" si="32"/>
+        <v>832.06560721519759</v>
+      </c>
+      <c r="O83" s="65">
         <f t="shared" si="33"/>
-        <v>832.06560721519759</v>
-      </c>
-      <c r="O83" s="65">
+        <v>80</v>
+      </c>
+      <c r="P83" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P83" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q83" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q83" s="66">
-        <f t="shared" si="36"/>
         <v>1394.5402599266199</v>
       </c>
       <c r="S83" s="68">
@@ -11487,7 +11487,7 @@
         <v>1394.5402599266199</v>
       </c>
       <c r="AA83" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.22983266407191322</v>
       </c>
       <c r="AB83" s="72"/>
@@ -11499,23 +11499,23 @@
     </row>
     <row r="84" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43073</v>
       </c>
       <c r="B84" s="64">
+        <f t="shared" si="36"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="65">
         <f t="shared" si="37"/>
-        <v>82</v>
-      </c>
-      <c r="C84" s="65">
+        <v>176.49234547765712</v>
+      </c>
+      <c r="D84" s="65">
         <f t="shared" si="38"/>
-        <v>176.49234547765712</v>
-      </c>
-      <c r="D84" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E84" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.719016505337635</v>
       </c>
       <c r="F84" s="55"/>
@@ -11524,19 +11524,19 @@
         <v>2196.0947756609635</v>
       </c>
       <c r="H84" s="65">
+        <f t="shared" si="39"/>
+        <v>797.28951166546665</v>
+      </c>
+      <c r="I84" s="65">
         <f t="shared" si="40"/>
-        <v>797.28951166546665</v>
-      </c>
-      <c r="I84" s="65">
-        <f t="shared" si="41"/>
         <v>1398.8052639954967</v>
       </c>
       <c r="J84" s="57">
+        <f t="shared" si="30"/>
+        <v>0.22779700333299047</v>
+      </c>
+      <c r="K84" s="65">
         <f t="shared" si="31"/>
-        <v>0.22779700333299047</v>
-      </c>
-      <c r="K84" s="65">
-        <f t="shared" si="32"/>
         <v>92.925623476008269</v>
       </c>
       <c r="L84" s="65">
@@ -11547,19 +11547,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N84" s="65">
+        <f t="shared" si="32"/>
+        <v>836.33061128407439</v>
+      </c>
+      <c r="O84" s="65">
         <f t="shared" si="33"/>
-        <v>836.33061128407439</v>
-      </c>
-      <c r="O84" s="65">
+        <v>80</v>
+      </c>
+      <c r="P84" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P84" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q84" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q84" s="66">
-        <f t="shared" si="36"/>
         <v>1398.8052639954967</v>
       </c>
       <c r="S84" s="68">
@@ -11595,7 +11595,7 @@
         <v>1398.8052639954967</v>
       </c>
       <c r="AA84" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.22779700333299047</v>
       </c>
       <c r="AB84" s="72"/>
@@ -11607,23 +11607,23 @@
     </row>
     <row r="85" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43074</v>
       </c>
       <c r="B85" s="64">
+        <f t="shared" si="36"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="65">
         <f t="shared" si="37"/>
-        <v>83</v>
-      </c>
-      <c r="C85" s="65">
+        <v>176.26454847432413</v>
+      </c>
+      <c r="D85" s="65">
         <f t="shared" si="38"/>
-        <v>176.26454847432413</v>
-      </c>
-      <c r="D85" s="65">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E85" s="66">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.49121950200464</v>
       </c>
       <c r="F85" s="55"/>
@@ -11632,19 +11632,19 @@
         <v>2193.2602968761926</v>
       </c>
       <c r="H85" s="65">
+        <f t="shared" si="39"/>
+        <v>790.22780456214377</v>
+      </c>
+      <c r="I85" s="65">
         <f t="shared" si="40"/>
-        <v>790.22780456214377</v>
-      </c>
-      <c r="I85" s="65">
-        <f t="shared" si="41"/>
         <v>1403.0324923140488</v>
       </c>
       <c r="J85" s="57">
+        <f t="shared" si="30"/>
+        <v>0.22577937273204107</v>
+      </c>
+      <c r="K85" s="65">
         <f t="shared" si="31"/>
-        <v>0.22577937273204107</v>
-      </c>
-      <c r="K85" s="65">
-        <f t="shared" si="32"/>
         <v>93.395315511402941</v>
       </c>
       <c r="L85" s="65">
@@ -11655,19 +11655,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N85" s="65">
+        <f t="shared" si="32"/>
+        <v>840.55783960262647</v>
+      </c>
+      <c r="O85" s="65">
         <f t="shared" si="33"/>
-        <v>840.55783960262647</v>
-      </c>
-      <c r="O85" s="65">
+        <v>80</v>
+      </c>
+      <c r="P85" s="65">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P85" s="65">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q85" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q85" s="66">
-        <f t="shared" si="36"/>
         <v>1403.0324923140488</v>
       </c>
       <c r="S85" s="68">
@@ -11703,7 +11703,7 @@
         <v>1403.0324923140488</v>
       </c>
       <c r="AA85" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.22577937273204107</v>
       </c>
       <c r="AB85" s="72"/>
@@ -11715,23 +11715,23 @@
     </row>
     <row r="86" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43075</v>
       </c>
       <c r="B86" s="64">
+        <f t="shared" si="36"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="65">
         <f t="shared" si="37"/>
-        <v>84</v>
-      </c>
-      <c r="C86" s="65">
+        <v>176.0387691015921</v>
+      </c>
+      <c r="D86" s="75">
         <f t="shared" si="38"/>
-        <v>176.0387691015921</v>
-      </c>
-      <c r="D86" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E86" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.265440129272605</v>
       </c>
       <c r="F86" s="77"/>
@@ -11740,19 +11740,19 @@
         <v>2190.4509234749444</v>
       </c>
       <c r="H86" s="65">
+        <f t="shared" si="39"/>
+        <v>783.22864400745073</v>
+      </c>
+      <c r="I86" s="65">
         <f t="shared" si="40"/>
-        <v>783.22864400745073</v>
-      </c>
-      <c r="I86" s="65">
-        <f t="shared" si="41"/>
         <v>1407.2222794674935</v>
       </c>
       <c r="J86" s="57">
+        <f t="shared" si="30"/>
+        <v>0.22377961257355736</v>
+      </c>
+      <c r="K86" s="75">
         <f t="shared" si="31"/>
-        <v>0.22377961257355736</v>
-      </c>
-      <c r="K86" s="75">
-        <f t="shared" si="32"/>
         <v>93.860847417341247</v>
       </c>
       <c r="L86" s="75">
@@ -11763,19 +11763,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N86" s="65">
+        <f t="shared" si="32"/>
+        <v>844.74762675607121</v>
+      </c>
+      <c r="O86" s="75">
         <f t="shared" si="33"/>
-        <v>844.74762675607121</v>
-      </c>
-      <c r="O86" s="75">
+        <v>80</v>
+      </c>
+      <c r="P86" s="75">
         <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="P86" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q86" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q86" s="66">
-        <f t="shared" si="36"/>
         <v>1407.2222794674935</v>
       </c>
       <c r="S86" s="68">
@@ -11811,7 +11811,7 @@
         <v>1407.2222794674935</v>
       </c>
       <c r="AA86" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.22377961257355736</v>
       </c>
       <c r="AB86" s="72"/>
@@ -11823,23 +11823,23 @@
     </row>
     <row r="87" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43076</v>
       </c>
       <c r="B87" s="64">
+        <f t="shared" si="36"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="65">
         <f t="shared" si="37"/>
-        <v>85</v>
-      </c>
-      <c r="C87" s="65">
+        <v>175.81498948901853</v>
+      </c>
+      <c r="D87" s="75">
         <f t="shared" si="38"/>
-        <v>175.81498948901853</v>
-      </c>
-      <c r="D87" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E87" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.041660516699039</v>
       </c>
       <c r="F87" s="77"/>
@@ -11848,19 +11848,19 @@
         <v>2187.6664330952503</v>
       </c>
       <c r="H87" s="65">
+        <f t="shared" si="39"/>
+        <v>776.29147601767022</v>
+      </c>
+      <c r="I87" s="65">
         <f t="shared" si="40"/>
-        <v>776.29147601767022</v>
-      </c>
-      <c r="I87" s="65">
-        <f t="shared" si="41"/>
         <v>1411.3749570775801</v>
       </c>
       <c r="J87" s="57">
+        <f t="shared" si="30"/>
+        <v>0.2217975645764772</v>
+      </c>
+      <c r="K87" s="75">
         <f t="shared" si="31"/>
-        <v>0.2217975645764772</v>
-      </c>
-      <c r="K87" s="75">
-        <f t="shared" si="32"/>
         <v>93.877811596239752</v>
       </c>
       <c r="L87" s="75">
@@ -11871,19 +11871,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N87" s="65">
+        <f t="shared" si="32"/>
+        <v>844.9003043661578</v>
+      </c>
+      <c r="O87" s="75">
         <f t="shared" si="33"/>
-        <v>844.9003043661578</v>
-      </c>
-      <c r="O87" s="75">
+        <v>84</v>
+      </c>
+      <c r="P87" s="75">
         <f t="shared" si="34"/>
-        <v>84</v>
-      </c>
-      <c r="P87" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q87" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q87" s="66">
-        <f t="shared" si="36"/>
         <v>1411.3749570775801</v>
       </c>
       <c r="S87" s="68">
@@ -11919,7 +11919,7 @@
         <v>1411.3749570775801</v>
       </c>
       <c r="AA87" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.2217975645764772</v>
       </c>
       <c r="AB87" s="72"/>
@@ -11931,23 +11931,23 @@
     </row>
     <row r="88" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43077</v>
       </c>
       <c r="B88" s="64">
+        <f t="shared" si="36"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="65">
         <f t="shared" si="37"/>
-        <v>86</v>
-      </c>
-      <c r="C88" s="65">
+        <v>175.59319192444204</v>
+      </c>
+      <c r="D88" s="75">
         <f t="shared" si="38"/>
-        <v>175.59319192444204</v>
-      </c>
-      <c r="D88" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E88" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.819862952122548</v>
       </c>
       <c r="F88" s="77"/>
@@ -11956,19 +11956,19 @@
         <v>2184.9066053446331</v>
       </c>
       <c r="H88" s="65">
+        <f t="shared" si="39"/>
+        <v>769.415751515799</v>
+      </c>
+      <c r="I88" s="65">
         <f t="shared" si="40"/>
-        <v>769.415751515799</v>
-      </c>
-      <c r="I88" s="65">
-        <f t="shared" si="41"/>
         <v>1415.4908538288341</v>
       </c>
       <c r="J88" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21983307186165685</v>
+      </c>
+      <c r="K88" s="75">
         <f t="shared" si="31"/>
-        <v>0.21983307186165685</v>
-      </c>
-      <c r="K88" s="75">
-        <f t="shared" si="32"/>
         <v>93.890689013045758</v>
       </c>
       <c r="L88" s="75">
@@ -11979,19 +11979,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N88" s="65">
+        <f t="shared" si="32"/>
+        <v>845.01620111741181</v>
+      </c>
+      <c r="O88" s="75">
         <f t="shared" si="33"/>
-        <v>845.01620111741181</v>
-      </c>
-      <c r="O88" s="75">
+        <v>88</v>
+      </c>
+      <c r="P88" s="75">
         <f t="shared" si="34"/>
-        <v>88</v>
-      </c>
-      <c r="P88" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q88" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q88" s="66">
-        <f t="shared" si="36"/>
         <v>1415.4908538288341</v>
       </c>
       <c r="S88" s="68">
@@ -12027,7 +12027,7 @@
         <v>1415.4908538288341</v>
       </c>
       <c r="AA88" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21983307186165685</v>
       </c>
       <c r="AB88" s="72"/>
@@ -12039,23 +12039,23 @@
     </row>
     <row r="89" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43078</v>
       </c>
       <c r="B89" s="64">
+        <f t="shared" si="36"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="65">
         <f t="shared" si="37"/>
-        <v>87</v>
-      </c>
-      <c r="C89" s="65">
+        <v>175.3733588525804</v>
+      </c>
+      <c r="D89" s="75">
         <f t="shared" si="38"/>
-        <v>175.3733588525804</v>
-      </c>
-      <c r="D89" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E89" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.600029880260905</v>
       </c>
       <c r="F89" s="77"/>
@@ -12064,19 +12064,19 @@
         <v>2182.1712217826644</v>
       </c>
       <c r="H89" s="65">
+        <f t="shared" si="39"/>
+        <v>762.60092628808809</v>
+      </c>
+      <c r="I89" s="65">
         <f t="shared" si="40"/>
-        <v>762.60092628808809</v>
-      </c>
-      <c r="I89" s="65">
-        <f t="shared" si="41"/>
         <v>1419.5702954945764</v>
       </c>
       <c r="J89" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21788597893945374</v>
+      </c>
+      <c r="K89" s="75">
         <f t="shared" si="31"/>
-        <v>0.21788597893945374</v>
-      </c>
-      <c r="K89" s="75">
-        <f t="shared" si="32"/>
         <v>93.899515864794893</v>
       </c>
       <c r="L89" s="75">
@@ -12087,19 +12087,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N89" s="65">
+        <f t="shared" si="32"/>
+        <v>845.09564278315406</v>
+      </c>
+      <c r="O89" s="75">
         <f t="shared" si="33"/>
-        <v>845.09564278315406</v>
-      </c>
-      <c r="O89" s="75">
+        <v>92</v>
+      </c>
+      <c r="P89" s="75">
         <f t="shared" si="34"/>
-        <v>92</v>
-      </c>
-      <c r="P89" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q89" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q89" s="66">
-        <f t="shared" si="36"/>
         <v>1419.5702954945764</v>
       </c>
       <c r="S89" s="68">
@@ -12135,7 +12135,7 @@
         <v>1419.5702954945764</v>
       </c>
       <c r="AA89" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21788597893945374</v>
       </c>
       <c r="AB89" s="72"/>
@@ -12147,23 +12147,23 @@
     </row>
     <row r="90" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43079</v>
       </c>
       <c r="B90" s="64">
+        <f t="shared" si="36"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="65">
         <f t="shared" si="37"/>
-        <v>88</v>
-      </c>
-      <c r="C90" s="65">
+        <v>175.15547287364095</v>
+      </c>
+      <c r="D90" s="75">
         <f t="shared" si="38"/>
-        <v>175.15547287364095</v>
-      </c>
-      <c r="D90" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E90" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.382143901321456</v>
       </c>
       <c r="F90" s="77"/>
@@ -12172,19 +12172,19 @@
         <v>2179.4600659036732</v>
       </c>
       <c r="H90" s="65">
+        <f t="shared" si="39"/>
+        <v>755.84646094096513</v>
+      </c>
+      <c r="I90" s="65">
         <f t="shared" si="40"/>
-        <v>755.84646094096513</v>
-      </c>
-      <c r="I90" s="65">
-        <f t="shared" si="41"/>
         <v>1423.613604962708</v>
       </c>
       <c r="J90" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21595613169741862</v>
+      </c>
+      <c r="K90" s="75">
         <f t="shared" si="31"/>
-        <v>0.21595613169741862</v>
-      </c>
-      <c r="K90" s="75">
-        <f t="shared" si="32"/>
         <v>93.904328027920627</v>
       </c>
       <c r="L90" s="75">
@@ -12195,19 +12195,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N90" s="65">
+        <f t="shared" si="32"/>
+        <v>845.13895225128567</v>
+      </c>
+      <c r="O90" s="75">
         <f t="shared" si="33"/>
-        <v>845.13895225128567</v>
-      </c>
-      <c r="O90" s="75">
+        <v>96</v>
+      </c>
+      <c r="P90" s="75">
         <f t="shared" si="34"/>
-        <v>96</v>
-      </c>
-      <c r="P90" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q90" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q90" s="66">
-        <f t="shared" si="36"/>
         <v>1423.613604962708</v>
       </c>
       <c r="S90" s="68">
@@ -12243,7 +12243,7 @@
         <v>1423.613604962708</v>
       </c>
       <c r="AA90" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21595613169741862</v>
       </c>
       <c r="AB90" s="72"/>
@@ -12255,23 +12255,23 @@
     </row>
     <row r="91" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43080</v>
       </c>
       <c r="B91" s="64">
+        <f t="shared" si="36"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="65">
         <f t="shared" si="37"/>
-        <v>89</v>
-      </c>
-      <c r="C91" s="65">
+        <v>174.93951674194352</v>
+      </c>
+      <c r="D91" s="75">
         <f t="shared" si="38"/>
-        <v>174.93951674194352</v>
-      </c>
-      <c r="D91" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E91" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>24.166187769624031</v>
       </c>
       <c r="F91" s="77"/>
@@ -12280,19 +12280,19 @@
         <v>2176.7729231196099</v>
       </c>
       <c r="H91" s="65">
+        <f t="shared" si="39"/>
+        <v>749.15182085834499</v>
+      </c>
+      <c r="I91" s="65">
         <f t="shared" si="40"/>
-        <v>749.15182085834499</v>
-      </c>
-      <c r="I91" s="65">
-        <f t="shared" si="41"/>
         <v>1427.6211022612649</v>
       </c>
       <c r="J91" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21404337738809856</v>
+      </c>
+      <c r="K91" s="75">
         <f t="shared" si="31"/>
-        <v>0.21404337738809856</v>
-      </c>
-      <c r="K91" s="75">
-        <f t="shared" si="32"/>
         <v>93.905161061093622</v>
       </c>
       <c r="L91" s="75">
@@ -12303,19 +12303,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N91" s="65">
+        <f t="shared" si="32"/>
+        <v>845.1464495498426</v>
+      </c>
+      <c r="O91" s="75">
         <f t="shared" si="33"/>
-        <v>845.1464495498426</v>
-      </c>
-      <c r="O91" s="75">
+        <v>100</v>
+      </c>
+      <c r="P91" s="75">
         <f t="shared" si="34"/>
-        <v>100</v>
-      </c>
-      <c r="P91" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q91" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q91" s="66">
-        <f t="shared" si="36"/>
         <v>1427.6211022612649</v>
       </c>
       <c r="S91" s="68">
@@ -12351,7 +12351,7 @@
         <v>1427.6211022612649</v>
       </c>
       <c r="AA91" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21404337738809856</v>
       </c>
       <c r="AB91" s="72"/>
@@ -12363,23 +12363,23 @@
     </row>
     <row r="92" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43081</v>
       </c>
       <c r="B92" s="64">
+        <f t="shared" si="36"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="65">
         <f t="shared" si="37"/>
-        <v>90</v>
-      </c>
-      <c r="C92" s="65">
+        <v>174.72547336455543</v>
+      </c>
+      <c r="D92" s="75">
         <f t="shared" si="38"/>
-        <v>174.72547336455543</v>
-      </c>
-      <c r="D92" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E92" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.952144392235937</v>
       </c>
       <c r="F92" s="77"/>
@@ -12388,19 +12388,19 @@
         <v>2174.1095807430629</v>
       </c>
       <c r="H92" s="65">
+        <f t="shared" si="39"/>
+        <v>742.51647615931404</v>
+      </c>
+      <c r="I92" s="65">
         <f t="shared" si="40"/>
-        <v>742.51647615931404</v>
-      </c>
-      <c r="I92" s="65">
-        <f t="shared" si="41"/>
         <v>1431.5931045837488</v>
       </c>
       <c r="J92" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21214756461694687</v>
+      </c>
+      <c r="K92" s="75">
         <f t="shared" si="31"/>
-        <v>0.21214756461694687</v>
-      </c>
-      <c r="K92" s="75">
-        <f t="shared" si="32"/>
         <v>93.902050208036272</v>
       </c>
       <c r="L92" s="75">
@@ -12411,19 +12411,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N92" s="65">
+        <f t="shared" si="32"/>
+        <v>845.11845187232643</v>
+      </c>
+      <c r="O92" s="75">
         <f t="shared" si="33"/>
-        <v>845.11845187232643</v>
-      </c>
-      <c r="O92" s="75">
+        <v>104</v>
+      </c>
+      <c r="P92" s="75">
         <f t="shared" si="34"/>
-        <v>104</v>
-      </c>
-      <c r="P92" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q92" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q92" s="66">
-        <f t="shared" si="36"/>
         <v>1431.5931045837488</v>
       </c>
       <c r="S92" s="68">
@@ -12459,7 +12459,7 @@
         <v>1431.5931045837488</v>
       </c>
       <c r="AA92" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21214756461694687</v>
       </c>
       <c r="AB92" s="72"/>
@@ -12471,23 +12471,23 @@
     </row>
     <row r="93" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43082</v>
       </c>
       <c r="B93" s="64">
+        <f t="shared" si="36"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="65">
         <f t="shared" si="37"/>
-        <v>91</v>
-      </c>
-      <c r="C93" s="65">
+        <v>174.51332579993849</v>
+      </c>
+      <c r="D93" s="75">
         <f t="shared" si="38"/>
-        <v>174.51332579993849</v>
-      </c>
-      <c r="D93" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E93" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.739996827618995</v>
       </c>
       <c r="F93" s="77"/>
@@ -12496,19 +12496,19 @@
         <v>2171.4698279704226</v>
       </c>
       <c r="H93" s="65">
+        <f t="shared" si="39"/>
+        <v>735.93990165618879</v>
+      </c>
+      <c r="I93" s="65">
         <f t="shared" si="40"/>
-        <v>735.93990165618879</v>
-      </c>
-      <c r="I93" s="65">
-        <f t="shared" si="41"/>
         <v>1435.5299263142338</v>
       </c>
       <c r="J93" s="57">
+        <f t="shared" si="30"/>
+        <v>0.21026854333033965</v>
+      </c>
+      <c r="K93" s="75">
         <f t="shared" si="31"/>
-        <v>0.21026854333033965</v>
-      </c>
-      <c r="K93" s="75">
-        <f t="shared" si="32"/>
         <v>93.895030400312379</v>
       </c>
       <c r="L93" s="75">
@@ -12519,19 +12519,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N93" s="65">
+        <f t="shared" si="32"/>
+        <v>845.05527360281144</v>
+      </c>
+      <c r="O93" s="75">
         <f t="shared" si="33"/>
-        <v>845.05527360281144</v>
-      </c>
-      <c r="O93" s="75">
+        <v>108</v>
+      </c>
+      <c r="P93" s="75">
         <f t="shared" si="34"/>
-        <v>108</v>
-      </c>
-      <c r="P93" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q93" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q93" s="66">
-        <f t="shared" si="36"/>
         <v>1435.5299263142338</v>
       </c>
       <c r="S93" s="68">
@@ -12567,7 +12567,7 @@
         <v>1435.5299263142338</v>
       </c>
       <c r="AA93" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.21026854333033965</v>
       </c>
       <c r="AB93" s="72"/>
@@ -12579,23 +12579,23 @@
     </row>
     <row r="94" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43083</v>
       </c>
       <c r="B94" s="64">
+        <f t="shared" si="36"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="65">
         <f t="shared" si="37"/>
-        <v>92</v>
-      </c>
-      <c r="C94" s="65">
+        <v>174.30305725660816</v>
+      </c>
+      <c r="D94" s="75">
         <f t="shared" si="38"/>
-        <v>174.30305725660816</v>
-      </c>
-      <c r="D94" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E94" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.529728284288666</v>
       </c>
       <c r="F94" s="77"/>
@@ -12604,19 +12604,19 @@
         <v>2168.8534558651968</v>
       </c>
       <c r="H94" s="65">
+        <f t="shared" si="39"/>
+        <v>729.42157681294862</v>
+      </c>
+      <c r="I94" s="65">
         <f t="shared" si="40"/>
-        <v>729.42157681294862</v>
-      </c>
-      <c r="I94" s="65">
-        <f t="shared" si="41"/>
         <v>1439.4318790522482</v>
       </c>
       <c r="J94" s="57">
+        <f t="shared" si="30"/>
+        <v>0.20840616480369961</v>
+      </c>
+      <c r="K94" s="75">
         <f t="shared" si="31"/>
-        <v>0.20840616480369961</v>
-      </c>
-      <c r="K94" s="75">
-        <f t="shared" si="32"/>
         <v>93.884136260091765</v>
       </c>
       <c r="L94" s="75">
@@ -12627,19 +12627,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N94" s="65">
+        <f t="shared" si="32"/>
+        <v>844.95722634082586</v>
+      </c>
+      <c r="O94" s="75">
         <f t="shared" si="33"/>
-        <v>844.95722634082586</v>
-      </c>
-      <c r="O94" s="75">
+        <v>112</v>
+      </c>
+      <c r="P94" s="75">
         <f t="shared" si="34"/>
-        <v>112</v>
-      </c>
-      <c r="P94" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q94" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q94" s="66">
-        <f t="shared" si="36"/>
         <v>1439.4318790522482</v>
       </c>
       <c r="S94" s="68">
@@ -12675,7 +12675,7 @@
         <v>1439.4318790522482</v>
       </c>
       <c r="AA94" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20840616480369961</v>
       </c>
       <c r="AB94" s="72"/>
@@ -12687,23 +12687,23 @@
     </row>
     <row r="95" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43084</v>
       </c>
       <c r="B95" s="64">
+        <f t="shared" si="36"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="65">
         <f t="shared" si="37"/>
-        <v>93</v>
-      </c>
-      <c r="C95" s="65">
+        <v>174.09465109180445</v>
+      </c>
+      <c r="D95" s="75">
         <f t="shared" si="38"/>
-        <v>174.09465109180445</v>
-      </c>
-      <c r="D95" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E95" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.321322119484961</v>
       </c>
       <c r="F95" s="77"/>
@@ -12712,19 +12712,19 @@
         <v>2166.2602573414747</v>
       </c>
       <c r="H95" s="65">
+        <f t="shared" si="39"/>
+        <v>722.96098570403376</v>
+      </c>
+      <c r="I95" s="65">
         <f t="shared" si="40"/>
-        <v>722.96098570403376</v>
-      </c>
-      <c r="I95" s="65">
-        <f t="shared" si="41"/>
         <v>1443.2992716374411</v>
       </c>
       <c r="J95" s="57">
+        <f t="shared" si="30"/>
+        <v>0.20656028162972392</v>
+      </c>
+      <c r="K95" s="75">
         <f t="shared" si="31"/>
-        <v>0.20656028162972392</v>
-      </c>
-      <c r="K95" s="75">
-        <f t="shared" si="32"/>
         <v>93.869402102890973</v>
       </c>
       <c r="L95" s="75">
@@ -12735,19 +12735,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N95" s="65">
+        <f t="shared" si="32"/>
+        <v>844.82461892601873</v>
+      </c>
+      <c r="O95" s="75">
         <f t="shared" si="33"/>
-        <v>844.82461892601873</v>
-      </c>
-      <c r="O95" s="75">
+        <v>116</v>
+      </c>
+      <c r="P95" s="75">
         <f t="shared" si="34"/>
-        <v>116</v>
-      </c>
-      <c r="P95" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q95" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q95" s="66">
-        <f t="shared" si="36"/>
         <v>1443.2992716374411</v>
       </c>
       <c r="S95" s="68">
@@ -12783,7 +12783,7 @@
         <v>1443.2992716374411</v>
       </c>
       <c r="AA95" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20656028162972392</v>
       </c>
       <c r="AB95" s="72"/>
@@ -12795,23 +12795,23 @@
     </row>
     <row r="96" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43085</v>
       </c>
       <c r="B96" s="64">
+        <f t="shared" si="36"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="65">
         <f t="shared" si="37"/>
-        <v>94</v>
-      </c>
-      <c r="C96" s="65">
+        <v>173.88809081017473</v>
+      </c>
+      <c r="D96" s="75">
         <f t="shared" si="38"/>
-        <v>173.88809081017473</v>
-      </c>
-      <c r="D96" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E96" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.114761837855241</v>
       </c>
       <c r="F96" s="77"/>
@@ -12820,19 +12820,19 @@
         <v>2163.6900271475338</v>
       </c>
       <c r="H96" s="65">
+        <f t="shared" si="39"/>
+        <v>716.55761697351249</v>
+      </c>
+      <c r="I96" s="65">
         <f t="shared" si="40"/>
-        <v>716.55761697351249</v>
-      </c>
-      <c r="I96" s="65">
-        <f t="shared" si="41"/>
         <v>1447.1324101740213</v>
       </c>
       <c r="J96" s="57">
+        <f t="shared" si="30"/>
+        <v>0.20473074770671787</v>
+      </c>
+      <c r="K96" s="75">
         <f t="shared" si="31"/>
-        <v>0.20473074770671787</v>
-      </c>
-      <c r="K96" s="75">
-        <f t="shared" si="32"/>
         <v>94.295306384733223</v>
       </c>
       <c r="L96" s="75">
@@ -12843,19 +12843,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N96" s="65">
+        <f t="shared" si="32"/>
+        <v>848.65775746259897</v>
+      </c>
+      <c r="O96" s="75">
         <f t="shared" si="33"/>
-        <v>848.65775746259897</v>
-      </c>
-      <c r="O96" s="75">
+        <v>116</v>
+      </c>
+      <c r="P96" s="75">
         <f t="shared" si="34"/>
-        <v>116</v>
-      </c>
-      <c r="P96" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q96" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q96" s="66">
-        <f t="shared" si="36"/>
         <v>1447.1324101740213</v>
       </c>
       <c r="S96" s="68">
@@ -12891,7 +12891,7 @@
         <v>1447.1324101740213</v>
       </c>
       <c r="AA96" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20473074770671787</v>
       </c>
       <c r="AB96" s="72"/>
@@ -12903,23 +12903,23 @@
     </row>
     <row r="97" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43086</v>
       </c>
       <c r="B97" s="64">
+        <f t="shared" si="36"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="65">
         <f t="shared" si="37"/>
-        <v>95</v>
-      </c>
-      <c r="C97" s="65">
+        <v>173.68336006246801</v>
+      </c>
+      <c r="D97" s="75">
         <f t="shared" si="38"/>
-        <v>173.68336006246801</v>
-      </c>
-      <c r="D97" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E97" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>22.910031090148522</v>
       </c>
       <c r="F97" s="77"/>
@@ -12928,19 +12928,19 @@
         <v>2161.1425618495969</v>
       </c>
       <c r="H97" s="65">
+        <f t="shared" si="39"/>
+        <v>710.21096379460414</v>
+      </c>
+      <c r="I97" s="65">
         <f t="shared" si="40"/>
-        <v>710.21096379460414</v>
-      </c>
-      <c r="I97" s="65">
-        <f t="shared" si="41"/>
         <v>1450.9315980549927</v>
       </c>
       <c r="J97" s="57">
+        <f t="shared" si="30"/>
+        <v>0.20291741822702974</v>
+      </c>
+      <c r="K97" s="75">
         <f t="shared" si="31"/>
-        <v>0.20291741822702974</v>
-      </c>
-      <c r="K97" s="75">
-        <f t="shared" si="32"/>
         <v>94.717438371507825</v>
       </c>
       <c r="L97" s="75">
@@ -12951,19 +12951,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N97" s="65">
+        <f t="shared" si="32"/>
+        <v>852.4569453435704</v>
+      </c>
+      <c r="O97" s="75">
         <f t="shared" si="33"/>
-        <v>852.4569453435704</v>
-      </c>
-      <c r="O97" s="75">
+        <v>116</v>
+      </c>
+      <c r="P97" s="75">
         <f t="shared" si="34"/>
-        <v>116</v>
-      </c>
-      <c r="P97" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q97" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q97" s="66">
-        <f t="shared" si="36"/>
         <v>1450.9315980549927</v>
       </c>
       <c r="S97" s="68">
@@ -12999,7 +12999,7 @@
         <v>1450.9315980549927</v>
       </c>
       <c r="AA97" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20291741822702974</v>
       </c>
       <c r="AB97" s="72"/>
@@ -13011,23 +13011,23 @@
     </row>
     <row r="98" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43087</v>
       </c>
       <c r="B98" s="64">
+        <f t="shared" si="36"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="65">
         <f t="shared" si="37"/>
-        <v>96</v>
-      </c>
-      <c r="C98" s="65">
+        <v>173.48044264424098</v>
+      </c>
+      <c r="D98" s="75">
         <f t="shared" si="38"/>
-        <v>173.48044264424098</v>
-      </c>
-      <c r="D98" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E98" s="76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>22.707113671921491</v>
       </c>
       <c r="F98" s="77"/>
@@ -13036,19 +13036,19 @@
         <v>2158.6176598157267</v>
       </c>
       <c r="H98" s="65">
+        <f t="shared" si="39"/>
+        <v>703.92052382956626</v>
+      </c>
+      <c r="I98" s="65">
         <f t="shared" si="40"/>
-        <v>703.92052382956626</v>
-      </c>
-      <c r="I98" s="65">
-        <f t="shared" si="41"/>
         <v>1454.6971359861604</v>
       </c>
       <c r="J98" s="57">
+        <f t="shared" si="30"/>
+        <v>0.20112014966559036</v>
+      </c>
+      <c r="K98" s="75">
         <f t="shared" si="31"/>
-        <v>0.20112014966559036</v>
-      </c>
-      <c r="K98" s="75">
-        <f t="shared" si="32"/>
         <v>95.1358314749709</v>
       </c>
       <c r="L98" s="75">
@@ -13059,19 +13059,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N98" s="65">
+        <f t="shared" si="32"/>
+        <v>856.22248327473812</v>
+      </c>
+      <c r="O98" s="75">
         <f t="shared" si="33"/>
-        <v>856.22248327473812</v>
-      </c>
-      <c r="O98" s="75">
+        <v>116</v>
+      </c>
+      <c r="P98" s="75">
         <f t="shared" si="34"/>
-        <v>116</v>
-      </c>
-      <c r="P98" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q98" s="66">
         <f t="shared" si="35"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q98" s="66">
-        <f t="shared" si="36"/>
         <v>1454.6971359861604</v>
       </c>
       <c r="S98" s="68">
@@ -13107,7 +13107,7 @@
         <v>1454.6971359861604</v>
       </c>
       <c r="AA98" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20112014966559036</v>
       </c>
       <c r="AB98" s="72"/>
@@ -13119,23 +13119,23 @@
     </row>
     <row r="99" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43088</v>
       </c>
       <c r="B99" s="64">
+        <f t="shared" si="36"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="65">
         <f t="shared" si="37"/>
-        <v>97</v>
-      </c>
-      <c r="C99" s="65">
+        <v>173.27932249457538</v>
+      </c>
+      <c r="D99" s="75">
         <f t="shared" si="38"/>
-        <v>173.27932249457538</v>
-      </c>
-      <c r="D99" s="75">
-        <f t="shared" si="39"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E99" s="76">
-        <f t="shared" ref="E99:E105" si="44">C99-D99</f>
+        <f t="shared" ref="E99:E105" si="43">C99-D99</f>
         <v>22.505993522255892</v>
       </c>
       <c r="F99" s="77"/>
@@ -13144,19 +13144,19 @@
         <v>2156.1151211998713</v>
       </c>
       <c r="H99" s="65">
+        <f t="shared" si="39"/>
+        <v>697.6857991899326</v>
+      </c>
+      <c r="I99" s="65">
         <f t="shared" si="40"/>
-        <v>697.6857991899326</v>
-      </c>
-      <c r="I99" s="65">
-        <f t="shared" si="41"/>
         <v>1458.4293220099387</v>
       </c>
       <c r="J99" s="57">
-        <f t="shared" ref="J99:J105" si="45">H99/3500</f>
+        <f t="shared" ref="J99:J105" si="44">H99/3500</f>
         <v>0.19933879976855218</v>
       </c>
       <c r="K99" s="75">
-        <f t="shared" ref="K99:K105" si="46">N99/9</f>
+        <f t="shared" ref="K99:K105" si="45">N99/9</f>
         <v>95.550518810946258</v>
       </c>
       <c r="L99" s="75">
@@ -13167,19 +13167,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N99" s="65">
-        <f t="shared" ref="N99:N105" si="47">MAX(0,I99-(O99+P99))</f>
+        <f t="shared" ref="N99:N105" si="46">MAX(0,I99-(O99+P99))</f>
         <v>859.95466929851636</v>
       </c>
       <c r="O99" s="75">
-        <f t="shared" ref="O99:O105" si="48">4*L99</f>
+        <f t="shared" ref="O99:O105" si="47">4*L99</f>
         <v>116</v>
       </c>
       <c r="P99" s="75">
-        <f t="shared" ref="P99:P105" si="49">4*M99</f>
+        <f t="shared" ref="P99:P105" si="48">4*M99</f>
         <v>482.47465271142238</v>
       </c>
       <c r="Q99" s="66">
-        <f t="shared" ref="Q99:Q105" si="50">SUM(N99:P99)</f>
+        <f t="shared" ref="Q99:Q105" si="49">SUM(N99:P99)</f>
         <v>1458.4293220099387</v>
       </c>
       <c r="S99" s="68">
@@ -13215,7 +13215,7 @@
         <v>1458.4293220099387</v>
       </c>
       <c r="AA99" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19933879976855218</v>
       </c>
       <c r="AB99" s="72"/>
@@ -13227,23 +13227,23 @@
     </row>
     <row r="100" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="63">
+        <f t="shared" si="42"/>
+        <v>43089</v>
+      </c>
+      <c r="B100" s="64">
+        <f t="shared" ref="B100:B105" si="50">B99+1</f>
+        <v>98</v>
+      </c>
+      <c r="C100" s="65">
+        <f t="shared" ref="C100:C105" si="51">C99-AA99</f>
+        <v>173.07998369480683</v>
+      </c>
+      <c r="D100" s="75">
+        <f t="shared" ref="D100:D111" si="52">$D$3</f>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E100" s="76">
         <f t="shared" si="43"/>
-        <v>43089</v>
-      </c>
-      <c r="B100" s="64">
-        <f t="shared" ref="B100:B105" si="51">B99+1</f>
-        <v>98</v>
-      </c>
-      <c r="C100" s="65">
-        <f t="shared" ref="C100:C105" si="52">C99-AA99</f>
-        <v>173.07998369480683</v>
-      </c>
-      <c r="D100" s="75">
-        <f t="shared" ref="D100:D111" si="53">$D$3</f>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E100" s="76">
-        <f t="shared" si="44"/>
         <v>22.306654722487337</v>
       </c>
       <c r="F100" s="77"/>
@@ -13252,19 +13252,19 @@
         <v>2153.6347479260417</v>
       </c>
       <c r="H100" s="65">
+        <f t="shared" si="39"/>
+        <v>691.50629639710746</v>
+      </c>
+      <c r="I100" s="65">
         <f t="shared" si="40"/>
-        <v>691.50629639710746</v>
-      </c>
-      <c r="I100" s="65">
-        <f t="shared" si="41"/>
         <v>1462.1284515289342</v>
       </c>
       <c r="J100" s="57">
+        <f t="shared" si="44"/>
+        <v>0.19757322754203072</v>
+      </c>
+      <c r="K100" s="75">
         <f t="shared" si="45"/>
-        <v>0.19757322754203072</v>
-      </c>
-      <c r="K100" s="75">
-        <f t="shared" si="46"/>
         <v>95.96153320194577</v>
       </c>
       <c r="L100" s="75">
@@ -13275,19 +13275,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N100" s="65">
+        <f t="shared" si="46"/>
+        <v>863.65379881751187</v>
+      </c>
+      <c r="O100" s="75">
         <f t="shared" si="47"/>
-        <v>863.65379881751187</v>
-      </c>
-      <c r="O100" s="75">
+        <v>116</v>
+      </c>
+      <c r="P100" s="75">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P100" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q100" s="66">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q100" s="66">
-        <f t="shared" si="50"/>
         <v>1462.1284515289342</v>
       </c>
       <c r="S100" s="68">
@@ -13323,7 +13323,7 @@
         <v>1462.1284515289342</v>
       </c>
       <c r="AA100" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19757322754203072</v>
       </c>
       <c r="AB100" s="72"/>
@@ -13335,23 +13335,23 @@
     </row>
     <row r="101" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="63">
+        <f t="shared" si="42"/>
+        <v>43090</v>
+      </c>
+      <c r="B101" s="64">
+        <f t="shared" si="50"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="65">
+        <f t="shared" si="51"/>
+        <v>172.8824104672648</v>
+      </c>
+      <c r="D101" s="75">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E101" s="76">
         <f t="shared" si="43"/>
-        <v>43090</v>
-      </c>
-      <c r="B101" s="64">
-        <f t="shared" si="51"/>
-        <v>99</v>
-      </c>
-      <c r="C101" s="65">
-        <f t="shared" si="52"/>
-        <v>172.8824104672648</v>
-      </c>
-      <c r="D101" s="75">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E101" s="76">
-        <f t="shared" si="44"/>
         <v>22.109081494945315</v>
       </c>
       <c r="F101" s="77"/>
@@ -13360,19 +13360,19 @@
         <v>2151.1763436726378</v>
       </c>
       <c r="H101" s="65">
+        <f t="shared" si="39"/>
+        <v>685.38152634330481</v>
+      </c>
+      <c r="I101" s="65">
         <f t="shared" si="40"/>
-        <v>685.38152634330481</v>
-      </c>
-      <c r="I101" s="65">
-        <f t="shared" si="41"/>
         <v>1465.794817329333</v>
       </c>
       <c r="J101" s="57">
+        <f t="shared" si="44"/>
+        <v>0.19582329324094425</v>
+      </c>
+      <c r="K101" s="75">
         <f t="shared" si="45"/>
-        <v>0.19582329324094425</v>
-      </c>
-      <c r="K101" s="75">
-        <f t="shared" si="46"/>
         <v>96.368907179767859</v>
       </c>
       <c r="L101" s="75">
@@ -13383,19 +13383,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N101" s="65">
+        <f t="shared" si="46"/>
+        <v>867.32016461791068</v>
+      </c>
+      <c r="O101" s="75">
         <f t="shared" si="47"/>
-        <v>867.32016461791068</v>
-      </c>
-      <c r="O101" s="75">
+        <v>116</v>
+      </c>
+      <c r="P101" s="75">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P101" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q101" s="66">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q101" s="66">
-        <f t="shared" si="50"/>
         <v>1465.794817329333</v>
       </c>
       <c r="S101" s="68">
@@ -13431,7 +13431,7 @@
         <v>1465.794817329333</v>
       </c>
       <c r="AA101" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19582329324094425</v>
       </c>
       <c r="AB101" s="72"/>
@@ -13443,23 +13443,23 @@
     </row>
     <row r="102" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="63">
+        <f t="shared" si="42"/>
+        <v>43091</v>
+      </c>
+      <c r="B102" s="64">
+        <f t="shared" si="50"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="65">
+        <f t="shared" si="51"/>
+        <v>172.68658717402386</v>
+      </c>
+      <c r="D102" s="75">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E102" s="76">
         <f t="shared" si="43"/>
-        <v>43091</v>
-      </c>
-      <c r="B102" s="64">
-        <f t="shared" si="51"/>
-        <v>100</v>
-      </c>
-      <c r="C102" s="65">
-        <f t="shared" si="52"/>
-        <v>172.68658717402386</v>
-      </c>
-      <c r="D102" s="75">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E102" s="76">
-        <f t="shared" si="44"/>
         <v>21.913258201704366</v>
       </c>
       <c r="F102" s="77"/>
@@ -13468,19 +13468,19 @@
         <v>2148.7397138569067</v>
       </c>
       <c r="H102" s="65">
+        <f t="shared" si="39"/>
+        <v>679.31100425283535</v>
+      </c>
+      <c r="I102" s="65">
         <f t="shared" si="40"/>
-        <v>679.31100425283535</v>
-      </c>
-      <c r="I102" s="65">
-        <f t="shared" si="41"/>
         <v>1469.4287096040714</v>
       </c>
       <c r="J102" s="57">
+        <f t="shared" si="44"/>
+        <v>0.19408885835795295</v>
+      </c>
+      <c r="K102" s="75">
         <f t="shared" si="45"/>
-        <v>0.19408885835795295</v>
-      </c>
-      <c r="K102" s="75">
-        <f t="shared" si="46"/>
         <v>96.772672988072117</v>
       </c>
       <c r="L102" s="75">
@@ -13491,19 +13491,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N102" s="65">
+        <f t="shared" si="46"/>
+        <v>870.95405689264908</v>
+      </c>
+      <c r="O102" s="75">
         <f t="shared" si="47"/>
-        <v>870.95405689264908</v>
-      </c>
-      <c r="O102" s="75">
+        <v>116</v>
+      </c>
+      <c r="P102" s="75">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P102" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q102" s="66">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q102" s="66">
-        <f t="shared" si="50"/>
         <v>1469.4287096040714</v>
       </c>
       <c r="S102" s="68">
@@ -13539,7 +13539,7 @@
         <v>1469.4287096040714</v>
       </c>
       <c r="AA102" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19408885835795295</v>
       </c>
       <c r="AB102" s="72"/>
@@ -13551,23 +13551,23 @@
     </row>
     <row r="103" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="63">
+        <f t="shared" si="42"/>
+        <v>43092</v>
+      </c>
+      <c r="B103" s="64">
+        <f t="shared" si="50"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="65">
+        <f t="shared" si="51"/>
+        <v>172.4924983156659</v>
+      </c>
+      <c r="D103" s="75">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E103" s="76">
         <f t="shared" si="43"/>
-        <v>43092</v>
-      </c>
-      <c r="B103" s="64">
-        <f t="shared" si="51"/>
-        <v>101</v>
-      </c>
-      <c r="C103" s="65">
-        <f t="shared" si="52"/>
-        <v>172.4924983156659</v>
-      </c>
-      <c r="D103" s="75">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E103" s="76">
-        <f t="shared" si="44"/>
         <v>21.719169343346408</v>
       </c>
       <c r="F103" s="77"/>
@@ -13576,19 +13576,19 @@
         <v>2146.3246656195433</v>
       </c>
       <c r="H103" s="65">
+        <f t="shared" si="39"/>
+        <v>673.29424964373868</v>
+      </c>
+      <c r="I103" s="65">
         <f t="shared" si="40"/>
-        <v>673.29424964373868</v>
-      </c>
-      <c r="I103" s="65">
-        <f t="shared" si="41"/>
         <v>1473.0304159758048</v>
       </c>
       <c r="J103" s="57">
+        <f t="shared" si="44"/>
+        <v>0.19236978561249676</v>
+      </c>
+      <c r="K103" s="75">
         <f t="shared" si="45"/>
-        <v>0.19236978561249676</v>
-      </c>
-      <c r="K103" s="75">
-        <f t="shared" si="46"/>
         <v>97.17286258493138</v>
       </c>
       <c r="L103" s="75">
@@ -13599,19 +13599,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N103" s="65">
+        <f t="shared" si="46"/>
+        <v>874.55576326438245</v>
+      </c>
+      <c r="O103" s="75">
         <f t="shared" si="47"/>
-        <v>874.55576326438245</v>
-      </c>
-      <c r="O103" s="75">
+        <v>116</v>
+      </c>
+      <c r="P103" s="75">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P103" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q103" s="66">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q103" s="66">
-        <f t="shared" si="50"/>
         <v>1473.0304159758048</v>
       </c>
       <c r="S103" s="68">
@@ -13647,7 +13647,7 @@
         <v>1473.0304159758048</v>
       </c>
       <c r="AA103" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19236978561249676</v>
       </c>
       <c r="AB103" s="72"/>
@@ -13659,23 +13659,23 @@
     </row>
     <row r="104" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="63">
+        <f t="shared" si="42"/>
+        <v>43093</v>
+      </c>
+      <c r="B104" s="64">
+        <f t="shared" si="50"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="65">
+        <f t="shared" si="51"/>
+        <v>172.3001285300534</v>
+      </c>
+      <c r="D104" s="75">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E104" s="76">
         <f t="shared" si="43"/>
-        <v>43093</v>
-      </c>
-      <c r="B104" s="64">
-        <f t="shared" si="51"/>
-        <v>102</v>
-      </c>
-      <c r="C104" s="65">
-        <f t="shared" si="52"/>
-        <v>172.3001285300534</v>
-      </c>
-      <c r="D104" s="75">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E104" s="76">
-        <f t="shared" si="44"/>
         <v>21.526799557733909</v>
       </c>
       <c r="F104" s="77"/>
@@ -13684,19 +13684,19 @@
         <v>2143.9310078094254</v>
       </c>
       <c r="H104" s="65">
+        <f t="shared" si="39"/>
+        <v>667.33078628975113</v>
+      </c>
+      <c r="I104" s="65">
         <f t="shared" si="40"/>
-        <v>667.33078628975113</v>
-      </c>
-      <c r="I104" s="65">
-        <f t="shared" si="41"/>
         <v>1476.6002215196743</v>
       </c>
       <c r="J104" s="57">
+        <f t="shared" si="44"/>
+        <v>0.19066593893992889</v>
+      </c>
+      <c r="K104" s="75">
         <f t="shared" si="45"/>
-        <v>0.19066593893992889</v>
-      </c>
-      <c r="K104" s="75">
-        <f t="shared" si="46"/>
         <v>97.569507645361327</v>
       </c>
       <c r="L104" s="75">
@@ -13707,19 +13707,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N104" s="65">
+        <f t="shared" si="46"/>
+        <v>878.12556880825196</v>
+      </c>
+      <c r="O104" s="75">
         <f t="shared" si="47"/>
-        <v>878.12556880825196</v>
-      </c>
-      <c r="O104" s="75">
+        <v>116</v>
+      </c>
+      <c r="P104" s="75">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P104" s="75">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q104" s="66">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q104" s="66">
-        <f t="shared" si="50"/>
         <v>1476.6002215196743</v>
       </c>
       <c r="S104" s="68">
@@ -13755,7 +13755,7 @@
         <v>1476.6002215196743</v>
       </c>
       <c r="AA104" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.19066593893992889</v>
       </c>
       <c r="AB104" s="72"/>
@@ -13767,23 +13767,23 @@
     </row>
     <row r="105" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="63">
+        <f t="shared" si="42"/>
+        <v>43094</v>
+      </c>
+      <c r="B105" s="79">
+        <f t="shared" si="50"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="80">
+        <f t="shared" si="51"/>
+        <v>172.10946259111347</v>
+      </c>
+      <c r="D105" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E105" s="82">
         <f t="shared" si="43"/>
-        <v>43094</v>
-      </c>
-      <c r="B105" s="79">
-        <f t="shared" si="51"/>
-        <v>103</v>
-      </c>
-      <c r="C105" s="80">
-        <f t="shared" si="52"/>
-        <v>172.10946259111347</v>
-      </c>
-      <c r="D105" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E105" s="82">
-        <f t="shared" si="44"/>
         <v>21.33613361879398</v>
       </c>
       <c r="F105" s="77"/>
@@ -13800,11 +13800,11 @@
         <v>1480.1384087858696</v>
       </c>
       <c r="J105" s="57">
+        <f t="shared" si="44"/>
+        <v>0.18897718348074669</v>
+      </c>
+      <c r="K105" s="81">
         <f t="shared" si="45"/>
-        <v>0.18897718348074669</v>
-      </c>
-      <c r="K105" s="81">
-        <f t="shared" si="46"/>
         <v>97.96263956382748</v>
       </c>
       <c r="L105" s="81">
@@ -13815,19 +13815,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N105" s="80">
+        <f t="shared" si="46"/>
+        <v>881.66375607444729</v>
+      </c>
+      <c r="O105" s="81">
         <f t="shared" si="47"/>
-        <v>881.66375607444729</v>
-      </c>
-      <c r="O105" s="81">
+        <v>116</v>
+      </c>
+      <c r="P105" s="81">
         <f t="shared" si="48"/>
-        <v>116</v>
-      </c>
-      <c r="P105" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q105" s="84">
         <f t="shared" si="49"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q105" s="84">
-        <f t="shared" si="50"/>
         <v>1480.1384087858696</v>
       </c>
       <c r="S105" s="68">
@@ -13863,7 +13863,7 @@
         <v>1480.1384087858696</v>
       </c>
       <c r="AA105" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18897718348074669</v>
       </c>
       <c r="AB105" s="85"/>
@@ -13875,23 +13875,23 @@
     </row>
     <row r="106" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43095</v>
       </c>
       <c r="B106" s="79">
-        <f t="shared" ref="B106:B111" si="54">B105+1</f>
+        <f t="shared" ref="B106:B111" si="53">B105+1</f>
         <v>104</v>
       </c>
       <c r="C106" s="80">
-        <f t="shared" ref="C106:C111" si="55">C105-AA105</f>
+        <f t="shared" ref="C106:C111" si="54">C105-AA105</f>
         <v>171.92048540763273</v>
       </c>
       <c r="D106" s="81">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>150.77332897231949</v>
       </c>
       <c r="E106" s="82">
-        <f t="shared" ref="E106:E111" si="56">C106-D106</f>
+        <f t="shared" ref="E106:E111" si="55">C106-D106</f>
         <v>21.147156435313235</v>
       </c>
       <c r="F106" s="77"/>
@@ -13900,19 +13900,19 @@
         <v>2139.2071073167031</v>
       </c>
       <c r="H106" s="81">
-        <f t="shared" ref="H106:H111" si="57">E106*31</f>
+        <f t="shared" ref="H106:H111" si="56">E106*31</f>
         <v>655.56184949471026</v>
       </c>
       <c r="I106" s="81">
-        <f t="shared" ref="I106:I111" si="58">G106-H106</f>
+        <f t="shared" ref="I106:I111" si="57">G106-H106</f>
         <v>1483.6452578219928</v>
       </c>
       <c r="J106" s="57">
-        <f t="shared" ref="J106:J111" si="59">H106/3500</f>
+        <f t="shared" ref="J106:J111" si="58">H106/3500</f>
         <v>0.18730338556991721</v>
       </c>
       <c r="K106" s="81">
-        <f t="shared" ref="K106:K111" si="60">N106/9</f>
+        <f t="shared" ref="K106:K111" si="59">N106/9</f>
         <v>98.352289456730048</v>
       </c>
       <c r="L106" s="81">
@@ -13923,19 +13923,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N106" s="80">
-        <f t="shared" ref="N106:N111" si="61">MAX(0,I106-(O106+P106))</f>
+        <f t="shared" ref="N106:N111" si="60">MAX(0,I106-(O106+P106))</f>
         <v>885.17060511057048</v>
       </c>
       <c r="O106" s="81">
-        <f t="shared" ref="O106:O111" si="62">4*L106</f>
+        <f t="shared" ref="O106:O111" si="61">4*L106</f>
         <v>116</v>
       </c>
       <c r="P106" s="81">
-        <f t="shared" ref="P106:P111" si="63">4*M106</f>
+        <f t="shared" ref="P106:P111" si="62">4*M106</f>
         <v>482.47465271142238</v>
       </c>
       <c r="Q106" s="84">
-        <f t="shared" ref="Q106:Q111" si="64">SUM(N106:P106)</f>
+        <f t="shared" ref="Q106:Q111" si="63">SUM(N106:P106)</f>
         <v>1483.6452578219928</v>
       </c>
       <c r="S106" s="68">
@@ -13971,7 +13971,7 @@
         <v>1483.6452578219928</v>
       </c>
       <c r="AA106" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18730338556991721</v>
       </c>
       <c r="AB106" s="85"/>
@@ -13983,23 +13983,23 @@
     </row>
     <row r="107" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43096</v>
       </c>
       <c r="B107" s="79">
+        <f t="shared" si="53"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="80">
         <f t="shared" si="54"/>
-        <v>105</v>
-      </c>
-      <c r="C107" s="80">
+        <v>171.73318202206281</v>
+      </c>
+      <c r="D107" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E107" s="82">
         <f t="shared" si="55"/>
-        <v>171.73318202206281</v>
-      </c>
-      <c r="D107" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E107" s="82">
-        <f t="shared" si="56"/>
         <v>20.959853049743316</v>
       </c>
       <c r="F107" s="77"/>
@@ -14008,19 +14008,19 @@
         <v>2136.8764907372674</v>
       </c>
       <c r="H107" s="81">
+        <f t="shared" si="56"/>
+        <v>649.75544454204282</v>
+      </c>
+      <c r="I107" s="81">
         <f t="shared" si="57"/>
-        <v>649.75544454204282</v>
-      </c>
-      <c r="I107" s="81">
+        <v>1487.1210461952246</v>
+      </c>
+      <c r="J107" s="57">
         <f t="shared" si="58"/>
-        <v>1487.1210461952246</v>
-      </c>
-      <c r="J107" s="57">
+        <v>0.18564441272629795</v>
+      </c>
+      <c r="K107" s="81">
         <f t="shared" si="59"/>
-        <v>0.18564441272629795</v>
-      </c>
-      <c r="K107" s="81">
-        <f t="shared" si="60"/>
         <v>98.738488164866922</v>
       </c>
       <c r="L107" s="81">
@@ -14031,19 +14031,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N107" s="80">
+        <f t="shared" si="60"/>
+        <v>888.64639348380229</v>
+      </c>
+      <c r="O107" s="81">
         <f t="shared" si="61"/>
-        <v>888.64639348380229</v>
-      </c>
-      <c r="O107" s="81">
+        <v>116</v>
+      </c>
+      <c r="P107" s="81">
         <f t="shared" si="62"/>
-        <v>116</v>
-      </c>
-      <c r="P107" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q107" s="84">
         <f t="shared" si="63"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q107" s="84">
-        <f t="shared" si="64"/>
         <v>1487.1210461952246</v>
       </c>
       <c r="S107" s="68">
@@ -14079,7 +14079,7 @@
         <v>1487.1210461952246</v>
       </c>
       <c r="AA107" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18564441272629795</v>
       </c>
       <c r="AB107" s="85"/>
@@ -14091,23 +14091,23 @@
     </row>
     <row r="108" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43097</v>
       </c>
       <c r="B108" s="79">
+        <f t="shared" si="53"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="80">
         <f t="shared" si="54"/>
-        <v>106</v>
-      </c>
-      <c r="C108" s="80">
+        <v>171.5475376093365</v>
+      </c>
+      <c r="D108" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E108" s="82">
         <f t="shared" si="55"/>
-        <v>171.5475376093365</v>
-      </c>
-      <c r="D108" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E108" s="82">
-        <f t="shared" si="56"/>
         <v>20.774208637017011</v>
       </c>
       <c r="F108" s="77"/>
@@ -14116,19 +14116,19 @@
         <v>2134.5665167618208</v>
       </c>
       <c r="H108" s="81">
+        <f t="shared" si="56"/>
+        <v>644.00046774752741</v>
+      </c>
+      <c r="I108" s="81">
         <f t="shared" si="57"/>
-        <v>644.00046774752741</v>
-      </c>
-      <c r="I108" s="81">
+        <v>1490.5660490142934</v>
+      </c>
+      <c r="J108" s="57">
         <f t="shared" si="58"/>
-        <v>1490.5660490142934</v>
-      </c>
-      <c r="J108" s="57">
+        <v>0.18400013364215068</v>
+      </c>
+      <c r="K108" s="81">
         <f t="shared" si="59"/>
-        <v>0.18400013364215068</v>
-      </c>
-      <c r="K108" s="81">
-        <f t="shared" si="60"/>
         <v>99.121266255874559</v>
       </c>
       <c r="L108" s="81">
@@ -14139,19 +14139,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N108" s="80">
+        <f t="shared" si="60"/>
+        <v>892.09139630287109</v>
+      </c>
+      <c r="O108" s="81">
         <f t="shared" si="61"/>
-        <v>892.09139630287109</v>
-      </c>
-      <c r="O108" s="81">
+        <v>116</v>
+      </c>
+      <c r="P108" s="81">
         <f t="shared" si="62"/>
-        <v>116</v>
-      </c>
-      <c r="P108" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q108" s="84">
         <f t="shared" si="63"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q108" s="84">
-        <f t="shared" si="64"/>
         <v>1490.5660490142934</v>
       </c>
       <c r="S108" s="68">
@@ -14187,7 +14187,7 @@
         <v>1490.5660490142934</v>
       </c>
       <c r="AA108" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18400013364215068</v>
       </c>
       <c r="AB108" s="85"/>
@@ -14199,23 +14199,23 @@
     </row>
     <row r="109" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43098</v>
       </c>
       <c r="B109" s="79">
+        <f t="shared" si="53"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="80">
         <f t="shared" si="54"/>
-        <v>107</v>
-      </c>
-      <c r="C109" s="80">
+        <v>171.36353747569436</v>
+      </c>
+      <c r="D109" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E109" s="82">
         <f t="shared" si="55"/>
-        <v>171.36353747569436</v>
-      </c>
-      <c r="D109" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E109" s="82">
-        <f t="shared" si="56"/>
         <v>20.590208503374868</v>
       </c>
       <c r="F109" s="77"/>
@@ -14224,19 +14224,19 @@
         <v>2132.2770025558716</v>
       </c>
       <c r="H109" s="81">
+        <f t="shared" si="56"/>
+        <v>638.29646360462084</v>
+      </c>
+      <c r="I109" s="81">
         <f t="shared" si="57"/>
-        <v>638.29646360462084</v>
-      </c>
-      <c r="I109" s="81">
+        <v>1493.9805389512508</v>
+      </c>
+      <c r="J109" s="57">
         <f t="shared" si="58"/>
-        <v>1493.9805389512508</v>
-      </c>
-      <c r="J109" s="57">
+        <v>0.18237041817274882</v>
+      </c>
+      <c r="K109" s="81">
         <f t="shared" si="59"/>
-        <v>0.18237041817274882</v>
-      </c>
-      <c r="K109" s="81">
-        <f t="shared" si="60"/>
         <v>99.500654026647609</v>
       </c>
       <c r="L109" s="81">
@@ -14247,19 +14247,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N109" s="80">
+        <f t="shared" si="60"/>
+        <v>895.50588623982844</v>
+      </c>
+      <c r="O109" s="81">
         <f t="shared" si="61"/>
-        <v>895.50588623982844</v>
-      </c>
-      <c r="O109" s="81">
+        <v>116</v>
+      </c>
+      <c r="P109" s="81">
         <f t="shared" si="62"/>
-        <v>116</v>
-      </c>
-      <c r="P109" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q109" s="84">
         <f t="shared" si="63"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q109" s="84">
-        <f t="shared" si="64"/>
         <v>1493.9805389512508</v>
       </c>
       <c r="S109" s="68">
@@ -14295,7 +14295,7 @@
         <v>1493.9805389512508</v>
       </c>
       <c r="AA109" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18237041817274882</v>
       </c>
       <c r="AB109" s="85"/>
@@ -14307,23 +14307,23 @@
     </row>
     <row r="110" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43099</v>
       </c>
       <c r="B110" s="79">
+        <f t="shared" si="53"/>
+        <v>108</v>
+      </c>
+      <c r="C110" s="80">
         <f t="shared" si="54"/>
-        <v>108</v>
-      </c>
-      <c r="C110" s="80">
+        <v>171.18116705752161</v>
+      </c>
+      <c r="D110" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E110" s="82">
         <f t="shared" si="55"/>
-        <v>171.18116705752161</v>
-      </c>
-      <c r="D110" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E110" s="82">
-        <f t="shared" si="56"/>
         <v>20.407838085202116</v>
       </c>
       <c r="F110" s="77"/>
@@ -14332,19 +14332,19 @@
         <v>2130.0077669043176</v>
       </c>
       <c r="H110" s="81">
+        <f t="shared" si="56"/>
+        <v>632.64298064126558</v>
+      </c>
+      <c r="I110" s="81">
         <f t="shared" si="57"/>
-        <v>632.64298064126558</v>
-      </c>
-      <c r="I110" s="81">
+        <v>1497.3647862630519</v>
+      </c>
+      <c r="J110" s="57">
         <f t="shared" si="58"/>
-        <v>1497.3647862630519</v>
-      </c>
-      <c r="J110" s="57">
+        <v>0.18075513732607587</v>
+      </c>
+      <c r="K110" s="81">
         <f t="shared" si="59"/>
-        <v>0.18075513732607587</v>
-      </c>
-      <c r="K110" s="81">
-        <f t="shared" si="60"/>
         <v>99.876681505736613</v>
       </c>
       <c r="L110" s="81">
@@ -14355,19 +14355,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N110" s="80">
+        <f t="shared" si="60"/>
+        <v>898.89013355162956</v>
+      </c>
+      <c r="O110" s="81">
         <f t="shared" si="61"/>
-        <v>898.89013355162956</v>
-      </c>
-      <c r="O110" s="81">
+        <v>116</v>
+      </c>
+      <c r="P110" s="81">
         <f t="shared" si="62"/>
-        <v>116</v>
-      </c>
-      <c r="P110" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q110" s="84">
         <f t="shared" si="63"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q110" s="84">
-        <f t="shared" si="64"/>
         <v>1497.3647862630519</v>
       </c>
       <c r="S110" s="68">
@@ -14403,7 +14403,7 @@
         <v>1497.3647862630519</v>
       </c>
       <c r="AA110" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.18075513732607587</v>
       </c>
       <c r="AB110" s="85"/>
@@ -14415,23 +14415,23 @@
     </row>
     <row r="111" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>43100</v>
       </c>
       <c r="B111" s="79">
+        <f t="shared" si="53"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="80">
         <f t="shared" si="54"/>
-        <v>109</v>
-      </c>
-      <c r="C111" s="80">
+        <v>171.00041192019552</v>
+      </c>
+      <c r="D111" s="81">
+        <f t="shared" si="52"/>
+        <v>150.77332897231949</v>
+      </c>
+      <c r="E111" s="82">
         <f t="shared" si="55"/>
-        <v>171.00041192019552</v>
-      </c>
-      <c r="D111" s="81">
-        <f t="shared" si="53"/>
-        <v>150.77332897231949</v>
-      </c>
-      <c r="E111" s="82">
-        <f t="shared" si="56"/>
         <v>20.227082947876028</v>
       </c>
       <c r="F111" s="77"/>
@@ -14440,19 +14440,19 @@
         <v>2127.758630197106</v>
       </c>
       <c r="H111" s="81">
+        <f t="shared" si="56"/>
+        <v>627.03957138415683</v>
+      </c>
+      <c r="I111" s="81">
         <f t="shared" si="57"/>
-        <v>627.03957138415683</v>
-      </c>
-      <c r="I111" s="81">
+        <v>1500.7190588129492</v>
+      </c>
+      <c r="J111" s="57">
         <f t="shared" si="58"/>
-        <v>1500.7190588129492</v>
-      </c>
-      <c r="J111" s="57">
+        <v>0.17915416325261624</v>
+      </c>
+      <c r="K111" s="81">
         <f t="shared" si="59"/>
-        <v>0.17915416325261624</v>
-      </c>
-      <c r="K111" s="81">
-        <f t="shared" si="60"/>
         <v>100.24937845572521</v>
       </c>
       <c r="L111" s="81">
@@ -14463,19 +14463,19 @@
         <v>120.61866317785559</v>
       </c>
       <c r="N111" s="80">
+        <f t="shared" si="60"/>
+        <v>902.24440610152692</v>
+      </c>
+      <c r="O111" s="81">
         <f t="shared" si="61"/>
-        <v>902.24440610152692</v>
-      </c>
-      <c r="O111" s="81">
+        <v>116</v>
+      </c>
+      <c r="P111" s="81">
         <f t="shared" si="62"/>
-        <v>116</v>
-      </c>
-      <c r="P111" s="81">
+        <v>482.47465271142238</v>
+      </c>
+      <c r="Q111" s="84">
         <f t="shared" si="63"/>
-        <v>482.47465271142238</v>
-      </c>
-      <c r="Q111" s="84">
-        <f t="shared" si="64"/>
         <v>1500.7190588129492</v>
       </c>
       <c r="S111" s="68">
@@ -14511,7 +14511,7 @@
         <v>1500.7190588129492</v>
       </c>
       <c r="AA111" s="111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.17915416325261624</v>
       </c>
       <c r="AB111" s="85"/>
